--- a/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
+++ b/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q825"/>
+  <dimension ref="A1:Q846"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -43503,7 +43503,9 @@
       <c r="P812" t="n">
         <v>0</v>
       </c>
-      <c r="Q812" t="inlineStr"/>
+      <c r="Q812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
@@ -43554,7 +43556,9 @@
       <c r="P813" t="n">
         <v>0</v>
       </c>
-      <c r="Q813" t="inlineStr"/>
+      <c r="Q813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
@@ -43605,7 +43609,9 @@
       <c r="P814" t="n">
         <v>0</v>
       </c>
-      <c r="Q814" t="inlineStr"/>
+      <c r="Q814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
@@ -43656,7 +43662,9 @@
       <c r="P815" t="n">
         <v>0</v>
       </c>
-      <c r="Q815" t="inlineStr"/>
+      <c r="Q815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
@@ -43707,7 +43715,9 @@
       <c r="P816" t="n">
         <v>0</v>
       </c>
-      <c r="Q816" t="inlineStr"/>
+      <c r="Q816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
@@ -43750,7 +43760,7 @@
         <v>4</v>
       </c>
       <c r="N817" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O817" t="n">
         <v>0</v>
@@ -43758,7 +43768,9 @@
       <c r="P817" t="n">
         <v>0</v>
       </c>
-      <c r="Q817" t="inlineStr"/>
+      <c r="Q817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
@@ -43809,7 +43821,9 @@
       <c r="P818" t="n">
         <v>0</v>
       </c>
-      <c r="Q818" t="inlineStr"/>
+      <c r="Q818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
@@ -43860,7 +43874,9 @@
       <c r="P819" t="n">
         <v>0</v>
       </c>
-      <c r="Q819" t="inlineStr"/>
+      <c r="Q819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
@@ -43911,7 +43927,9 @@
       <c r="P820" t="n">
         <v>0</v>
       </c>
-      <c r="Q820" t="inlineStr"/>
+      <c r="Q820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
@@ -43962,7 +43980,9 @@
       <c r="P821" t="n">
         <v>0</v>
       </c>
-      <c r="Q821" t="inlineStr"/>
+      <c r="Q821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
@@ -44013,7 +44033,9 @@
       <c r="P822" t="n">
         <v>0</v>
       </c>
-      <c r="Q822" t="inlineStr"/>
+      <c r="Q822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
@@ -44064,7 +44086,9 @@
       <c r="P823" t="n">
         <v>0</v>
       </c>
-      <c r="Q823" t="inlineStr"/>
+      <c r="Q823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
@@ -44115,7 +44139,9 @@
       <c r="P824" t="n">
         <v>0</v>
       </c>
-      <c r="Q824" t="inlineStr"/>
+      <c r="Q824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
@@ -44166,7 +44192,1080 @@
       <c r="P825" t="n">
         <v>0</v>
       </c>
-      <c r="Q825" t="inlineStr"/>
+      <c r="Q825" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="2" t="n">
+        <v>45684.38541666666</v>
+      </c>
+      <c r="B826" t="n">
+        <v>698</v>
+      </c>
+      <c r="C826" t="n">
+        <v>698</v>
+      </c>
+      <c r="D826" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="E826" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="F826" t="n">
+        <v>0</v>
+      </c>
+      <c r="G826" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H826" t="n">
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>27</v>
+      </c>
+      <c r="J826" t="n">
+        <v>9</v>
+      </c>
+      <c r="K826" t="n">
+        <v>15</v>
+      </c>
+      <c r="L826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M826" t="n">
+        <v>5</v>
+      </c>
+      <c r="N826" t="n">
+        <v>0</v>
+      </c>
+      <c r="O826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="2" t="n">
+        <v>45684.42708333334</v>
+      </c>
+      <c r="B827" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="C827" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="D827" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="E827" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="F827" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G827" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H827" t="n">
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>27</v>
+      </c>
+      <c r="J827" t="n">
+        <v>10</v>
+      </c>
+      <c r="K827" t="n">
+        <v>15</v>
+      </c>
+      <c r="L827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M827" t="n">
+        <v>5</v>
+      </c>
+      <c r="N827" t="n">
+        <v>0</v>
+      </c>
+      <c r="O827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="2" t="n">
+        <v>45684.46875</v>
+      </c>
+      <c r="B828" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="C828" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="D828" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="E828" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="F828" t="n">
+        <v>750</v>
+      </c>
+      <c r="G828" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H828" t="n">
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>27</v>
+      </c>
+      <c r="J828" t="n">
+        <v>11</v>
+      </c>
+      <c r="K828" t="n">
+        <v>15</v>
+      </c>
+      <c r="L828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M828" t="n">
+        <v>5</v>
+      </c>
+      <c r="N828" t="n">
+        <v>0</v>
+      </c>
+      <c r="O828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P828" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="2" t="n">
+        <v>45684.51041666666</v>
+      </c>
+      <c r="B829" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="C829" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="D829" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="E829" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="F829" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G829" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H829" t="n">
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>27</v>
+      </c>
+      <c r="J829" t="n">
+        <v>12</v>
+      </c>
+      <c r="K829" t="n">
+        <v>15</v>
+      </c>
+      <c r="L829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M829" t="n">
+        <v>5</v>
+      </c>
+      <c r="N829" t="n">
+        <v>0</v>
+      </c>
+      <c r="O829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="2" t="n">
+        <v>45684.55208333334</v>
+      </c>
+      <c r="B830" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="C830" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="D830" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="E830" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="F830" t="n">
+        <v>750</v>
+      </c>
+      <c r="G830" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H830" t="n">
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>27</v>
+      </c>
+      <c r="J830" t="n">
+        <v>13</v>
+      </c>
+      <c r="K830" t="n">
+        <v>15</v>
+      </c>
+      <c r="L830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M830" t="n">
+        <v>5</v>
+      </c>
+      <c r="N830" t="n">
+        <v>0</v>
+      </c>
+      <c r="O830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="2" t="n">
+        <v>45684.59375</v>
+      </c>
+      <c r="B831" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="C831" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="D831" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="E831" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="F831" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G831" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H831" t="n">
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>27</v>
+      </c>
+      <c r="J831" t="n">
+        <v>14</v>
+      </c>
+      <c r="K831" t="n">
+        <v>15</v>
+      </c>
+      <c r="L831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M831" t="n">
+        <v>5</v>
+      </c>
+      <c r="N831" t="n">
+        <v>0</v>
+      </c>
+      <c r="O831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="2" t="n">
+        <v>45684.63541666666</v>
+      </c>
+      <c r="B832" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="C832" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="D832" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="E832" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="F832" t="n">
+        <v>250</v>
+      </c>
+      <c r="G832" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H832" t="n">
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>27</v>
+      </c>
+      <c r="J832" t="n">
+        <v>15</v>
+      </c>
+      <c r="K832" t="n">
+        <v>15</v>
+      </c>
+      <c r="L832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M832" t="n">
+        <v>5</v>
+      </c>
+      <c r="N832" t="n">
+        <v>0</v>
+      </c>
+      <c r="O832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="2" t="n">
+        <v>45685.38541666666</v>
+      </c>
+      <c r="B833" t="n">
+        <v>642.2000122070312</v>
+      </c>
+      <c r="C833" t="n">
+        <v>660.9500122070312</v>
+      </c>
+      <c r="D833" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="E833" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="F833" t="n">
+        <v>0</v>
+      </c>
+      <c r="G833" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H833" t="n">
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>28</v>
+      </c>
+      <c r="J833" t="n">
+        <v>9</v>
+      </c>
+      <c r="K833" t="n">
+        <v>15</v>
+      </c>
+      <c r="L833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M833" t="n">
+        <v>5</v>
+      </c>
+      <c r="N833" t="n">
+        <v>2</v>
+      </c>
+      <c r="O833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="2" t="n">
+        <v>45685.42708333334</v>
+      </c>
+      <c r="B834" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="C834" t="n">
+        <v>630</v>
+      </c>
+      <c r="D834" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="E834" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="F834" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G834" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H834" t="n">
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>28</v>
+      </c>
+      <c r="J834" t="n">
+        <v>10</v>
+      </c>
+      <c r="K834" t="n">
+        <v>15</v>
+      </c>
+      <c r="L834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M834" t="n">
+        <v>5</v>
+      </c>
+      <c r="N834" t="n">
+        <v>2</v>
+      </c>
+      <c r="O834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="2" t="n">
+        <v>45685.46875</v>
+      </c>
+      <c r="B835" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="C835" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="D835" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="E835" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="F835" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G835" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H835" t="n">
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>28</v>
+      </c>
+      <c r="J835" t="n">
+        <v>11</v>
+      </c>
+      <c r="K835" t="n">
+        <v>15</v>
+      </c>
+      <c r="L835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M835" t="n">
+        <v>5</v>
+      </c>
+      <c r="N835" t="n">
+        <v>2</v>
+      </c>
+      <c r="O835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="2" t="n">
+        <v>45685.51041666666</v>
+      </c>
+      <c r="B836" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="C836" t="n">
+        <v>644.7999877929688</v>
+      </c>
+      <c r="D836" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="E836" t="n">
+        <v>644.7999877929688</v>
+      </c>
+      <c r="F836" t="n">
+        <v>22250</v>
+      </c>
+      <c r="G836" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H836" t="n">
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>28</v>
+      </c>
+      <c r="J836" t="n">
+        <v>12</v>
+      </c>
+      <c r="K836" t="n">
+        <v>15</v>
+      </c>
+      <c r="L836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M836" t="n">
+        <v>5</v>
+      </c>
+      <c r="N836" t="n">
+        <v>2</v>
+      </c>
+      <c r="O836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="2" t="n">
+        <v>45685.55208333334</v>
+      </c>
+      <c r="B837" t="n">
+        <v>641</v>
+      </c>
+      <c r="C837" t="n">
+        <v>652.9500122070312</v>
+      </c>
+      <c r="D837" t="n">
+        <v>637</v>
+      </c>
+      <c r="E837" t="n">
+        <v>648.0499877929688</v>
+      </c>
+      <c r="F837" t="n">
+        <v>10250</v>
+      </c>
+      <c r="G837" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H837" t="n">
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>28</v>
+      </c>
+      <c r="J837" t="n">
+        <v>13</v>
+      </c>
+      <c r="K837" t="n">
+        <v>15</v>
+      </c>
+      <c r="L837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M837" t="n">
+        <v>5</v>
+      </c>
+      <c r="N837" t="n">
+        <v>0</v>
+      </c>
+      <c r="O837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="2" t="n">
+        <v>45685.59375</v>
+      </c>
+      <c r="B838" t="n">
+        <v>648.0499877929688</v>
+      </c>
+      <c r="C838" t="n">
+        <v>653</v>
+      </c>
+      <c r="D838" t="n">
+        <v>631.0999755859375</v>
+      </c>
+      <c r="E838" t="n">
+        <v>632</v>
+      </c>
+      <c r="F838" t="n">
+        <v>8250</v>
+      </c>
+      <c r="G838" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H838" t="n">
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>28</v>
+      </c>
+      <c r="J838" t="n">
+        <v>14</v>
+      </c>
+      <c r="K838" t="n">
+        <v>15</v>
+      </c>
+      <c r="L838" t="n">
+        <v>0</v>
+      </c>
+      <c r="M838" t="n">
+        <v>5</v>
+      </c>
+      <c r="N838" t="n">
+        <v>0</v>
+      </c>
+      <c r="O838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="2" t="n">
+        <v>45685.63541666666</v>
+      </c>
+      <c r="B839" t="n">
+        <v>634.9500122070312</v>
+      </c>
+      <c r="C839" t="n">
+        <v>652</v>
+      </c>
+      <c r="D839" t="n">
+        <v>631.1500244140625</v>
+      </c>
+      <c r="E839" t="n">
+        <v>641.4500122070312</v>
+      </c>
+      <c r="F839" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G839" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H839" t="n">
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>28</v>
+      </c>
+      <c r="J839" t="n">
+        <v>15</v>
+      </c>
+      <c r="K839" t="n">
+        <v>15</v>
+      </c>
+      <c r="L839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M839" t="n">
+        <v>5</v>
+      </c>
+      <c r="N839" t="n">
+        <v>0</v>
+      </c>
+      <c r="O839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="2" t="n">
+        <v>45686.38541666666</v>
+      </c>
+      <c r="B840" t="n">
+        <v>650</v>
+      </c>
+      <c r="C840" t="n">
+        <v>673.5</v>
+      </c>
+      <c r="D840" t="n">
+        <v>650</v>
+      </c>
+      <c r="E840" t="n">
+        <v>665</v>
+      </c>
+      <c r="F840" t="n">
+        <v>0</v>
+      </c>
+      <c r="G840" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H840" t="n">
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>29</v>
+      </c>
+      <c r="J840" t="n">
+        <v>9</v>
+      </c>
+      <c r="K840" t="n">
+        <v>15</v>
+      </c>
+      <c r="L840" t="n">
+        <v>0</v>
+      </c>
+      <c r="M840" t="n">
+        <v>5</v>
+      </c>
+      <c r="N840" t="n">
+        <v>0</v>
+      </c>
+      <c r="O840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="2" t="n">
+        <v>45686.42708333334</v>
+      </c>
+      <c r="B841" t="n">
+        <v>665</v>
+      </c>
+      <c r="C841" t="n">
+        <v>670</v>
+      </c>
+      <c r="D841" t="n">
+        <v>660.0999755859375</v>
+      </c>
+      <c r="E841" t="n">
+        <v>663</v>
+      </c>
+      <c r="F841" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G841" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H841" t="n">
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>29</v>
+      </c>
+      <c r="J841" t="n">
+        <v>10</v>
+      </c>
+      <c r="K841" t="n">
+        <v>15</v>
+      </c>
+      <c r="L841" t="n">
+        <v>0</v>
+      </c>
+      <c r="M841" t="n">
+        <v>5</v>
+      </c>
+      <c r="N841" t="n">
+        <v>0</v>
+      </c>
+      <c r="O841" t="n">
+        <v>0</v>
+      </c>
+      <c r="P841" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="2" t="n">
+        <v>45686.46875</v>
+      </c>
+      <c r="B842" t="n">
+        <v>662.0499877929688</v>
+      </c>
+      <c r="C842" t="n">
+        <v>663</v>
+      </c>
+      <c r="D842" t="n">
+        <v>660.1500244140625</v>
+      </c>
+      <c r="E842" t="n">
+        <v>660.5</v>
+      </c>
+      <c r="F842" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G842" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H842" t="n">
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>29</v>
+      </c>
+      <c r="J842" t="n">
+        <v>11</v>
+      </c>
+      <c r="K842" t="n">
+        <v>15</v>
+      </c>
+      <c r="L842" t="n">
+        <v>0</v>
+      </c>
+      <c r="M842" t="n">
+        <v>5</v>
+      </c>
+      <c r="N842" t="n">
+        <v>0</v>
+      </c>
+      <c r="O842" t="n">
+        <v>0</v>
+      </c>
+      <c r="P842" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="2" t="n">
+        <v>45686.51041666666</v>
+      </c>
+      <c r="B843" t="n">
+        <v>661.0499877929688</v>
+      </c>
+      <c r="C843" t="n">
+        <v>665</v>
+      </c>
+      <c r="D843" t="n">
+        <v>661.0499877929688</v>
+      </c>
+      <c r="E843" t="n">
+        <v>662.0999755859375</v>
+      </c>
+      <c r="F843" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G843" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H843" t="n">
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>29</v>
+      </c>
+      <c r="J843" t="n">
+        <v>12</v>
+      </c>
+      <c r="K843" t="n">
+        <v>15</v>
+      </c>
+      <c r="L843" t="n">
+        <v>0</v>
+      </c>
+      <c r="M843" t="n">
+        <v>5</v>
+      </c>
+      <c r="N843" t="n">
+        <v>0</v>
+      </c>
+      <c r="O843" t="n">
+        <v>0</v>
+      </c>
+      <c r="P843" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="2" t="n">
+        <v>45686.55208333334</v>
+      </c>
+      <c r="B844" t="n">
+        <v>665.9500122070312</v>
+      </c>
+      <c r="C844" t="n">
+        <v>669.9500122070312</v>
+      </c>
+      <c r="D844" t="n">
+        <v>662.1500244140625</v>
+      </c>
+      <c r="E844" t="n">
+        <v>669.9500122070312</v>
+      </c>
+      <c r="F844" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G844" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H844" t="n">
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>29</v>
+      </c>
+      <c r="J844" t="n">
+        <v>13</v>
+      </c>
+      <c r="K844" t="n">
+        <v>15</v>
+      </c>
+      <c r="L844" t="n">
+        <v>0</v>
+      </c>
+      <c r="M844" t="n">
+        <v>5</v>
+      </c>
+      <c r="N844" t="n">
+        <v>0</v>
+      </c>
+      <c r="O844" t="n">
+        <v>0</v>
+      </c>
+      <c r="P844" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="2" t="n">
+        <v>45686.59375</v>
+      </c>
+      <c r="B845" t="n">
+        <v>669.9500122070312</v>
+      </c>
+      <c r="C845" t="n">
+        <v>673.5</v>
+      </c>
+      <c r="D845" t="n">
+        <v>669.9500122070312</v>
+      </c>
+      <c r="E845" t="n">
+        <v>670.0999755859375</v>
+      </c>
+      <c r="F845" t="n">
+        <v>6250</v>
+      </c>
+      <c r="G845" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H845" t="n">
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>29</v>
+      </c>
+      <c r="J845" t="n">
+        <v>14</v>
+      </c>
+      <c r="K845" t="n">
+        <v>15</v>
+      </c>
+      <c r="L845" t="n">
+        <v>0</v>
+      </c>
+      <c r="M845" t="n">
+        <v>5</v>
+      </c>
+      <c r="N845" t="n">
+        <v>0</v>
+      </c>
+      <c r="O845" t="n">
+        <v>0</v>
+      </c>
+      <c r="P845" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="2" t="n">
+        <v>45686.63541666666</v>
+      </c>
+      <c r="B846" t="n">
+        <v>665.5499877929688</v>
+      </c>
+      <c r="C846" t="n">
+        <v>672.9000244140625</v>
+      </c>
+      <c r="D846" t="n">
+        <v>665.5499877929688</v>
+      </c>
+      <c r="E846" t="n">
+        <v>670.5499877929688</v>
+      </c>
+      <c r="F846" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G846" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H846" t="n">
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>29</v>
+      </c>
+      <c r="J846" t="n">
+        <v>15</v>
+      </c>
+      <c r="K846" t="n">
+        <v>15</v>
+      </c>
+      <c r="L846" t="n">
+        <v>0</v>
+      </c>
+      <c r="M846" t="n">
+        <v>5</v>
+      </c>
+      <c r="N846" t="n">
+        <v>0</v>
+      </c>
+      <c r="O846" t="n">
+        <v>0</v>
+      </c>
+      <c r="P846" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q846" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
+++ b/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q846"/>
+  <dimension ref="A1:Q860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44245,7 +44245,9 @@
       <c r="P826" t="n">
         <v>0</v>
       </c>
-      <c r="Q826" t="inlineStr"/>
+      <c r="Q826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
@@ -44296,7 +44298,9 @@
       <c r="P827" t="n">
         <v>0</v>
       </c>
-      <c r="Q827" t="inlineStr"/>
+      <c r="Q827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
@@ -44347,7 +44351,9 @@
       <c r="P828" t="n">
         <v>2</v>
       </c>
-      <c r="Q828" t="inlineStr"/>
+      <c r="Q828" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
@@ -44398,7 +44404,9 @@
       <c r="P829" t="n">
         <v>0</v>
       </c>
-      <c r="Q829" t="inlineStr"/>
+      <c r="Q829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
@@ -44449,7 +44457,9 @@
       <c r="P830" t="n">
         <v>0</v>
       </c>
-      <c r="Q830" t="inlineStr"/>
+      <c r="Q830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
@@ -44500,7 +44510,9 @@
       <c r="P831" t="n">
         <v>0</v>
       </c>
-      <c r="Q831" t="inlineStr"/>
+      <c r="Q831" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
@@ -44551,7 +44563,9 @@
       <c r="P832" t="n">
         <v>0</v>
       </c>
-      <c r="Q832" t="inlineStr"/>
+      <c r="Q832" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
@@ -44602,7 +44616,9 @@
       <c r="P833" t="n">
         <v>0</v>
       </c>
-      <c r="Q833" t="inlineStr"/>
+      <c r="Q833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
@@ -44653,7 +44669,9 @@
       <c r="P834" t="n">
         <v>0</v>
       </c>
-      <c r="Q834" t="inlineStr"/>
+      <c r="Q834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
@@ -44704,7 +44722,9 @@
       <c r="P835" t="n">
         <v>0</v>
       </c>
-      <c r="Q835" t="inlineStr"/>
+      <c r="Q835" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
@@ -44755,7 +44775,9 @@
       <c r="P836" t="n">
         <v>0</v>
       </c>
-      <c r="Q836" t="inlineStr"/>
+      <c r="Q836" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
@@ -44806,7 +44828,9 @@
       <c r="P837" t="n">
         <v>0</v>
       </c>
-      <c r="Q837" t="inlineStr"/>
+      <c r="Q837" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
@@ -44857,7 +44881,9 @@
       <c r="P838" t="n">
         <v>0</v>
       </c>
-      <c r="Q838" t="inlineStr"/>
+      <c r="Q838" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
@@ -44908,7 +44934,9 @@
       <c r="P839" t="n">
         <v>0</v>
       </c>
-      <c r="Q839" t="inlineStr"/>
+      <c r="Q839" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
@@ -44959,7 +44987,9 @@
       <c r="P840" t="n">
         <v>0</v>
       </c>
-      <c r="Q840" t="inlineStr"/>
+      <c r="Q840" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
@@ -45010,7 +45040,9 @@
       <c r="P841" t="n">
         <v>0</v>
       </c>
-      <c r="Q841" t="inlineStr"/>
+      <c r="Q841" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
@@ -45061,7 +45093,9 @@
       <c r="P842" t="n">
         <v>0</v>
       </c>
-      <c r="Q842" t="inlineStr"/>
+      <c r="Q842" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
@@ -45112,7 +45146,9 @@
       <c r="P843" t="n">
         <v>0</v>
       </c>
-      <c r="Q843" t="inlineStr"/>
+      <c r="Q843" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
@@ -45163,7 +45199,9 @@
       <c r="P844" t="n">
         <v>0</v>
       </c>
-      <c r="Q844" t="inlineStr"/>
+      <c r="Q844" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
@@ -45214,7 +45252,9 @@
       <c r="P845" t="n">
         <v>1</v>
       </c>
-      <c r="Q845" t="inlineStr"/>
+      <c r="Q845" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
@@ -45265,7 +45305,723 @@
       <c r="P846" t="n">
         <v>1</v>
       </c>
-      <c r="Q846" t="inlineStr"/>
+      <c r="Q846" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="2" t="n">
+        <v>45687.38541666666</v>
+      </c>
+      <c r="B847" t="n">
+        <v>682</v>
+      </c>
+      <c r="C847" t="n">
+        <v>702.9500122070312</v>
+      </c>
+      <c r="D847" t="n">
+        <v>682</v>
+      </c>
+      <c r="E847" t="n">
+        <v>702.7999877929688</v>
+      </c>
+      <c r="F847" t="n">
+        <v>0</v>
+      </c>
+      <c r="G847" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H847" t="n">
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>30</v>
+      </c>
+      <c r="J847" t="n">
+        <v>9</v>
+      </c>
+      <c r="K847" t="n">
+        <v>15</v>
+      </c>
+      <c r="L847" t="n">
+        <v>0</v>
+      </c>
+      <c r="M847" t="n">
+        <v>5</v>
+      </c>
+      <c r="N847" t="n">
+        <v>1</v>
+      </c>
+      <c r="O847" t="n">
+        <v>0</v>
+      </c>
+      <c r="P847" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="2" t="n">
+        <v>45687.42708333334</v>
+      </c>
+      <c r="B848" t="n">
+        <v>702.7999877929688</v>
+      </c>
+      <c r="C848" t="n">
+        <v>702.7999877929688</v>
+      </c>
+      <c r="D848" t="n">
+        <v>693.0499877929688</v>
+      </c>
+      <c r="E848" t="n">
+        <v>693.0499877929688</v>
+      </c>
+      <c r="F848" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G848" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H848" t="n">
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>30</v>
+      </c>
+      <c r="J848" t="n">
+        <v>10</v>
+      </c>
+      <c r="K848" t="n">
+        <v>15</v>
+      </c>
+      <c r="L848" t="n">
+        <v>0</v>
+      </c>
+      <c r="M848" t="n">
+        <v>5</v>
+      </c>
+      <c r="N848" t="n">
+        <v>0</v>
+      </c>
+      <c r="O848" t="n">
+        <v>0</v>
+      </c>
+      <c r="P848" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="2" t="n">
+        <v>45687.46875</v>
+      </c>
+      <c r="B849" t="n">
+        <v>693.0499877929688</v>
+      </c>
+      <c r="C849" t="n">
+        <v>698</v>
+      </c>
+      <c r="D849" t="n">
+        <v>693.0499877929688</v>
+      </c>
+      <c r="E849" t="n">
+        <v>698</v>
+      </c>
+      <c r="F849" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G849" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H849" t="n">
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>30</v>
+      </c>
+      <c r="J849" t="n">
+        <v>11</v>
+      </c>
+      <c r="K849" t="n">
+        <v>15</v>
+      </c>
+      <c r="L849" t="n">
+        <v>0</v>
+      </c>
+      <c r="M849" t="n">
+        <v>5</v>
+      </c>
+      <c r="N849" t="n">
+        <v>0</v>
+      </c>
+      <c r="O849" t="n">
+        <v>0</v>
+      </c>
+      <c r="P849" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="2" t="n">
+        <v>45687.51041666666</v>
+      </c>
+      <c r="B850" t="n">
+        <v>698</v>
+      </c>
+      <c r="C850" t="n">
+        <v>698</v>
+      </c>
+      <c r="D850" t="n">
+        <v>693.25</v>
+      </c>
+      <c r="E850" t="n">
+        <v>697.8499755859375</v>
+      </c>
+      <c r="F850" t="n">
+        <v>750</v>
+      </c>
+      <c r="G850" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H850" t="n">
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>30</v>
+      </c>
+      <c r="J850" t="n">
+        <v>12</v>
+      </c>
+      <c r="K850" t="n">
+        <v>15</v>
+      </c>
+      <c r="L850" t="n">
+        <v>0</v>
+      </c>
+      <c r="M850" t="n">
+        <v>5</v>
+      </c>
+      <c r="N850" t="n">
+        <v>0</v>
+      </c>
+      <c r="O850" t="n">
+        <v>0</v>
+      </c>
+      <c r="P850" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="2" t="n">
+        <v>45687.55208333334</v>
+      </c>
+      <c r="B851" t="n">
+        <v>697.8499755859375</v>
+      </c>
+      <c r="C851" t="n">
+        <v>697.8499755859375</v>
+      </c>
+      <c r="D851" t="n">
+        <v>685.5</v>
+      </c>
+      <c r="E851" t="n">
+        <v>685.5</v>
+      </c>
+      <c r="F851" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G851" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H851" t="n">
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>30</v>
+      </c>
+      <c r="J851" t="n">
+        <v>13</v>
+      </c>
+      <c r="K851" t="n">
+        <v>15</v>
+      </c>
+      <c r="L851" t="n">
+        <v>0</v>
+      </c>
+      <c r="M851" t="n">
+        <v>5</v>
+      </c>
+      <c r="N851" t="n">
+        <v>0</v>
+      </c>
+      <c r="O851" t="n">
+        <v>0</v>
+      </c>
+      <c r="P851" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="2" t="n">
+        <v>45687.59375</v>
+      </c>
+      <c r="B852" t="n">
+        <v>685</v>
+      </c>
+      <c r="C852" t="n">
+        <v>685</v>
+      </c>
+      <c r="D852" t="n">
+        <v>660.5</v>
+      </c>
+      <c r="E852" t="n">
+        <v>660.5</v>
+      </c>
+      <c r="F852" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G852" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H852" t="n">
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>30</v>
+      </c>
+      <c r="J852" t="n">
+        <v>14</v>
+      </c>
+      <c r="K852" t="n">
+        <v>15</v>
+      </c>
+      <c r="L852" t="n">
+        <v>0</v>
+      </c>
+      <c r="M852" t="n">
+        <v>5</v>
+      </c>
+      <c r="N852" t="n">
+        <v>0</v>
+      </c>
+      <c r="O852" t="n">
+        <v>0</v>
+      </c>
+      <c r="P852" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="2" t="n">
+        <v>45687.63541666666</v>
+      </c>
+      <c r="B853" t="n">
+        <v>665.5499877929688</v>
+      </c>
+      <c r="C853" t="n">
+        <v>673</v>
+      </c>
+      <c r="D853" t="n">
+        <v>665.5499877929688</v>
+      </c>
+      <c r="E853" t="n">
+        <v>668.75</v>
+      </c>
+      <c r="F853" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G853" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H853" t="n">
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>30</v>
+      </c>
+      <c r="J853" t="n">
+        <v>15</v>
+      </c>
+      <c r="K853" t="n">
+        <v>15</v>
+      </c>
+      <c r="L853" t="n">
+        <v>0</v>
+      </c>
+      <c r="M853" t="n">
+        <v>5</v>
+      </c>
+      <c r="N853" t="n">
+        <v>0</v>
+      </c>
+      <c r="O853" t="n">
+        <v>0</v>
+      </c>
+      <c r="P853" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="2" t="n">
+        <v>45688.38541666666</v>
+      </c>
+      <c r="B854" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="C854" t="n">
+        <v>698.9500122070312</v>
+      </c>
+      <c r="D854" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="E854" t="n">
+        <v>694.9500122070312</v>
+      </c>
+      <c r="F854" t="n">
+        <v>0</v>
+      </c>
+      <c r="G854" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H854" t="n">
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>31</v>
+      </c>
+      <c r="J854" t="n">
+        <v>9</v>
+      </c>
+      <c r="K854" t="n">
+        <v>15</v>
+      </c>
+      <c r="L854" t="n">
+        <v>0</v>
+      </c>
+      <c r="M854" t="n">
+        <v>5</v>
+      </c>
+      <c r="N854" t="n">
+        <v>0</v>
+      </c>
+      <c r="O854" t="n">
+        <v>0</v>
+      </c>
+      <c r="P854" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="2" t="n">
+        <v>45688.42708333334</v>
+      </c>
+      <c r="B855" t="n">
+        <v>694.8499755859375</v>
+      </c>
+      <c r="C855" t="n">
+        <v>694.8499755859375</v>
+      </c>
+      <c r="D855" t="n">
+        <v>694.7999877929688</v>
+      </c>
+      <c r="E855" t="n">
+        <v>694.7999877929688</v>
+      </c>
+      <c r="F855" t="n">
+        <v>750</v>
+      </c>
+      <c r="G855" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H855" t="n">
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>31</v>
+      </c>
+      <c r="J855" t="n">
+        <v>10</v>
+      </c>
+      <c r="K855" t="n">
+        <v>15</v>
+      </c>
+      <c r="L855" t="n">
+        <v>0</v>
+      </c>
+      <c r="M855" t="n">
+        <v>5</v>
+      </c>
+      <c r="N855" t="n">
+        <v>0</v>
+      </c>
+      <c r="O855" t="n">
+        <v>0</v>
+      </c>
+      <c r="P855" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="2" t="n">
+        <v>45688.46875</v>
+      </c>
+      <c r="B856" t="n">
+        <v>699</v>
+      </c>
+      <c r="C856" t="n">
+        <v>700</v>
+      </c>
+      <c r="D856" t="n">
+        <v>699</v>
+      </c>
+      <c r="E856" t="n">
+        <v>700</v>
+      </c>
+      <c r="F856" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G856" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H856" t="n">
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>31</v>
+      </c>
+      <c r="J856" t="n">
+        <v>11</v>
+      </c>
+      <c r="K856" t="n">
+        <v>15</v>
+      </c>
+      <c r="L856" t="n">
+        <v>0</v>
+      </c>
+      <c r="M856" t="n">
+        <v>5</v>
+      </c>
+      <c r="N856" t="n">
+        <v>0</v>
+      </c>
+      <c r="O856" t="n">
+        <v>0</v>
+      </c>
+      <c r="P856" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="2" t="n">
+        <v>45688.51041666666</v>
+      </c>
+      <c r="B857" t="n">
+        <v>701.7000122070312</v>
+      </c>
+      <c r="C857" t="n">
+        <v>702.1500244140625</v>
+      </c>
+      <c r="D857" t="n">
+        <v>701.7000122070312</v>
+      </c>
+      <c r="E857" t="n">
+        <v>702</v>
+      </c>
+      <c r="F857" t="n">
+        <v>11750</v>
+      </c>
+      <c r="G857" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H857" t="n">
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>31</v>
+      </c>
+      <c r="J857" t="n">
+        <v>12</v>
+      </c>
+      <c r="K857" t="n">
+        <v>15</v>
+      </c>
+      <c r="L857" t="n">
+        <v>0</v>
+      </c>
+      <c r="M857" t="n">
+        <v>5</v>
+      </c>
+      <c r="N857" t="n">
+        <v>0</v>
+      </c>
+      <c r="O857" t="n">
+        <v>0</v>
+      </c>
+      <c r="P857" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="2" t="n">
+        <v>45688.55208333334</v>
+      </c>
+      <c r="B858" t="n">
+        <v>702</v>
+      </c>
+      <c r="C858" t="n">
+        <v>702.1500244140625</v>
+      </c>
+      <c r="D858" t="n">
+        <v>701.5499877929688</v>
+      </c>
+      <c r="E858" t="n">
+        <v>702.1500244140625</v>
+      </c>
+      <c r="F858" t="n">
+        <v>17000</v>
+      </c>
+      <c r="G858" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H858" t="n">
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>31</v>
+      </c>
+      <c r="J858" t="n">
+        <v>13</v>
+      </c>
+      <c r="K858" t="n">
+        <v>15</v>
+      </c>
+      <c r="L858" t="n">
+        <v>0</v>
+      </c>
+      <c r="M858" t="n">
+        <v>5</v>
+      </c>
+      <c r="N858" t="n">
+        <v>0</v>
+      </c>
+      <c r="O858" t="n">
+        <v>0</v>
+      </c>
+      <c r="P858" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="2" t="n">
+        <v>45688.59375</v>
+      </c>
+      <c r="B859" t="n">
+        <v>702.1500244140625</v>
+      </c>
+      <c r="C859" t="n">
+        <v>702.1500244140625</v>
+      </c>
+      <c r="D859" t="n">
+        <v>699</v>
+      </c>
+      <c r="E859" t="n">
+        <v>702.1500244140625</v>
+      </c>
+      <c r="F859" t="n">
+        <v>6250</v>
+      </c>
+      <c r="G859" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H859" t="n">
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>31</v>
+      </c>
+      <c r="J859" t="n">
+        <v>14</v>
+      </c>
+      <c r="K859" t="n">
+        <v>15</v>
+      </c>
+      <c r="L859" t="n">
+        <v>0</v>
+      </c>
+      <c r="M859" t="n">
+        <v>5</v>
+      </c>
+      <c r="N859" t="n">
+        <v>0</v>
+      </c>
+      <c r="O859" t="n">
+        <v>0</v>
+      </c>
+      <c r="P859" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="2" t="n">
+        <v>45688.63541666666</v>
+      </c>
+      <c r="B860" t="n">
+        <v>702.1500244140625</v>
+      </c>
+      <c r="C860" t="n">
+        <v>702.1500244140625</v>
+      </c>
+      <c r="D860" t="n">
+        <v>701.25</v>
+      </c>
+      <c r="E860" t="n">
+        <v>701.25</v>
+      </c>
+      <c r="F860" t="n">
+        <v>0</v>
+      </c>
+      <c r="G860" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H860" t="n">
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>31</v>
+      </c>
+      <c r="J860" t="n">
+        <v>15</v>
+      </c>
+      <c r="K860" t="n">
+        <v>15</v>
+      </c>
+      <c r="L860" t="n">
+        <v>0</v>
+      </c>
+      <c r="M860" t="n">
+        <v>5</v>
+      </c>
+      <c r="N860" t="n">
+        <v>0</v>
+      </c>
+      <c r="O860" t="n">
+        <v>0</v>
+      </c>
+      <c r="P860" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q860" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
+++ b/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q860"/>
+  <dimension ref="A1:Q874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45358,7 +45358,9 @@
       <c r="P847" t="n">
         <v>1</v>
       </c>
-      <c r="Q847" t="inlineStr"/>
+      <c r="Q847" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
@@ -45409,7 +45411,9 @@
       <c r="P848" t="n">
         <v>0</v>
       </c>
-      <c r="Q848" t="inlineStr"/>
+      <c r="Q848" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
@@ -45460,7 +45464,9 @@
       <c r="P849" t="n">
         <v>0</v>
       </c>
-      <c r="Q849" t="inlineStr"/>
+      <c r="Q849" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
@@ -45511,7 +45517,9 @@
       <c r="P850" t="n">
         <v>0</v>
       </c>
-      <c r="Q850" t="inlineStr"/>
+      <c r="Q850" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
@@ -45562,7 +45570,9 @@
       <c r="P851" t="n">
         <v>0</v>
       </c>
-      <c r="Q851" t="inlineStr"/>
+      <c r="Q851" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
@@ -45613,7 +45623,9 @@
       <c r="P852" t="n">
         <v>0</v>
       </c>
-      <c r="Q852" t="inlineStr"/>
+      <c r="Q852" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
@@ -45664,7 +45676,9 @@
       <c r="P853" t="n">
         <v>0</v>
       </c>
-      <c r="Q853" t="inlineStr"/>
+      <c r="Q853" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
@@ -45715,7 +45729,9 @@
       <c r="P854" t="n">
         <v>0</v>
       </c>
-      <c r="Q854" t="inlineStr"/>
+      <c r="Q854" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
@@ -45766,7 +45782,9 @@
       <c r="P855" t="n">
         <v>0</v>
       </c>
-      <c r="Q855" t="inlineStr"/>
+      <c r="Q855" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
@@ -45817,7 +45835,9 @@
       <c r="P856" t="n">
         <v>0</v>
       </c>
-      <c r="Q856" t="inlineStr"/>
+      <c r="Q856" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
@@ -45868,7 +45888,9 @@
       <c r="P857" t="n">
         <v>0</v>
       </c>
-      <c r="Q857" t="inlineStr"/>
+      <c r="Q857" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
@@ -45919,7 +45941,9 @@
       <c r="P858" t="n">
         <v>2</v>
       </c>
-      <c r="Q858" t="inlineStr"/>
+      <c r="Q858" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
@@ -45962,7 +45986,7 @@
         <v>5</v>
       </c>
       <c r="N859" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O859" t="n">
         <v>0</v>
@@ -45970,7 +45994,9 @@
       <c r="P859" t="n">
         <v>0</v>
       </c>
-      <c r="Q859" t="inlineStr"/>
+      <c r="Q859" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
@@ -46013,7 +46039,7 @@
         <v>5</v>
       </c>
       <c r="N860" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O860" t="n">
         <v>0</v>
@@ -46021,7 +46047,723 @@
       <c r="P860" t="n">
         <v>0</v>
       </c>
-      <c r="Q860" t="inlineStr"/>
+      <c r="Q860" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="2" t="n">
+        <v>45691.38541666666</v>
+      </c>
+      <c r="B861" t="n">
+        <v>654</v>
+      </c>
+      <c r="C861" t="n">
+        <v>654</v>
+      </c>
+      <c r="D861" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="E861" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="F861" t="n">
+        <v>0</v>
+      </c>
+      <c r="G861" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H861" t="n">
+        <v>2</v>
+      </c>
+      <c r="I861" t="n">
+        <v>3</v>
+      </c>
+      <c r="J861" t="n">
+        <v>9</v>
+      </c>
+      <c r="K861" t="n">
+        <v>15</v>
+      </c>
+      <c r="L861" t="n">
+        <v>0</v>
+      </c>
+      <c r="M861" t="n">
+        <v>6</v>
+      </c>
+      <c r="N861" t="n">
+        <v>0</v>
+      </c>
+      <c r="O861" t="n">
+        <v>0</v>
+      </c>
+      <c r="P861" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="2" t="n">
+        <v>45691.42708333334</v>
+      </c>
+      <c r="B862" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="C862" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="D862" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="E862" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="F862" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G862" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H862" t="n">
+        <v>2</v>
+      </c>
+      <c r="I862" t="n">
+        <v>3</v>
+      </c>
+      <c r="J862" t="n">
+        <v>10</v>
+      </c>
+      <c r="K862" t="n">
+        <v>15</v>
+      </c>
+      <c r="L862" t="n">
+        <v>0</v>
+      </c>
+      <c r="M862" t="n">
+        <v>6</v>
+      </c>
+      <c r="N862" t="n">
+        <v>0</v>
+      </c>
+      <c r="O862" t="n">
+        <v>0</v>
+      </c>
+      <c r="P862" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="2" t="n">
+        <v>45691.46875</v>
+      </c>
+      <c r="B863" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="C863" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="D863" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="E863" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="F863" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G863" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H863" t="n">
+        <v>2</v>
+      </c>
+      <c r="I863" t="n">
+        <v>3</v>
+      </c>
+      <c r="J863" t="n">
+        <v>11</v>
+      </c>
+      <c r="K863" t="n">
+        <v>15</v>
+      </c>
+      <c r="L863" t="n">
+        <v>0</v>
+      </c>
+      <c r="M863" t="n">
+        <v>6</v>
+      </c>
+      <c r="N863" t="n">
+        <v>0</v>
+      </c>
+      <c r="O863" t="n">
+        <v>0</v>
+      </c>
+      <c r="P863" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="2" t="n">
+        <v>45691.51041666666</v>
+      </c>
+      <c r="B864" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="C864" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="D864" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="E864" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="F864" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G864" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H864" t="n">
+        <v>2</v>
+      </c>
+      <c r="I864" t="n">
+        <v>3</v>
+      </c>
+      <c r="J864" t="n">
+        <v>12</v>
+      </c>
+      <c r="K864" t="n">
+        <v>15</v>
+      </c>
+      <c r="L864" t="n">
+        <v>0</v>
+      </c>
+      <c r="M864" t="n">
+        <v>6</v>
+      </c>
+      <c r="N864" t="n">
+        <v>0</v>
+      </c>
+      <c r="O864" t="n">
+        <v>0</v>
+      </c>
+      <c r="P864" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="2" t="n">
+        <v>45691.55208333334</v>
+      </c>
+      <c r="B865" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="C865" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="D865" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="E865" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="F865" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G865" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H865" t="n">
+        <v>2</v>
+      </c>
+      <c r="I865" t="n">
+        <v>3</v>
+      </c>
+      <c r="J865" t="n">
+        <v>13</v>
+      </c>
+      <c r="K865" t="n">
+        <v>15</v>
+      </c>
+      <c r="L865" t="n">
+        <v>0</v>
+      </c>
+      <c r="M865" t="n">
+        <v>6</v>
+      </c>
+      <c r="N865" t="n">
+        <v>0</v>
+      </c>
+      <c r="O865" t="n">
+        <v>0</v>
+      </c>
+      <c r="P865" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="2" t="n">
+        <v>45691.59375</v>
+      </c>
+      <c r="B866" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="C866" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="D866" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="E866" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="F866" t="n">
+        <v>750</v>
+      </c>
+      <c r="G866" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H866" t="n">
+        <v>2</v>
+      </c>
+      <c r="I866" t="n">
+        <v>3</v>
+      </c>
+      <c r="J866" t="n">
+        <v>14</v>
+      </c>
+      <c r="K866" t="n">
+        <v>15</v>
+      </c>
+      <c r="L866" t="n">
+        <v>0</v>
+      </c>
+      <c r="M866" t="n">
+        <v>6</v>
+      </c>
+      <c r="N866" t="n">
+        <v>0</v>
+      </c>
+      <c r="O866" t="n">
+        <v>0</v>
+      </c>
+      <c r="P866" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="2" t="n">
+        <v>45691.63541666666</v>
+      </c>
+      <c r="B867" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="C867" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="D867" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="E867" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="F867" t="n">
+        <v>750</v>
+      </c>
+      <c r="G867" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H867" t="n">
+        <v>2</v>
+      </c>
+      <c r="I867" t="n">
+        <v>3</v>
+      </c>
+      <c r="J867" t="n">
+        <v>15</v>
+      </c>
+      <c r="K867" t="n">
+        <v>15</v>
+      </c>
+      <c r="L867" t="n">
+        <v>0</v>
+      </c>
+      <c r="M867" t="n">
+        <v>6</v>
+      </c>
+      <c r="N867" t="n">
+        <v>0</v>
+      </c>
+      <c r="O867" t="n">
+        <v>0</v>
+      </c>
+      <c r="P867" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="2" t="n">
+        <v>45692.38541666666</v>
+      </c>
+      <c r="B868" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="C868" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="D868" t="n">
+        <v>615</v>
+      </c>
+      <c r="E868" t="n">
+        <v>624</v>
+      </c>
+      <c r="F868" t="n">
+        <v>0</v>
+      </c>
+      <c r="G868" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H868" t="n">
+        <v>2</v>
+      </c>
+      <c r="I868" t="n">
+        <v>4</v>
+      </c>
+      <c r="J868" t="n">
+        <v>9</v>
+      </c>
+      <c r="K868" t="n">
+        <v>15</v>
+      </c>
+      <c r="L868" t="n">
+        <v>0</v>
+      </c>
+      <c r="M868" t="n">
+        <v>6</v>
+      </c>
+      <c r="N868" t="n">
+        <v>0</v>
+      </c>
+      <c r="O868" t="n">
+        <v>0</v>
+      </c>
+      <c r="P868" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="2" t="n">
+        <v>45692.42708333334</v>
+      </c>
+      <c r="B869" t="n">
+        <v>624.9000244140625</v>
+      </c>
+      <c r="C869" t="n">
+        <v>624.9000244140625</v>
+      </c>
+      <c r="D869" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="E869" t="n">
+        <v>601.5499877929688</v>
+      </c>
+      <c r="F869" t="n">
+        <v>19500</v>
+      </c>
+      <c r="G869" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H869" t="n">
+        <v>2</v>
+      </c>
+      <c r="I869" t="n">
+        <v>4</v>
+      </c>
+      <c r="J869" t="n">
+        <v>10</v>
+      </c>
+      <c r="K869" t="n">
+        <v>15</v>
+      </c>
+      <c r="L869" t="n">
+        <v>0</v>
+      </c>
+      <c r="M869" t="n">
+        <v>6</v>
+      </c>
+      <c r="N869" t="n">
+        <v>0</v>
+      </c>
+      <c r="O869" t="n">
+        <v>0</v>
+      </c>
+      <c r="P869" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="2" t="n">
+        <v>45692.46875</v>
+      </c>
+      <c r="B870" t="n">
+        <v>601.3499755859375</v>
+      </c>
+      <c r="C870" t="n">
+        <v>615</v>
+      </c>
+      <c r="D870" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="E870" t="n">
+        <v>615</v>
+      </c>
+      <c r="F870" t="n">
+        <v>19500</v>
+      </c>
+      <c r="G870" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H870" t="n">
+        <v>2</v>
+      </c>
+      <c r="I870" t="n">
+        <v>4</v>
+      </c>
+      <c r="J870" t="n">
+        <v>11</v>
+      </c>
+      <c r="K870" t="n">
+        <v>15</v>
+      </c>
+      <c r="L870" t="n">
+        <v>0</v>
+      </c>
+      <c r="M870" t="n">
+        <v>6</v>
+      </c>
+      <c r="N870" t="n">
+        <v>0</v>
+      </c>
+      <c r="O870" t="n">
+        <v>2</v>
+      </c>
+      <c r="P870" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="2" t="n">
+        <v>45692.51041666666</v>
+      </c>
+      <c r="B871" t="n">
+        <v>615</v>
+      </c>
+      <c r="C871" t="n">
+        <v>637.5</v>
+      </c>
+      <c r="D871" t="n">
+        <v>612</v>
+      </c>
+      <c r="E871" t="n">
+        <v>631.9500122070312</v>
+      </c>
+      <c r="F871" t="n">
+        <v>57500</v>
+      </c>
+      <c r="G871" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H871" t="n">
+        <v>2</v>
+      </c>
+      <c r="I871" t="n">
+        <v>4</v>
+      </c>
+      <c r="J871" t="n">
+        <v>12</v>
+      </c>
+      <c r="K871" t="n">
+        <v>15</v>
+      </c>
+      <c r="L871" t="n">
+        <v>0</v>
+      </c>
+      <c r="M871" t="n">
+        <v>6</v>
+      </c>
+      <c r="N871" t="n">
+        <v>0</v>
+      </c>
+      <c r="O871" t="n">
+        <v>2</v>
+      </c>
+      <c r="P871" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="2" t="n">
+        <v>45692.55208333334</v>
+      </c>
+      <c r="B872" t="n">
+        <v>630</v>
+      </c>
+      <c r="C872" t="n">
+        <v>637.5</v>
+      </c>
+      <c r="D872" t="n">
+        <v>621</v>
+      </c>
+      <c r="E872" t="n">
+        <v>628.9500122070312</v>
+      </c>
+      <c r="F872" t="n">
+        <v>22500</v>
+      </c>
+      <c r="G872" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H872" t="n">
+        <v>2</v>
+      </c>
+      <c r="I872" t="n">
+        <v>4</v>
+      </c>
+      <c r="J872" t="n">
+        <v>13</v>
+      </c>
+      <c r="K872" t="n">
+        <v>15</v>
+      </c>
+      <c r="L872" t="n">
+        <v>0</v>
+      </c>
+      <c r="M872" t="n">
+        <v>6</v>
+      </c>
+      <c r="N872" t="n">
+        <v>0</v>
+      </c>
+      <c r="O872" t="n">
+        <v>0</v>
+      </c>
+      <c r="P872" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="2" t="n">
+        <v>45692.59375</v>
+      </c>
+      <c r="B873" t="n">
+        <v>626.5499877929688</v>
+      </c>
+      <c r="C873" t="n">
+        <v>633</v>
+      </c>
+      <c r="D873" t="n">
+        <v>626.5499877929688</v>
+      </c>
+      <c r="E873" t="n">
+        <v>628</v>
+      </c>
+      <c r="F873" t="n">
+        <v>12250</v>
+      </c>
+      <c r="G873" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H873" t="n">
+        <v>2</v>
+      </c>
+      <c r="I873" t="n">
+        <v>4</v>
+      </c>
+      <c r="J873" t="n">
+        <v>14</v>
+      </c>
+      <c r="K873" t="n">
+        <v>15</v>
+      </c>
+      <c r="L873" t="n">
+        <v>0</v>
+      </c>
+      <c r="M873" t="n">
+        <v>6</v>
+      </c>
+      <c r="N873" t="n">
+        <v>0</v>
+      </c>
+      <c r="O873" t="n">
+        <v>0</v>
+      </c>
+      <c r="P873" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="2" t="n">
+        <v>45692.63541666666</v>
+      </c>
+      <c r="B874" t="n">
+        <v>626.5</v>
+      </c>
+      <c r="C874" t="n">
+        <v>628.9500122070312</v>
+      </c>
+      <c r="D874" t="n">
+        <v>623.25</v>
+      </c>
+      <c r="E874" t="n">
+        <v>627.2999877929688</v>
+      </c>
+      <c r="F874" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G874" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H874" t="n">
+        <v>2</v>
+      </c>
+      <c r="I874" t="n">
+        <v>4</v>
+      </c>
+      <c r="J874" t="n">
+        <v>15</v>
+      </c>
+      <c r="K874" t="n">
+        <v>15</v>
+      </c>
+      <c r="L874" t="n">
+        <v>0</v>
+      </c>
+      <c r="M874" t="n">
+        <v>6</v>
+      </c>
+      <c r="N874" t="n">
+        <v>0</v>
+      </c>
+      <c r="O874" t="n">
+        <v>0</v>
+      </c>
+      <c r="P874" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q874" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
+++ b/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q874"/>
+  <dimension ref="A1:Q895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46100,7 +46100,9 @@
       <c r="P861" t="n">
         <v>0</v>
       </c>
-      <c r="Q861" t="inlineStr"/>
+      <c r="Q861" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
@@ -46151,7 +46153,9 @@
       <c r="P862" t="n">
         <v>0</v>
       </c>
-      <c r="Q862" t="inlineStr"/>
+      <c r="Q862" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
@@ -46202,7 +46206,9 @@
       <c r="P863" t="n">
         <v>0</v>
       </c>
-      <c r="Q863" t="inlineStr"/>
+      <c r="Q863" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
@@ -46253,7 +46259,9 @@
       <c r="P864" t="n">
         <v>0</v>
       </c>
-      <c r="Q864" t="inlineStr"/>
+      <c r="Q864" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
@@ -46304,7 +46312,9 @@
       <c r="P865" t="n">
         <v>0</v>
       </c>
-      <c r="Q865" t="inlineStr"/>
+      <c r="Q865" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
@@ -46355,7 +46365,9 @@
       <c r="P866" t="n">
         <v>0</v>
       </c>
-      <c r="Q866" t="inlineStr"/>
+      <c r="Q866" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
@@ -46406,7 +46418,9 @@
       <c r="P867" t="n">
         <v>0</v>
       </c>
-      <c r="Q867" t="inlineStr"/>
+      <c r="Q867" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
@@ -46457,7 +46471,9 @@
       <c r="P868" t="n">
         <v>0</v>
       </c>
-      <c r="Q868" t="inlineStr"/>
+      <c r="Q868" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
@@ -46500,7 +46516,7 @@
         <v>6</v>
       </c>
       <c r="N869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O869" t="n">
         <v>0</v>
@@ -46508,7 +46524,9 @@
       <c r="P869" t="n">
         <v>0</v>
       </c>
-      <c r="Q869" t="inlineStr"/>
+      <c r="Q869" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
@@ -46551,7 +46569,7 @@
         <v>6</v>
       </c>
       <c r="N870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O870" t="n">
         <v>2</v>
@@ -46559,7 +46577,9 @@
       <c r="P870" t="n">
         <v>2</v>
       </c>
-      <c r="Q870" t="inlineStr"/>
+      <c r="Q870" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
@@ -46610,7 +46630,9 @@
       <c r="P871" t="n">
         <v>2</v>
       </c>
-      <c r="Q871" t="inlineStr"/>
+      <c r="Q871" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
@@ -46661,7 +46683,9 @@
       <c r="P872" t="n">
         <v>0</v>
       </c>
-      <c r="Q872" t="inlineStr"/>
+      <c r="Q872" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
@@ -46712,7 +46736,9 @@
       <c r="P873" t="n">
         <v>0</v>
       </c>
-      <c r="Q873" t="inlineStr"/>
+      <c r="Q873" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
@@ -46763,7 +46789,1080 @@
       <c r="P874" t="n">
         <v>0</v>
       </c>
-      <c r="Q874" t="inlineStr"/>
+      <c r="Q874" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="2" t="n">
+        <v>45693.38541666666</v>
+      </c>
+      <c r="B875" t="n">
+        <v>627.2999877929688</v>
+      </c>
+      <c r="C875" t="n">
+        <v>650</v>
+      </c>
+      <c r="D875" t="n">
+        <v>627.2999877929688</v>
+      </c>
+      <c r="E875" t="n">
+        <v>645</v>
+      </c>
+      <c r="F875" t="n">
+        <v>0</v>
+      </c>
+      <c r="G875" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H875" t="n">
+        <v>2</v>
+      </c>
+      <c r="I875" t="n">
+        <v>5</v>
+      </c>
+      <c r="J875" t="n">
+        <v>9</v>
+      </c>
+      <c r="K875" t="n">
+        <v>15</v>
+      </c>
+      <c r="L875" t="n">
+        <v>0</v>
+      </c>
+      <c r="M875" t="n">
+        <v>6</v>
+      </c>
+      <c r="N875" t="n">
+        <v>1</v>
+      </c>
+      <c r="O875" t="n">
+        <v>0</v>
+      </c>
+      <c r="P875" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="2" t="n">
+        <v>45693.42708333334</v>
+      </c>
+      <c r="B876" t="n">
+        <v>648.4000244140625</v>
+      </c>
+      <c r="C876" t="n">
+        <v>648.4000244140625</v>
+      </c>
+      <c r="D876" t="n">
+        <v>637.5499877929688</v>
+      </c>
+      <c r="E876" t="n">
+        <v>641.75</v>
+      </c>
+      <c r="F876" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G876" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H876" t="n">
+        <v>2</v>
+      </c>
+      <c r="I876" t="n">
+        <v>5</v>
+      </c>
+      <c r="J876" t="n">
+        <v>10</v>
+      </c>
+      <c r="K876" t="n">
+        <v>15</v>
+      </c>
+      <c r="L876" t="n">
+        <v>0</v>
+      </c>
+      <c r="M876" t="n">
+        <v>6</v>
+      </c>
+      <c r="N876" t="n">
+        <v>0</v>
+      </c>
+      <c r="O876" t="n">
+        <v>0</v>
+      </c>
+      <c r="P876" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="2" t="n">
+        <v>45693.46875</v>
+      </c>
+      <c r="B877" t="n">
+        <v>637.5499877929688</v>
+      </c>
+      <c r="C877" t="n">
+        <v>640.5</v>
+      </c>
+      <c r="D877" t="n">
+        <v>635</v>
+      </c>
+      <c r="E877" t="n">
+        <v>638.8499755859375</v>
+      </c>
+      <c r="F877" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G877" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H877" t="n">
+        <v>2</v>
+      </c>
+      <c r="I877" t="n">
+        <v>5</v>
+      </c>
+      <c r="J877" t="n">
+        <v>11</v>
+      </c>
+      <c r="K877" t="n">
+        <v>15</v>
+      </c>
+      <c r="L877" t="n">
+        <v>0</v>
+      </c>
+      <c r="M877" t="n">
+        <v>6</v>
+      </c>
+      <c r="N877" t="n">
+        <v>0</v>
+      </c>
+      <c r="O877" t="n">
+        <v>0</v>
+      </c>
+      <c r="P877" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n">
+        <v>45693.51041666666</v>
+      </c>
+      <c r="B878" t="n">
+        <v>638.7999877929688</v>
+      </c>
+      <c r="C878" t="n">
+        <v>638.9000244140625</v>
+      </c>
+      <c r="D878" t="n">
+        <v>632.5999755859375</v>
+      </c>
+      <c r="E878" t="n">
+        <v>632.5999755859375</v>
+      </c>
+      <c r="F878" t="n">
+        <v>6250</v>
+      </c>
+      <c r="G878" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H878" t="n">
+        <v>2</v>
+      </c>
+      <c r="I878" t="n">
+        <v>5</v>
+      </c>
+      <c r="J878" t="n">
+        <v>12</v>
+      </c>
+      <c r="K878" t="n">
+        <v>15</v>
+      </c>
+      <c r="L878" t="n">
+        <v>0</v>
+      </c>
+      <c r="M878" t="n">
+        <v>6</v>
+      </c>
+      <c r="N878" t="n">
+        <v>0</v>
+      </c>
+      <c r="O878" t="n">
+        <v>0</v>
+      </c>
+      <c r="P878" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="2" t="n">
+        <v>45693.55208333334</v>
+      </c>
+      <c r="B879" t="n">
+        <v>634</v>
+      </c>
+      <c r="C879" t="n">
+        <v>635</v>
+      </c>
+      <c r="D879" t="n">
+        <v>630.0499877929688</v>
+      </c>
+      <c r="E879" t="n">
+        <v>635</v>
+      </c>
+      <c r="F879" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G879" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H879" t="n">
+        <v>2</v>
+      </c>
+      <c r="I879" t="n">
+        <v>5</v>
+      </c>
+      <c r="J879" t="n">
+        <v>13</v>
+      </c>
+      <c r="K879" t="n">
+        <v>15</v>
+      </c>
+      <c r="L879" t="n">
+        <v>0</v>
+      </c>
+      <c r="M879" t="n">
+        <v>6</v>
+      </c>
+      <c r="N879" t="n">
+        <v>0</v>
+      </c>
+      <c r="O879" t="n">
+        <v>0</v>
+      </c>
+      <c r="P879" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="2" t="n">
+        <v>45693.59375</v>
+      </c>
+      <c r="B880" t="n">
+        <v>635.2999877929688</v>
+      </c>
+      <c r="C880" t="n">
+        <v>645</v>
+      </c>
+      <c r="D880" t="n">
+        <v>635.2999877929688</v>
+      </c>
+      <c r="E880" t="n">
+        <v>645</v>
+      </c>
+      <c r="F880" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G880" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H880" t="n">
+        <v>2</v>
+      </c>
+      <c r="I880" t="n">
+        <v>5</v>
+      </c>
+      <c r="J880" t="n">
+        <v>14</v>
+      </c>
+      <c r="K880" t="n">
+        <v>15</v>
+      </c>
+      <c r="L880" t="n">
+        <v>0</v>
+      </c>
+      <c r="M880" t="n">
+        <v>6</v>
+      </c>
+      <c r="N880" t="n">
+        <v>0</v>
+      </c>
+      <c r="O880" t="n">
+        <v>0</v>
+      </c>
+      <c r="P880" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="2" t="n">
+        <v>45693.63541666666</v>
+      </c>
+      <c r="B881" t="n">
+        <v>645</v>
+      </c>
+      <c r="C881" t="n">
+        <v>645</v>
+      </c>
+      <c r="D881" t="n">
+        <v>644.5</v>
+      </c>
+      <c r="E881" t="n">
+        <v>644.5</v>
+      </c>
+      <c r="F881" t="n">
+        <v>250</v>
+      </c>
+      <c r="G881" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H881" t="n">
+        <v>2</v>
+      </c>
+      <c r="I881" t="n">
+        <v>5</v>
+      </c>
+      <c r="J881" t="n">
+        <v>15</v>
+      </c>
+      <c r="K881" t="n">
+        <v>15</v>
+      </c>
+      <c r="L881" t="n">
+        <v>0</v>
+      </c>
+      <c r="M881" t="n">
+        <v>6</v>
+      </c>
+      <c r="N881" t="n">
+        <v>0</v>
+      </c>
+      <c r="O881" t="n">
+        <v>1</v>
+      </c>
+      <c r="P881" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="2" t="n">
+        <v>45694.38541666666</v>
+      </c>
+      <c r="B882" t="n">
+        <v>650</v>
+      </c>
+      <c r="C882" t="n">
+        <v>650</v>
+      </c>
+      <c r="D882" t="n">
+        <v>634</v>
+      </c>
+      <c r="E882" t="n">
+        <v>639.9500122070312</v>
+      </c>
+      <c r="F882" t="n">
+        <v>0</v>
+      </c>
+      <c r="G882" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H882" t="n">
+        <v>2</v>
+      </c>
+      <c r="I882" t="n">
+        <v>6</v>
+      </c>
+      <c r="J882" t="n">
+        <v>9</v>
+      </c>
+      <c r="K882" t="n">
+        <v>15</v>
+      </c>
+      <c r="L882" t="n">
+        <v>0</v>
+      </c>
+      <c r="M882" t="n">
+        <v>6</v>
+      </c>
+      <c r="N882" t="n">
+        <v>0</v>
+      </c>
+      <c r="O882" t="n">
+        <v>0</v>
+      </c>
+      <c r="P882" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="2" t="n">
+        <v>45694.42708333334</v>
+      </c>
+      <c r="B883" t="n">
+        <v>635.5999755859375</v>
+      </c>
+      <c r="C883" t="n">
+        <v>639.9500122070312</v>
+      </c>
+      <c r="D883" t="n">
+        <v>635.5999755859375</v>
+      </c>
+      <c r="E883" t="n">
+        <v>639</v>
+      </c>
+      <c r="F883" t="n">
+        <v>4250</v>
+      </c>
+      <c r="G883" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H883" t="n">
+        <v>2</v>
+      </c>
+      <c r="I883" t="n">
+        <v>6</v>
+      </c>
+      <c r="J883" t="n">
+        <v>10</v>
+      </c>
+      <c r="K883" t="n">
+        <v>15</v>
+      </c>
+      <c r="L883" t="n">
+        <v>0</v>
+      </c>
+      <c r="M883" t="n">
+        <v>6</v>
+      </c>
+      <c r="N883" t="n">
+        <v>0</v>
+      </c>
+      <c r="O883" t="n">
+        <v>0</v>
+      </c>
+      <c r="P883" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>45694.46875</v>
+      </c>
+      <c r="B884" t="n">
+        <v>638.9000244140625</v>
+      </c>
+      <c r="C884" t="n">
+        <v>638.9000244140625</v>
+      </c>
+      <c r="D884" t="n">
+        <v>634</v>
+      </c>
+      <c r="E884" t="n">
+        <v>634</v>
+      </c>
+      <c r="F884" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G884" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H884" t="n">
+        <v>2</v>
+      </c>
+      <c r="I884" t="n">
+        <v>6</v>
+      </c>
+      <c r="J884" t="n">
+        <v>11</v>
+      </c>
+      <c r="K884" t="n">
+        <v>15</v>
+      </c>
+      <c r="L884" t="n">
+        <v>0</v>
+      </c>
+      <c r="M884" t="n">
+        <v>6</v>
+      </c>
+      <c r="N884" t="n">
+        <v>0</v>
+      </c>
+      <c r="O884" t="n">
+        <v>0</v>
+      </c>
+      <c r="P884" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>45694.51041666666</v>
+      </c>
+      <c r="B885" t="n">
+        <v>638.8499755859375</v>
+      </c>
+      <c r="C885" t="n">
+        <v>639</v>
+      </c>
+      <c r="D885" t="n">
+        <v>638.8499755859375</v>
+      </c>
+      <c r="E885" t="n">
+        <v>639</v>
+      </c>
+      <c r="F885" t="n">
+        <v>750</v>
+      </c>
+      <c r="G885" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H885" t="n">
+        <v>2</v>
+      </c>
+      <c r="I885" t="n">
+        <v>6</v>
+      </c>
+      <c r="J885" t="n">
+        <v>12</v>
+      </c>
+      <c r="K885" t="n">
+        <v>15</v>
+      </c>
+      <c r="L885" t="n">
+        <v>0</v>
+      </c>
+      <c r="M885" t="n">
+        <v>6</v>
+      </c>
+      <c r="N885" t="n">
+        <v>0</v>
+      </c>
+      <c r="O885" t="n">
+        <v>0</v>
+      </c>
+      <c r="P885" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="n">
+        <v>45694.55208333334</v>
+      </c>
+      <c r="B886" t="n">
+        <v>639</v>
+      </c>
+      <c r="C886" t="n">
+        <v>639</v>
+      </c>
+      <c r="D886" t="n">
+        <v>634.0499877929688</v>
+      </c>
+      <c r="E886" t="n">
+        <v>634.0499877929688</v>
+      </c>
+      <c r="F886" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G886" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H886" t="n">
+        <v>2</v>
+      </c>
+      <c r="I886" t="n">
+        <v>6</v>
+      </c>
+      <c r="J886" t="n">
+        <v>13</v>
+      </c>
+      <c r="K886" t="n">
+        <v>15</v>
+      </c>
+      <c r="L886" t="n">
+        <v>0</v>
+      </c>
+      <c r="M886" t="n">
+        <v>6</v>
+      </c>
+      <c r="N886" t="n">
+        <v>0</v>
+      </c>
+      <c r="O886" t="n">
+        <v>0</v>
+      </c>
+      <c r="P886" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="2" t="n">
+        <v>45694.59375</v>
+      </c>
+      <c r="B887" t="n">
+        <v>634.0499877929688</v>
+      </c>
+      <c r="C887" t="n">
+        <v>637.9000244140625</v>
+      </c>
+      <c r="D887" t="n">
+        <v>634</v>
+      </c>
+      <c r="E887" t="n">
+        <v>637.0999755859375</v>
+      </c>
+      <c r="F887" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G887" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H887" t="n">
+        <v>2</v>
+      </c>
+      <c r="I887" t="n">
+        <v>6</v>
+      </c>
+      <c r="J887" t="n">
+        <v>14</v>
+      </c>
+      <c r="K887" t="n">
+        <v>15</v>
+      </c>
+      <c r="L887" t="n">
+        <v>0</v>
+      </c>
+      <c r="M887" t="n">
+        <v>6</v>
+      </c>
+      <c r="N887" t="n">
+        <v>0</v>
+      </c>
+      <c r="O887" t="n">
+        <v>0</v>
+      </c>
+      <c r="P887" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="2" t="n">
+        <v>45694.63541666666</v>
+      </c>
+      <c r="B888" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="C888" t="n">
+        <v>639</v>
+      </c>
+      <c r="D888" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="E888" t="n">
+        <v>637.3499755859375</v>
+      </c>
+      <c r="F888" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G888" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H888" t="n">
+        <v>2</v>
+      </c>
+      <c r="I888" t="n">
+        <v>6</v>
+      </c>
+      <c r="J888" t="n">
+        <v>15</v>
+      </c>
+      <c r="K888" t="n">
+        <v>15</v>
+      </c>
+      <c r="L888" t="n">
+        <v>0</v>
+      </c>
+      <c r="M888" t="n">
+        <v>6</v>
+      </c>
+      <c r="N888" t="n">
+        <v>0</v>
+      </c>
+      <c r="O888" t="n">
+        <v>0</v>
+      </c>
+      <c r="P888" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="2" t="n">
+        <v>45695.38541666666</v>
+      </c>
+      <c r="B889" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="C889" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="D889" t="n">
+        <v>685.2000122070312</v>
+      </c>
+      <c r="E889" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="F889" t="n">
+        <v>40500</v>
+      </c>
+      <c r="G889" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H889" t="n">
+        <v>2</v>
+      </c>
+      <c r="I889" t="n">
+        <v>7</v>
+      </c>
+      <c r="J889" t="n">
+        <v>9</v>
+      </c>
+      <c r="K889" t="n">
+        <v>15</v>
+      </c>
+      <c r="L889" t="n">
+        <v>0</v>
+      </c>
+      <c r="M889" t="n">
+        <v>6</v>
+      </c>
+      <c r="N889" t="n">
+        <v>0</v>
+      </c>
+      <c r="O889" t="n">
+        <v>0</v>
+      </c>
+      <c r="P889" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="2" t="n">
+        <v>45695.42708333334</v>
+      </c>
+      <c r="B890" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="C890" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="D890" t="n">
+        <v>692</v>
+      </c>
+      <c r="E890" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="F890" t="n">
+        <v>37500</v>
+      </c>
+      <c r="G890" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H890" t="n">
+        <v>2</v>
+      </c>
+      <c r="I890" t="n">
+        <v>7</v>
+      </c>
+      <c r="J890" t="n">
+        <v>10</v>
+      </c>
+      <c r="K890" t="n">
+        <v>15</v>
+      </c>
+      <c r="L890" t="n">
+        <v>0</v>
+      </c>
+      <c r="M890" t="n">
+        <v>6</v>
+      </c>
+      <c r="N890" t="n">
+        <v>0</v>
+      </c>
+      <c r="O890" t="n">
+        <v>0</v>
+      </c>
+      <c r="P890" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="2" t="n">
+        <v>45695.46875</v>
+      </c>
+      <c r="B891" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="C891" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="D891" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="E891" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="F891" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G891" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H891" t="n">
+        <v>2</v>
+      </c>
+      <c r="I891" t="n">
+        <v>7</v>
+      </c>
+      <c r="J891" t="n">
+        <v>11</v>
+      </c>
+      <c r="K891" t="n">
+        <v>15</v>
+      </c>
+      <c r="L891" t="n">
+        <v>0</v>
+      </c>
+      <c r="M891" t="n">
+        <v>6</v>
+      </c>
+      <c r="N891" t="n">
+        <v>0</v>
+      </c>
+      <c r="O891" t="n">
+        <v>0</v>
+      </c>
+      <c r="P891" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="2" t="n">
+        <v>45695.51041666666</v>
+      </c>
+      <c r="B892" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="C892" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="D892" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="E892" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="F892" t="n">
+        <v>500</v>
+      </c>
+      <c r="G892" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H892" t="n">
+        <v>2</v>
+      </c>
+      <c r="I892" t="n">
+        <v>7</v>
+      </c>
+      <c r="J892" t="n">
+        <v>12</v>
+      </c>
+      <c r="K892" t="n">
+        <v>15</v>
+      </c>
+      <c r="L892" t="n">
+        <v>0</v>
+      </c>
+      <c r="M892" t="n">
+        <v>6</v>
+      </c>
+      <c r="N892" t="n">
+        <v>0</v>
+      </c>
+      <c r="O892" t="n">
+        <v>0</v>
+      </c>
+      <c r="P892" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="2" t="n">
+        <v>45695.55208333334</v>
+      </c>
+      <c r="B893" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="C893" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="D893" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="E893" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="F893" t="n">
+        <v>500</v>
+      </c>
+      <c r="G893" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H893" t="n">
+        <v>2</v>
+      </c>
+      <c r="I893" t="n">
+        <v>7</v>
+      </c>
+      <c r="J893" t="n">
+        <v>13</v>
+      </c>
+      <c r="K893" t="n">
+        <v>15</v>
+      </c>
+      <c r="L893" t="n">
+        <v>0</v>
+      </c>
+      <c r="M893" t="n">
+        <v>6</v>
+      </c>
+      <c r="N893" t="n">
+        <v>0</v>
+      </c>
+      <c r="O893" t="n">
+        <v>0</v>
+      </c>
+      <c r="P893" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="2" t="n">
+        <v>45695.59375</v>
+      </c>
+      <c r="B894" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="C894" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="D894" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="E894" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="F894" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G894" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H894" t="n">
+        <v>2</v>
+      </c>
+      <c r="I894" t="n">
+        <v>7</v>
+      </c>
+      <c r="J894" t="n">
+        <v>14</v>
+      </c>
+      <c r="K894" t="n">
+        <v>15</v>
+      </c>
+      <c r="L894" t="n">
+        <v>0</v>
+      </c>
+      <c r="M894" t="n">
+        <v>6</v>
+      </c>
+      <c r="N894" t="n">
+        <v>0</v>
+      </c>
+      <c r="O894" t="n">
+        <v>0</v>
+      </c>
+      <c r="P894" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="2" t="n">
+        <v>45695.63541666666</v>
+      </c>
+      <c r="B895" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="C895" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="D895" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="E895" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="F895" t="n">
+        <v>500</v>
+      </c>
+      <c r="G895" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H895" t="n">
+        <v>2</v>
+      </c>
+      <c r="I895" t="n">
+        <v>7</v>
+      </c>
+      <c r="J895" t="n">
+        <v>15</v>
+      </c>
+      <c r="K895" t="n">
+        <v>15</v>
+      </c>
+      <c r="L895" t="n">
+        <v>0</v>
+      </c>
+      <c r="M895" t="n">
+        <v>6</v>
+      </c>
+      <c r="N895" t="n">
+        <v>0</v>
+      </c>
+      <c r="O895" t="n">
+        <v>0</v>
+      </c>
+      <c r="P895" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q895" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
+++ b/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q895"/>
+  <dimension ref="A1:Q909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46842,7 +46842,9 @@
       <c r="P875" t="n">
         <v>0</v>
       </c>
-      <c r="Q875" t="inlineStr"/>
+      <c r="Q875" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
@@ -46893,7 +46895,9 @@
       <c r="P876" t="n">
         <v>0</v>
       </c>
-      <c r="Q876" t="inlineStr"/>
+      <c r="Q876" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
@@ -46944,7 +46948,9 @@
       <c r="P877" t="n">
         <v>0</v>
       </c>
-      <c r="Q877" t="inlineStr"/>
+      <c r="Q877" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
@@ -46995,7 +47001,9 @@
       <c r="P878" t="n">
         <v>0</v>
       </c>
-      <c r="Q878" t="inlineStr"/>
+      <c r="Q878" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
@@ -47046,7 +47054,9 @@
       <c r="P879" t="n">
         <v>0</v>
       </c>
-      <c r="Q879" t="inlineStr"/>
+      <c r="Q879" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
@@ -47097,7 +47107,9 @@
       <c r="P880" t="n">
         <v>0</v>
       </c>
-      <c r="Q880" t="inlineStr"/>
+      <c r="Q880" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
@@ -47148,7 +47160,9 @@
       <c r="P881" t="n">
         <v>1</v>
       </c>
-      <c r="Q881" t="inlineStr"/>
+      <c r="Q881" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
@@ -47199,7 +47213,9 @@
       <c r="P882" t="n">
         <v>0</v>
       </c>
-      <c r="Q882" t="inlineStr"/>
+      <c r="Q882" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
@@ -47250,7 +47266,9 @@
       <c r="P883" t="n">
         <v>0</v>
       </c>
-      <c r="Q883" t="inlineStr"/>
+      <c r="Q883" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
@@ -47301,7 +47319,9 @@
       <c r="P884" t="n">
         <v>0</v>
       </c>
-      <c r="Q884" t="inlineStr"/>
+      <c r="Q884" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
@@ -47352,7 +47372,9 @@
       <c r="P885" t="n">
         <v>0</v>
       </c>
-      <c r="Q885" t="inlineStr"/>
+      <c r="Q885" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
@@ -47403,7 +47425,9 @@
       <c r="P886" t="n">
         <v>2</v>
       </c>
-      <c r="Q886" t="inlineStr"/>
+      <c r="Q886" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
@@ -47454,7 +47478,9 @@
       <c r="P887" t="n">
         <v>0</v>
       </c>
-      <c r="Q887" t="inlineStr"/>
+      <c r="Q887" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
@@ -47505,7 +47531,9 @@
       <c r="P888" t="n">
         <v>0</v>
       </c>
-      <c r="Q888" t="inlineStr"/>
+      <c r="Q888" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
@@ -47556,7 +47584,9 @@
       <c r="P889" t="n">
         <v>0</v>
       </c>
-      <c r="Q889" t="inlineStr"/>
+      <c r="Q889" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
@@ -47607,7 +47637,9 @@
       <c r="P890" t="n">
         <v>0</v>
       </c>
-      <c r="Q890" t="inlineStr"/>
+      <c r="Q890" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
@@ -47658,7 +47690,9 @@
       <c r="P891" t="n">
         <v>0</v>
       </c>
-      <c r="Q891" t="inlineStr"/>
+      <c r="Q891" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
@@ -47709,7 +47743,9 @@
       <c r="P892" t="n">
         <v>0</v>
       </c>
-      <c r="Q892" t="inlineStr"/>
+      <c r="Q892" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
@@ -47760,7 +47796,9 @@
       <c r="P893" t="n">
         <v>0</v>
       </c>
-      <c r="Q893" t="inlineStr"/>
+      <c r="Q893" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
@@ -47811,7 +47849,9 @@
       <c r="P894" t="n">
         <v>0</v>
       </c>
-      <c r="Q894" t="inlineStr"/>
+      <c r="Q894" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
@@ -47862,7 +47902,723 @@
       <c r="P895" t="n">
         <v>0</v>
       </c>
-      <c r="Q895" t="inlineStr"/>
+      <c r="Q895" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="2" t="n">
+        <v>45698.38541666666</v>
+      </c>
+      <c r="B896" t="n">
+        <v>729</v>
+      </c>
+      <c r="C896" t="n">
+        <v>729</v>
+      </c>
+      <c r="D896" t="n">
+        <v>675.5499877929688</v>
+      </c>
+      <c r="E896" t="n">
+        <v>685.0999755859375</v>
+      </c>
+      <c r="F896" t="n">
+        <v>0</v>
+      </c>
+      <c r="G896" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H896" t="n">
+        <v>2</v>
+      </c>
+      <c r="I896" t="n">
+        <v>10</v>
+      </c>
+      <c r="J896" t="n">
+        <v>9</v>
+      </c>
+      <c r="K896" t="n">
+        <v>15</v>
+      </c>
+      <c r="L896" t="n">
+        <v>0</v>
+      </c>
+      <c r="M896" t="n">
+        <v>7</v>
+      </c>
+      <c r="N896" t="n">
+        <v>1</v>
+      </c>
+      <c r="O896" t="n">
+        <v>0</v>
+      </c>
+      <c r="P896" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="2" t="n">
+        <v>45698.42708333334</v>
+      </c>
+      <c r="B897" t="n">
+        <v>685.0999755859375</v>
+      </c>
+      <c r="C897" t="n">
+        <v>698.5</v>
+      </c>
+      <c r="D897" t="n">
+        <v>685.0999755859375</v>
+      </c>
+      <c r="E897" t="n">
+        <v>690.1500244140625</v>
+      </c>
+      <c r="F897" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G897" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H897" t="n">
+        <v>2</v>
+      </c>
+      <c r="I897" t="n">
+        <v>10</v>
+      </c>
+      <c r="J897" t="n">
+        <v>10</v>
+      </c>
+      <c r="K897" t="n">
+        <v>15</v>
+      </c>
+      <c r="L897" t="n">
+        <v>0</v>
+      </c>
+      <c r="M897" t="n">
+        <v>7</v>
+      </c>
+      <c r="N897" t="n">
+        <v>0</v>
+      </c>
+      <c r="O897" t="n">
+        <v>0</v>
+      </c>
+      <c r="P897" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="2" t="n">
+        <v>45698.46875</v>
+      </c>
+      <c r="B898" t="n">
+        <v>690.1500244140625</v>
+      </c>
+      <c r="C898" t="n">
+        <v>695.9000244140625</v>
+      </c>
+      <c r="D898" t="n">
+        <v>682.2999877929688</v>
+      </c>
+      <c r="E898" t="n">
+        <v>685.0499877929688</v>
+      </c>
+      <c r="F898" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G898" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H898" t="n">
+        <v>2</v>
+      </c>
+      <c r="I898" t="n">
+        <v>10</v>
+      </c>
+      <c r="J898" t="n">
+        <v>11</v>
+      </c>
+      <c r="K898" t="n">
+        <v>15</v>
+      </c>
+      <c r="L898" t="n">
+        <v>0</v>
+      </c>
+      <c r="M898" t="n">
+        <v>7</v>
+      </c>
+      <c r="N898" t="n">
+        <v>0</v>
+      </c>
+      <c r="O898" t="n">
+        <v>0</v>
+      </c>
+      <c r="P898" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="2" t="n">
+        <v>45698.51041666666</v>
+      </c>
+      <c r="B899" t="n">
+        <v>689.9500122070312</v>
+      </c>
+      <c r="C899" t="n">
+        <v>689.9500122070312</v>
+      </c>
+      <c r="D899" t="n">
+        <v>682</v>
+      </c>
+      <c r="E899" t="n">
+        <v>682</v>
+      </c>
+      <c r="F899" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G899" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H899" t="n">
+        <v>2</v>
+      </c>
+      <c r="I899" t="n">
+        <v>10</v>
+      </c>
+      <c r="J899" t="n">
+        <v>12</v>
+      </c>
+      <c r="K899" t="n">
+        <v>15</v>
+      </c>
+      <c r="L899" t="n">
+        <v>0</v>
+      </c>
+      <c r="M899" t="n">
+        <v>7</v>
+      </c>
+      <c r="N899" t="n">
+        <v>0</v>
+      </c>
+      <c r="O899" t="n">
+        <v>0</v>
+      </c>
+      <c r="P899" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="2" t="n">
+        <v>45698.55208333334</v>
+      </c>
+      <c r="B900" t="n">
+        <v>680</v>
+      </c>
+      <c r="C900" t="n">
+        <v>688.2000122070312</v>
+      </c>
+      <c r="D900" t="n">
+        <v>678</v>
+      </c>
+      <c r="E900" t="n">
+        <v>685.9000244140625</v>
+      </c>
+      <c r="F900" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G900" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H900" t="n">
+        <v>2</v>
+      </c>
+      <c r="I900" t="n">
+        <v>10</v>
+      </c>
+      <c r="J900" t="n">
+        <v>13</v>
+      </c>
+      <c r="K900" t="n">
+        <v>15</v>
+      </c>
+      <c r="L900" t="n">
+        <v>0</v>
+      </c>
+      <c r="M900" t="n">
+        <v>7</v>
+      </c>
+      <c r="N900" t="n">
+        <v>0</v>
+      </c>
+      <c r="O900" t="n">
+        <v>0</v>
+      </c>
+      <c r="P900" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="2" t="n">
+        <v>45698.59375</v>
+      </c>
+      <c r="B901" t="n">
+        <v>685.9000244140625</v>
+      </c>
+      <c r="C901" t="n">
+        <v>690</v>
+      </c>
+      <c r="D901" t="n">
+        <v>677.25</v>
+      </c>
+      <c r="E901" t="n">
+        <v>690</v>
+      </c>
+      <c r="F901" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G901" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H901" t="n">
+        <v>2</v>
+      </c>
+      <c r="I901" t="n">
+        <v>10</v>
+      </c>
+      <c r="J901" t="n">
+        <v>14</v>
+      </c>
+      <c r="K901" t="n">
+        <v>15</v>
+      </c>
+      <c r="L901" t="n">
+        <v>0</v>
+      </c>
+      <c r="M901" t="n">
+        <v>7</v>
+      </c>
+      <c r="N901" t="n">
+        <v>0</v>
+      </c>
+      <c r="O901" t="n">
+        <v>0</v>
+      </c>
+      <c r="P901" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="2" t="n">
+        <v>45698.63541666666</v>
+      </c>
+      <c r="B902" t="n">
+        <v>684.2000122070312</v>
+      </c>
+      <c r="C902" t="n">
+        <v>689.9000244140625</v>
+      </c>
+      <c r="D902" t="n">
+        <v>683.3499755859375</v>
+      </c>
+      <c r="E902" t="n">
+        <v>686.8499755859375</v>
+      </c>
+      <c r="F902" t="n">
+        <v>750</v>
+      </c>
+      <c r="G902" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H902" t="n">
+        <v>2</v>
+      </c>
+      <c r="I902" t="n">
+        <v>10</v>
+      </c>
+      <c r="J902" t="n">
+        <v>15</v>
+      </c>
+      <c r="K902" t="n">
+        <v>15</v>
+      </c>
+      <c r="L902" t="n">
+        <v>0</v>
+      </c>
+      <c r="M902" t="n">
+        <v>7</v>
+      </c>
+      <c r="N902" t="n">
+        <v>0</v>
+      </c>
+      <c r="O902" t="n">
+        <v>0</v>
+      </c>
+      <c r="P902" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="2" t="n">
+        <v>45699.38541666666</v>
+      </c>
+      <c r="B903" t="n">
+        <v>653.7999877929688</v>
+      </c>
+      <c r="C903" t="n">
+        <v>654</v>
+      </c>
+      <c r="D903" t="n">
+        <v>625.25</v>
+      </c>
+      <c r="E903" t="n">
+        <v>642.9000244140625</v>
+      </c>
+      <c r="F903" t="n">
+        <v>0</v>
+      </c>
+      <c r="G903" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H903" t="n">
+        <v>2</v>
+      </c>
+      <c r="I903" t="n">
+        <v>11</v>
+      </c>
+      <c r="J903" t="n">
+        <v>9</v>
+      </c>
+      <c r="K903" t="n">
+        <v>15</v>
+      </c>
+      <c r="L903" t="n">
+        <v>0</v>
+      </c>
+      <c r="M903" t="n">
+        <v>7</v>
+      </c>
+      <c r="N903" t="n">
+        <v>0</v>
+      </c>
+      <c r="O903" t="n">
+        <v>0</v>
+      </c>
+      <c r="P903" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="2" t="n">
+        <v>45699.42708333334</v>
+      </c>
+      <c r="B904" t="n">
+        <v>641.4000244140625</v>
+      </c>
+      <c r="C904" t="n">
+        <v>644.9500122070312</v>
+      </c>
+      <c r="D904" t="n">
+        <v>635</v>
+      </c>
+      <c r="E904" t="n">
+        <v>644.9500122070312</v>
+      </c>
+      <c r="F904" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G904" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H904" t="n">
+        <v>2</v>
+      </c>
+      <c r="I904" t="n">
+        <v>11</v>
+      </c>
+      <c r="J904" t="n">
+        <v>10</v>
+      </c>
+      <c r="K904" t="n">
+        <v>15</v>
+      </c>
+      <c r="L904" t="n">
+        <v>0</v>
+      </c>
+      <c r="M904" t="n">
+        <v>7</v>
+      </c>
+      <c r="N904" t="n">
+        <v>0</v>
+      </c>
+      <c r="O904" t="n">
+        <v>0</v>
+      </c>
+      <c r="P904" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="2" t="n">
+        <v>45699.46875</v>
+      </c>
+      <c r="B905" t="n">
+        <v>645</v>
+      </c>
+      <c r="C905" t="n">
+        <v>648</v>
+      </c>
+      <c r="D905" t="n">
+        <v>640.0999755859375</v>
+      </c>
+      <c r="E905" t="n">
+        <v>648</v>
+      </c>
+      <c r="F905" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G905" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H905" t="n">
+        <v>2</v>
+      </c>
+      <c r="I905" t="n">
+        <v>11</v>
+      </c>
+      <c r="J905" t="n">
+        <v>11</v>
+      </c>
+      <c r="K905" t="n">
+        <v>15</v>
+      </c>
+      <c r="L905" t="n">
+        <v>0</v>
+      </c>
+      <c r="M905" t="n">
+        <v>7</v>
+      </c>
+      <c r="N905" t="n">
+        <v>0</v>
+      </c>
+      <c r="O905" t="n">
+        <v>0</v>
+      </c>
+      <c r="P905" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="2" t="n">
+        <v>45699.51041666666</v>
+      </c>
+      <c r="B906" t="n">
+        <v>640</v>
+      </c>
+      <c r="C906" t="n">
+        <v>641.4000244140625</v>
+      </c>
+      <c r="D906" t="n">
+        <v>630</v>
+      </c>
+      <c r="E906" t="n">
+        <v>632</v>
+      </c>
+      <c r="F906" t="n">
+        <v>11250</v>
+      </c>
+      <c r="G906" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H906" t="n">
+        <v>2</v>
+      </c>
+      <c r="I906" t="n">
+        <v>11</v>
+      </c>
+      <c r="J906" t="n">
+        <v>12</v>
+      </c>
+      <c r="K906" t="n">
+        <v>15</v>
+      </c>
+      <c r="L906" t="n">
+        <v>0</v>
+      </c>
+      <c r="M906" t="n">
+        <v>7</v>
+      </c>
+      <c r="N906" t="n">
+        <v>0</v>
+      </c>
+      <c r="O906" t="n">
+        <v>0</v>
+      </c>
+      <c r="P906" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="2" t="n">
+        <v>45699.55208333334</v>
+      </c>
+      <c r="B907" t="n">
+        <v>639.9000244140625</v>
+      </c>
+      <c r="C907" t="n">
+        <v>639.9000244140625</v>
+      </c>
+      <c r="D907" t="n">
+        <v>630</v>
+      </c>
+      <c r="E907" t="n">
+        <v>630.0999755859375</v>
+      </c>
+      <c r="F907" t="n">
+        <v>5750</v>
+      </c>
+      <c r="G907" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H907" t="n">
+        <v>2</v>
+      </c>
+      <c r="I907" t="n">
+        <v>11</v>
+      </c>
+      <c r="J907" t="n">
+        <v>13</v>
+      </c>
+      <c r="K907" t="n">
+        <v>15</v>
+      </c>
+      <c r="L907" t="n">
+        <v>0</v>
+      </c>
+      <c r="M907" t="n">
+        <v>7</v>
+      </c>
+      <c r="N907" t="n">
+        <v>0</v>
+      </c>
+      <c r="O907" t="n">
+        <v>0</v>
+      </c>
+      <c r="P907" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="2" t="n">
+        <v>45699.59375</v>
+      </c>
+      <c r="B908" t="n">
+        <v>630.0999755859375</v>
+      </c>
+      <c r="C908" t="n">
+        <v>635.9000244140625</v>
+      </c>
+      <c r="D908" t="n">
+        <v>630</v>
+      </c>
+      <c r="E908" t="n">
+        <v>633</v>
+      </c>
+      <c r="F908" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G908" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H908" t="n">
+        <v>2</v>
+      </c>
+      <c r="I908" t="n">
+        <v>11</v>
+      </c>
+      <c r="J908" t="n">
+        <v>14</v>
+      </c>
+      <c r="K908" t="n">
+        <v>15</v>
+      </c>
+      <c r="L908" t="n">
+        <v>0</v>
+      </c>
+      <c r="M908" t="n">
+        <v>7</v>
+      </c>
+      <c r="N908" t="n">
+        <v>0</v>
+      </c>
+      <c r="O908" t="n">
+        <v>0</v>
+      </c>
+      <c r="P908" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="2" t="n">
+        <v>45699.63541666666</v>
+      </c>
+      <c r="B909" t="n">
+        <v>632</v>
+      </c>
+      <c r="C909" t="n">
+        <v>637.9500122070312</v>
+      </c>
+      <c r="D909" t="n">
+        <v>632</v>
+      </c>
+      <c r="E909" t="n">
+        <v>637.9500122070312</v>
+      </c>
+      <c r="F909" t="n">
+        <v>5750</v>
+      </c>
+      <c r="G909" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H909" t="n">
+        <v>2</v>
+      </c>
+      <c r="I909" t="n">
+        <v>11</v>
+      </c>
+      <c r="J909" t="n">
+        <v>15</v>
+      </c>
+      <c r="K909" t="n">
+        <v>15</v>
+      </c>
+      <c r="L909" t="n">
+        <v>0</v>
+      </c>
+      <c r="M909" t="n">
+        <v>7</v>
+      </c>
+      <c r="N909" t="n">
+        <v>0</v>
+      </c>
+      <c r="O909" t="n">
+        <v>0</v>
+      </c>
+      <c r="P909" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q909" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
+++ b/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q909"/>
+  <dimension ref="A1:Q923"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47955,7 +47955,9 @@
       <c r="P896" t="n">
         <v>0</v>
       </c>
-      <c r="Q896" t="inlineStr"/>
+      <c r="Q896" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
@@ -48006,7 +48008,9 @@
       <c r="P897" t="n">
         <v>0</v>
       </c>
-      <c r="Q897" t="inlineStr"/>
+      <c r="Q897" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
@@ -48057,7 +48061,9 @@
       <c r="P898" t="n">
         <v>0</v>
       </c>
-      <c r="Q898" t="inlineStr"/>
+      <c r="Q898" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
@@ -48108,7 +48114,9 @@
       <c r="P899" t="n">
         <v>0</v>
       </c>
-      <c r="Q899" t="inlineStr"/>
+      <c r="Q899" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
@@ -48159,7 +48167,9 @@
       <c r="P900" t="n">
         <v>0</v>
       </c>
-      <c r="Q900" t="inlineStr"/>
+      <c r="Q900" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
@@ -48210,7 +48220,9 @@
       <c r="P901" t="n">
         <v>0</v>
       </c>
-      <c r="Q901" t="inlineStr"/>
+      <c r="Q901" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
@@ -48261,7 +48273,9 @@
       <c r="P902" t="n">
         <v>0</v>
       </c>
-      <c r="Q902" t="inlineStr"/>
+      <c r="Q902" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
@@ -48312,7 +48326,9 @@
       <c r="P903" t="n">
         <v>0</v>
       </c>
-      <c r="Q903" t="inlineStr"/>
+      <c r="Q903" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
@@ -48363,7 +48379,9 @@
       <c r="P904" t="n">
         <v>0</v>
       </c>
-      <c r="Q904" t="inlineStr"/>
+      <c r="Q904" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
@@ -48414,7 +48432,9 @@
       <c r="P905" t="n">
         <v>0</v>
       </c>
-      <c r="Q905" t="inlineStr"/>
+      <c r="Q905" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
@@ -48465,7 +48485,9 @@
       <c r="P906" t="n">
         <v>0</v>
       </c>
-      <c r="Q906" t="inlineStr"/>
+      <c r="Q906" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
@@ -48516,7 +48538,9 @@
       <c r="P907" t="n">
         <v>2</v>
       </c>
-      <c r="Q907" t="inlineStr"/>
+      <c r="Q907" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
@@ -48567,7 +48591,9 @@
       <c r="P908" t="n">
         <v>0</v>
       </c>
-      <c r="Q908" t="inlineStr"/>
+      <c r="Q908" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
@@ -48618,7 +48644,723 @@
       <c r="P909" t="n">
         <v>0</v>
       </c>
-      <c r="Q909" t="inlineStr"/>
+      <c r="Q909" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="2" t="n">
+        <v>45700.38541666666</v>
+      </c>
+      <c r="B910" t="n">
+        <v>617</v>
+      </c>
+      <c r="C910" t="n">
+        <v>637.4500122070312</v>
+      </c>
+      <c r="D910" t="n">
+        <v>610</v>
+      </c>
+      <c r="E910" t="n">
+        <v>620.4500122070312</v>
+      </c>
+      <c r="F910" t="n">
+        <v>0</v>
+      </c>
+      <c r="G910" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H910" t="n">
+        <v>2</v>
+      </c>
+      <c r="I910" t="n">
+        <v>12</v>
+      </c>
+      <c r="J910" t="n">
+        <v>9</v>
+      </c>
+      <c r="K910" t="n">
+        <v>15</v>
+      </c>
+      <c r="L910" t="n">
+        <v>0</v>
+      </c>
+      <c r="M910" t="n">
+        <v>7</v>
+      </c>
+      <c r="N910" t="n">
+        <v>2</v>
+      </c>
+      <c r="O910" t="n">
+        <v>0</v>
+      </c>
+      <c r="P910" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="2" t="n">
+        <v>45700.42708333334</v>
+      </c>
+      <c r="B911" t="n">
+        <v>616</v>
+      </c>
+      <c r="C911" t="n">
+        <v>639</v>
+      </c>
+      <c r="D911" t="n">
+        <v>612</v>
+      </c>
+      <c r="E911" t="n">
+        <v>639</v>
+      </c>
+      <c r="F911" t="n">
+        <v>6750</v>
+      </c>
+      <c r="G911" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H911" t="n">
+        <v>2</v>
+      </c>
+      <c r="I911" t="n">
+        <v>12</v>
+      </c>
+      <c r="J911" t="n">
+        <v>10</v>
+      </c>
+      <c r="K911" t="n">
+        <v>15</v>
+      </c>
+      <c r="L911" t="n">
+        <v>0</v>
+      </c>
+      <c r="M911" t="n">
+        <v>7</v>
+      </c>
+      <c r="N911" t="n">
+        <v>0</v>
+      </c>
+      <c r="O911" t="n">
+        <v>0</v>
+      </c>
+      <c r="P911" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="n">
+        <v>45700.46875</v>
+      </c>
+      <c r="B912" t="n">
+        <v>643.9500122070312</v>
+      </c>
+      <c r="C912" t="n">
+        <v>665.9500122070312</v>
+      </c>
+      <c r="D912" t="n">
+        <v>643.9500122070312</v>
+      </c>
+      <c r="E912" t="n">
+        <v>657</v>
+      </c>
+      <c r="F912" t="n">
+        <v>10250</v>
+      </c>
+      <c r="G912" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H912" t="n">
+        <v>2</v>
+      </c>
+      <c r="I912" t="n">
+        <v>12</v>
+      </c>
+      <c r="J912" t="n">
+        <v>11</v>
+      </c>
+      <c r="K912" t="n">
+        <v>15</v>
+      </c>
+      <c r="L912" t="n">
+        <v>0</v>
+      </c>
+      <c r="M912" t="n">
+        <v>7</v>
+      </c>
+      <c r="N912" t="n">
+        <v>0</v>
+      </c>
+      <c r="O912" t="n">
+        <v>0</v>
+      </c>
+      <c r="P912" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="n">
+        <v>45700.51041666666</v>
+      </c>
+      <c r="B913" t="n">
+        <v>658.4500122070312</v>
+      </c>
+      <c r="C913" t="n">
+        <v>658.4500122070312</v>
+      </c>
+      <c r="D913" t="n">
+        <v>655</v>
+      </c>
+      <c r="E913" t="n">
+        <v>657</v>
+      </c>
+      <c r="F913" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G913" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H913" t="n">
+        <v>2</v>
+      </c>
+      <c r="I913" t="n">
+        <v>12</v>
+      </c>
+      <c r="J913" t="n">
+        <v>12</v>
+      </c>
+      <c r="K913" t="n">
+        <v>15</v>
+      </c>
+      <c r="L913" t="n">
+        <v>0</v>
+      </c>
+      <c r="M913" t="n">
+        <v>7</v>
+      </c>
+      <c r="N913" t="n">
+        <v>0</v>
+      </c>
+      <c r="O913" t="n">
+        <v>0</v>
+      </c>
+      <c r="P913" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="n">
+        <v>45700.55208333334</v>
+      </c>
+      <c r="B914" t="n">
+        <v>657</v>
+      </c>
+      <c r="C914" t="n">
+        <v>657</v>
+      </c>
+      <c r="D914" t="n">
+        <v>651</v>
+      </c>
+      <c r="E914" t="n">
+        <v>651</v>
+      </c>
+      <c r="F914" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G914" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H914" t="n">
+        <v>2</v>
+      </c>
+      <c r="I914" t="n">
+        <v>12</v>
+      </c>
+      <c r="J914" t="n">
+        <v>13</v>
+      </c>
+      <c r="K914" t="n">
+        <v>15</v>
+      </c>
+      <c r="L914" t="n">
+        <v>0</v>
+      </c>
+      <c r="M914" t="n">
+        <v>7</v>
+      </c>
+      <c r="N914" t="n">
+        <v>0</v>
+      </c>
+      <c r="O914" t="n">
+        <v>0</v>
+      </c>
+      <c r="P914" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="2" t="n">
+        <v>45700.59375</v>
+      </c>
+      <c r="B915" t="n">
+        <v>653.9500122070312</v>
+      </c>
+      <c r="C915" t="n">
+        <v>655</v>
+      </c>
+      <c r="D915" t="n">
+        <v>647.0499877929688</v>
+      </c>
+      <c r="E915" t="n">
+        <v>650</v>
+      </c>
+      <c r="F915" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G915" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H915" t="n">
+        <v>2</v>
+      </c>
+      <c r="I915" t="n">
+        <v>12</v>
+      </c>
+      <c r="J915" t="n">
+        <v>14</v>
+      </c>
+      <c r="K915" t="n">
+        <v>15</v>
+      </c>
+      <c r="L915" t="n">
+        <v>0</v>
+      </c>
+      <c r="M915" t="n">
+        <v>7</v>
+      </c>
+      <c r="N915" t="n">
+        <v>0</v>
+      </c>
+      <c r="O915" t="n">
+        <v>0</v>
+      </c>
+      <c r="P915" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>45700.63541666666</v>
+      </c>
+      <c r="B916" t="n">
+        <v>658.5</v>
+      </c>
+      <c r="C916" t="n">
+        <v>663</v>
+      </c>
+      <c r="D916" t="n">
+        <v>656.4500122070312</v>
+      </c>
+      <c r="E916" t="n">
+        <v>656.4500122070312</v>
+      </c>
+      <c r="F916" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G916" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H916" t="n">
+        <v>2</v>
+      </c>
+      <c r="I916" t="n">
+        <v>12</v>
+      </c>
+      <c r="J916" t="n">
+        <v>15</v>
+      </c>
+      <c r="K916" t="n">
+        <v>15</v>
+      </c>
+      <c r="L916" t="n">
+        <v>0</v>
+      </c>
+      <c r="M916" t="n">
+        <v>7</v>
+      </c>
+      <c r="N916" t="n">
+        <v>0</v>
+      </c>
+      <c r="O916" t="n">
+        <v>0</v>
+      </c>
+      <c r="P916" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
+        <v>45701.38541666666</v>
+      </c>
+      <c r="B917" t="n">
+        <v>657</v>
+      </c>
+      <c r="C917" t="n">
+        <v>684</v>
+      </c>
+      <c r="D917" t="n">
+        <v>656.9000244140625</v>
+      </c>
+      <c r="E917" t="n">
+        <v>681.7999877929688</v>
+      </c>
+      <c r="F917" t="n">
+        <v>0</v>
+      </c>
+      <c r="G917" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H917" t="n">
+        <v>2</v>
+      </c>
+      <c r="I917" t="n">
+        <v>13</v>
+      </c>
+      <c r="J917" t="n">
+        <v>9</v>
+      </c>
+      <c r="K917" t="n">
+        <v>15</v>
+      </c>
+      <c r="L917" t="n">
+        <v>0</v>
+      </c>
+      <c r="M917" t="n">
+        <v>7</v>
+      </c>
+      <c r="N917" t="n">
+        <v>0</v>
+      </c>
+      <c r="O917" t="n">
+        <v>0</v>
+      </c>
+      <c r="P917" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="2" t="n">
+        <v>45701.42708333334</v>
+      </c>
+      <c r="B918" t="n">
+        <v>673.2999877929688</v>
+      </c>
+      <c r="C918" t="n">
+        <v>678</v>
+      </c>
+      <c r="D918" t="n">
+        <v>673.2999877929688</v>
+      </c>
+      <c r="E918" t="n">
+        <v>678</v>
+      </c>
+      <c r="F918" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G918" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H918" t="n">
+        <v>2</v>
+      </c>
+      <c r="I918" t="n">
+        <v>13</v>
+      </c>
+      <c r="J918" t="n">
+        <v>10</v>
+      </c>
+      <c r="K918" t="n">
+        <v>15</v>
+      </c>
+      <c r="L918" t="n">
+        <v>0</v>
+      </c>
+      <c r="M918" t="n">
+        <v>7</v>
+      </c>
+      <c r="N918" t="n">
+        <v>0</v>
+      </c>
+      <c r="O918" t="n">
+        <v>0</v>
+      </c>
+      <c r="P918" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="2" t="n">
+        <v>45701.46875</v>
+      </c>
+      <c r="B919" t="n">
+        <v>677.9500122070312</v>
+      </c>
+      <c r="C919" t="n">
+        <v>677.9500122070312</v>
+      </c>
+      <c r="D919" t="n">
+        <v>668</v>
+      </c>
+      <c r="E919" t="n">
+        <v>668</v>
+      </c>
+      <c r="F919" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G919" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H919" t="n">
+        <v>2</v>
+      </c>
+      <c r="I919" t="n">
+        <v>13</v>
+      </c>
+      <c r="J919" t="n">
+        <v>11</v>
+      </c>
+      <c r="K919" t="n">
+        <v>15</v>
+      </c>
+      <c r="L919" t="n">
+        <v>0</v>
+      </c>
+      <c r="M919" t="n">
+        <v>7</v>
+      </c>
+      <c r="N919" t="n">
+        <v>0</v>
+      </c>
+      <c r="O919" t="n">
+        <v>0</v>
+      </c>
+      <c r="P919" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="2" t="n">
+        <v>45701.51041666666</v>
+      </c>
+      <c r="B920" t="n">
+        <v>673.5</v>
+      </c>
+      <c r="C920" t="n">
+        <v>673.5</v>
+      </c>
+      <c r="D920" t="n">
+        <v>673.5</v>
+      </c>
+      <c r="E920" t="n">
+        <v>673.5</v>
+      </c>
+      <c r="F920" t="n">
+        <v>250</v>
+      </c>
+      <c r="G920" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H920" t="n">
+        <v>2</v>
+      </c>
+      <c r="I920" t="n">
+        <v>13</v>
+      </c>
+      <c r="J920" t="n">
+        <v>12</v>
+      </c>
+      <c r="K920" t="n">
+        <v>15</v>
+      </c>
+      <c r="L920" t="n">
+        <v>0</v>
+      </c>
+      <c r="M920" t="n">
+        <v>7</v>
+      </c>
+      <c r="N920" t="n">
+        <v>0</v>
+      </c>
+      <c r="O920" t="n">
+        <v>0</v>
+      </c>
+      <c r="P920" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="2" t="n">
+        <v>45701.55208333334</v>
+      </c>
+      <c r="B921" t="n">
+        <v>673</v>
+      </c>
+      <c r="C921" t="n">
+        <v>673</v>
+      </c>
+      <c r="D921" t="n">
+        <v>666</v>
+      </c>
+      <c r="E921" t="n">
+        <v>670</v>
+      </c>
+      <c r="F921" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G921" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H921" t="n">
+        <v>2</v>
+      </c>
+      <c r="I921" t="n">
+        <v>13</v>
+      </c>
+      <c r="J921" t="n">
+        <v>13</v>
+      </c>
+      <c r="K921" t="n">
+        <v>15</v>
+      </c>
+      <c r="L921" t="n">
+        <v>0</v>
+      </c>
+      <c r="M921" t="n">
+        <v>7</v>
+      </c>
+      <c r="N921" t="n">
+        <v>0</v>
+      </c>
+      <c r="O921" t="n">
+        <v>1</v>
+      </c>
+      <c r="P921" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="2" t="n">
+        <v>45701.59375</v>
+      </c>
+      <c r="B922" t="n">
+        <v>670.2000122070312</v>
+      </c>
+      <c r="C922" t="n">
+        <v>670.2999877929688</v>
+      </c>
+      <c r="D922" t="n">
+        <v>661.0499877929688</v>
+      </c>
+      <c r="E922" t="n">
+        <v>661.0499877929688</v>
+      </c>
+      <c r="F922" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G922" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H922" t="n">
+        <v>2</v>
+      </c>
+      <c r="I922" t="n">
+        <v>13</v>
+      </c>
+      <c r="J922" t="n">
+        <v>14</v>
+      </c>
+      <c r="K922" t="n">
+        <v>15</v>
+      </c>
+      <c r="L922" t="n">
+        <v>0</v>
+      </c>
+      <c r="M922" t="n">
+        <v>7</v>
+      </c>
+      <c r="N922" t="n">
+        <v>0</v>
+      </c>
+      <c r="O922" t="n">
+        <v>0</v>
+      </c>
+      <c r="P922" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="2" t="n">
+        <v>45701.63541666666</v>
+      </c>
+      <c r="B923" t="n">
+        <v>661</v>
+      </c>
+      <c r="C923" t="n">
+        <v>663.6500244140625</v>
+      </c>
+      <c r="D923" t="n">
+        <v>660</v>
+      </c>
+      <c r="E923" t="n">
+        <v>663.6500244140625</v>
+      </c>
+      <c r="F923" t="n">
+        <v>750</v>
+      </c>
+      <c r="G923" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H923" t="n">
+        <v>2</v>
+      </c>
+      <c r="I923" t="n">
+        <v>13</v>
+      </c>
+      <c r="J923" t="n">
+        <v>15</v>
+      </c>
+      <c r="K923" t="n">
+        <v>15</v>
+      </c>
+      <c r="L923" t="n">
+        <v>0</v>
+      </c>
+      <c r="M923" t="n">
+        <v>7</v>
+      </c>
+      <c r="N923" t="n">
+        <v>0</v>
+      </c>
+      <c r="O923" t="n">
+        <v>0</v>
+      </c>
+      <c r="P923" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q923" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
+++ b/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1749"/>
+  <dimension ref="A1:Q1791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83606,7 +83606,9 @@
       <c r="P1687" t="n">
         <v>0</v>
       </c>
-      <c r="Q1687" t="inlineStr"/>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
@@ -83657,7 +83659,9 @@
       <c r="P1688" t="n">
         <v>0</v>
       </c>
-      <c r="Q1688" t="inlineStr"/>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
@@ -83708,7 +83712,9 @@
       <c r="P1689" t="n">
         <v>0</v>
       </c>
-      <c r="Q1689" t="inlineStr"/>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -83757,9 +83763,11 @@
         <v>0</v>
       </c>
       <c r="P1690" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q1690" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -83810,7 +83818,9 @@
       <c r="P1691" t="n">
         <v>0</v>
       </c>
-      <c r="Q1691" t="inlineStr"/>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
@@ -83861,7 +83871,9 @@
       <c r="P1692" t="n">
         <v>0</v>
       </c>
-      <c r="Q1692" t="inlineStr"/>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -83965,7 +83977,9 @@
       <c r="P1694" t="n">
         <v>0</v>
       </c>
-      <c r="Q1694" t="inlineStr"/>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -84176,7 +84190,7 @@
         <v>1</v>
       </c>
       <c r="Q1698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1699">
@@ -84334,7 +84348,9 @@
       <c r="P1701" t="n">
         <v>0</v>
       </c>
-      <c r="Q1701" t="inlineStr"/>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -84385,7 +84401,9 @@
       <c r="P1702" t="n">
         <v>0</v>
       </c>
-      <c r="Q1702" t="inlineStr"/>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
@@ -84436,7 +84454,9 @@
       <c r="P1703" t="n">
         <v>0</v>
       </c>
-      <c r="Q1703" t="inlineStr"/>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -84487,7 +84507,9 @@
       <c r="P1704" t="n">
         <v>0</v>
       </c>
-      <c r="Q1704" t="inlineStr"/>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
@@ -84538,7 +84560,9 @@
       <c r="P1705" t="n">
         <v>0</v>
       </c>
-      <c r="Q1705" t="inlineStr"/>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -84589,7 +84613,9 @@
       <c r="P1706" t="n">
         <v>0</v>
       </c>
-      <c r="Q1706" t="inlineStr"/>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -84693,7 +84719,9 @@
       <c r="P1708" t="n">
         <v>0</v>
       </c>
-      <c r="Q1708" t="inlineStr"/>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -84901,7 +84929,7 @@
         <v>0</v>
       </c>
       <c r="P1712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q1712" t="n">
         <v>0</v>
@@ -85062,7 +85090,9 @@
       <c r="P1715" t="n">
         <v>0</v>
       </c>
-      <c r="Q1715" t="inlineStr"/>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -85113,7 +85143,9 @@
       <c r="P1716" t="n">
         <v>0</v>
       </c>
-      <c r="Q1716" t="inlineStr"/>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -85164,7 +85196,9 @@
       <c r="P1717" t="n">
         <v>0</v>
       </c>
-      <c r="Q1717" t="inlineStr"/>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -85215,7 +85249,9 @@
       <c r="P1718" t="n">
         <v>1</v>
       </c>
-      <c r="Q1718" t="inlineStr"/>
+      <c r="Q1718" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -85266,7 +85302,9 @@
       <c r="P1719" t="n">
         <v>0</v>
       </c>
-      <c r="Q1719" t="inlineStr"/>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -85317,7 +85355,9 @@
       <c r="P1720" t="n">
         <v>0</v>
       </c>
-      <c r="Q1720" t="inlineStr"/>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -85421,7 +85461,9 @@
       <c r="P1722" t="n">
         <v>0</v>
       </c>
-      <c r="Q1722" t="inlineStr"/>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -85632,7 +85674,7 @@
         <v>0</v>
       </c>
       <c r="Q1726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1727">
@@ -85790,7 +85832,9 @@
       <c r="P1729" t="n">
         <v>0</v>
       </c>
-      <c r="Q1729" t="inlineStr"/>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -85841,7 +85885,9 @@
       <c r="P1730" t="n">
         <v>0</v>
       </c>
-      <c r="Q1730" t="inlineStr"/>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
@@ -85892,7 +85938,9 @@
       <c r="P1731" t="n">
         <v>0</v>
       </c>
-      <c r="Q1731" t="inlineStr"/>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -85943,7 +85991,9 @@
       <c r="P1732" t="n">
         <v>0</v>
       </c>
-      <c r="Q1732" t="inlineStr"/>
+      <c r="Q1732" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -85994,7 +86044,9 @@
       <c r="P1733" t="n">
         <v>0</v>
       </c>
-      <c r="Q1733" t="inlineStr"/>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -86045,7 +86097,9 @@
       <c r="P1734" t="n">
         <v>0</v>
       </c>
-      <c r="Q1734" t="inlineStr"/>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -86096,7 +86150,9 @@
       <c r="P1735" t="n">
         <v>0</v>
       </c>
-      <c r="Q1735" t="inlineStr"/>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -86147,7 +86203,9 @@
       <c r="P1736" t="n">
         <v>0</v>
       </c>
-      <c r="Q1736" t="inlineStr"/>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -86198,7 +86256,9 @@
       <c r="P1737" t="n">
         <v>0</v>
       </c>
-      <c r="Q1737" t="inlineStr"/>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
@@ -86249,7 +86309,9 @@
       <c r="P1738" t="n">
         <v>0</v>
       </c>
-      <c r="Q1738" t="inlineStr"/>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -86300,7 +86362,9 @@
       <c r="P1739" t="n">
         <v>0</v>
       </c>
-      <c r="Q1739" t="inlineStr"/>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
@@ -86351,7 +86415,9 @@
       <c r="P1740" t="n">
         <v>0</v>
       </c>
-      <c r="Q1740" t="inlineStr"/>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -86402,7 +86468,9 @@
       <c r="P1741" t="n">
         <v>0</v>
       </c>
-      <c r="Q1741" t="inlineStr"/>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -86453,7 +86521,9 @@
       <c r="P1742" t="n">
         <v>0</v>
       </c>
-      <c r="Q1742" t="inlineStr"/>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
@@ -86504,7 +86574,9 @@
       <c r="P1743" t="n">
         <v>0</v>
       </c>
-      <c r="Q1743" t="inlineStr"/>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -86555,7 +86627,9 @@
       <c r="P1744" t="n">
         <v>0</v>
       </c>
-      <c r="Q1744" t="inlineStr"/>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
@@ -86606,7 +86680,9 @@
       <c r="P1745" t="n">
         <v>0</v>
       </c>
-      <c r="Q1745" t="inlineStr"/>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -86657,7 +86733,9 @@
       <c r="P1746" t="n">
         <v>0</v>
       </c>
-      <c r="Q1746" t="inlineStr"/>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -86708,7 +86786,9 @@
       <c r="P1747" t="n">
         <v>0</v>
       </c>
-      <c r="Q1747" t="inlineStr"/>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -86759,7 +86839,9 @@
       <c r="P1748" t="n">
         <v>0</v>
       </c>
-      <c r="Q1748" t="inlineStr"/>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -86810,7 +86892,2151 @@
       <c r="P1749" t="n">
         <v>0</v>
       </c>
-      <c r="Q1749" t="inlineStr"/>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45707.15625</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>531</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>599</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>511</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>580</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45707.19791666666</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>589.9500122070312</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>593</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>560</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>560</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45707.23958333334</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>568</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>570</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>561.0499877929688</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>570</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45707.28125</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>580</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>580</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>574</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>580</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45707.32291666666</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>590</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>598</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>590</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>592.9500122070312</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45707.36458333334</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>585</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>590</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>581.25</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>585</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45707.40625</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>584.4500122070312</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>589</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>581</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>584.7999877929688</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45708.15625</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>585</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>605</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>580</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>591</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45708.19791666666</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>596</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>596</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>581.6500244140625</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>583.0499877929688</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45708.23958333334</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>594.9500122070312</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>603.8499755859375</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>594.9000244140625</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>603.8499755859375</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45708.28125</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>603.8499755859375</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>604.75</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>603</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45708.32291666666</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>603.0499877929688</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>614.5</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>603.0499877929688</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>603.5499877929688</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45708.36458333334</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>605</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>613.9000244140625</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>605</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>613.9000244140625</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45708.40625</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>611</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>625</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>611</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>625</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45709.15625</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>614</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>639</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>612.0499877929688</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>612.0499877929688</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45709.19791666666</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>611</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>611</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>587.25</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>597.9500122070312</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45709.23958333334</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>597.9000244140625</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>608.5</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>597.9000244140625</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>608.5</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45709.28125</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>608.5999755859375</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>608.5999755859375</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>608.5999755859375</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>608.5999755859375</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>250</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45709.32291666666</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>609</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>609</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>600.5999755859375</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>601</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45709.36458333334</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>600</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>612</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>612</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45709.40625</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>601</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>605.4500122070312</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>601</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>605.4500122070312</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>750</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45712.15625</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>586.0499877929688</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>586.0499877929688</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>570.2999877929688</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>581.0499877929688</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45712.19791666666</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>581.0499877929688</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>589.9000244140625</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>578</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>589.9000244140625</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45712.23958333334</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>587</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>615</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>584</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>607</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45712.28125</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>612.75</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>612.75</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>605.2000122070312</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>608</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45712.32291666666</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>614</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>614.9500122070312</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>608</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>608</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45712.36458333334</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>610</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>610</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>610</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>610</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45712.40625</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>610</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>613</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>606.5</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>608.5499877929688</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45713.15625</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>608</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>608</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>596.2999877929688</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>606.4000244140625</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45713.19791666666</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>602.0999755859375</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>602.0999755859375</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>602.0999755859375</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>602.0999755859375</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>250</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="inlineStr"/>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45713.23958333334</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>602.0999755859375</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>602.9000244140625</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>595</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>595</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45713.28125</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>598.9500122070312</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>599.4000244140625</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>597</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>597</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45713.32291666666</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>603</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>605</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>599.5499877929688</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>599.5499877929688</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45713.36458333334</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>603</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>603</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>595</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>601.9500122070312</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45713.40625</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>601</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>602</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>601</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>601.5499877929688</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45715.15625</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>615</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>623.8499755859375</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>600</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45715.19791666666</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>588.5499877929688</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>590</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>581</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>590</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45715.23958333334</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>590</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>590</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>590</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>590</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45715.28125</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>590</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>590</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>590</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>590</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45715.32291666666</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>585</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>585</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>580</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>580</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45715.36458333334</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>581.0499877929688</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>588.9000244140625</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>581.0499877929688</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>586</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45715.40625</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>582</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>583.2999877929688</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>582</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>583.2999877929688</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>250</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
+++ b/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1791"/>
+  <dimension ref="A1:Q1826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85989,7 +85989,7 @@
         <v>2</v>
       </c>
       <c r="P1732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q1732" t="n">
         <v>2</v>
@@ -86945,7 +86945,9 @@
       <c r="P1750" t="n">
         <v>0</v>
       </c>
-      <c r="Q1750" t="inlineStr"/>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -86996,7 +86998,9 @@
       <c r="P1751" t="n">
         <v>0</v>
       </c>
-      <c r="Q1751" t="inlineStr"/>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
@@ -87047,7 +87051,9 @@
       <c r="P1752" t="n">
         <v>0</v>
       </c>
-      <c r="Q1752" t="inlineStr"/>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -87098,7 +87104,9 @@
       <c r="P1753" t="n">
         <v>0</v>
       </c>
-      <c r="Q1753" t="inlineStr"/>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -87149,7 +87157,9 @@
       <c r="P1754" t="n">
         <v>0</v>
       </c>
-      <c r="Q1754" t="inlineStr"/>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -87200,7 +87210,9 @@
       <c r="P1755" t="n">
         <v>0</v>
       </c>
-      <c r="Q1755" t="inlineStr"/>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -87251,7 +87263,9 @@
       <c r="P1756" t="n">
         <v>0</v>
       </c>
-      <c r="Q1756" t="inlineStr"/>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -87302,7 +87316,9 @@
       <c r="P1757" t="n">
         <v>0</v>
       </c>
-      <c r="Q1757" t="inlineStr"/>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -87353,7 +87369,9 @@
       <c r="P1758" t="n">
         <v>0</v>
       </c>
-      <c r="Q1758" t="inlineStr"/>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -87404,7 +87422,9 @@
       <c r="P1759" t="n">
         <v>0</v>
       </c>
-      <c r="Q1759" t="inlineStr"/>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -87455,7 +87475,9 @@
       <c r="P1760" t="n">
         <v>0</v>
       </c>
-      <c r="Q1760" t="inlineStr"/>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -87506,7 +87528,9 @@
       <c r="P1761" t="n">
         <v>1</v>
       </c>
-      <c r="Q1761" t="inlineStr"/>
+      <c r="Q1761" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -87557,7 +87581,9 @@
       <c r="P1762" t="n">
         <v>0</v>
       </c>
-      <c r="Q1762" t="inlineStr"/>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -87608,7 +87634,9 @@
       <c r="P1763" t="n">
         <v>0</v>
       </c>
-      <c r="Q1763" t="inlineStr"/>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -87659,7 +87687,9 @@
       <c r="P1764" t="n">
         <v>0</v>
       </c>
-      <c r="Q1764" t="inlineStr"/>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -87710,7 +87740,9 @@
       <c r="P1765" t="n">
         <v>0</v>
       </c>
-      <c r="Q1765" t="inlineStr"/>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -87761,7 +87793,9 @@
       <c r="P1766" t="n">
         <v>0</v>
       </c>
-      <c r="Q1766" t="inlineStr"/>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -87812,7 +87846,9 @@
       <c r="P1767" t="n">
         <v>0</v>
       </c>
-      <c r="Q1767" t="inlineStr"/>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -87863,7 +87899,9 @@
       <c r="P1768" t="n">
         <v>0</v>
       </c>
-      <c r="Q1768" t="inlineStr"/>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -87914,7 +87952,9 @@
       <c r="P1769" t="n">
         <v>0</v>
       </c>
-      <c r="Q1769" t="inlineStr"/>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -87965,7 +88005,9 @@
       <c r="P1770" t="n">
         <v>0</v>
       </c>
-      <c r="Q1770" t="inlineStr"/>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -88016,7 +88058,9 @@
       <c r="P1771" t="n">
         <v>0</v>
       </c>
-      <c r="Q1771" t="inlineStr"/>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
@@ -88067,7 +88111,9 @@
       <c r="P1772" t="n">
         <v>0</v>
       </c>
-      <c r="Q1772" t="inlineStr"/>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -88118,7 +88164,9 @@
       <c r="P1773" t="n">
         <v>0</v>
       </c>
-      <c r="Q1773" t="inlineStr"/>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -88169,7 +88217,9 @@
       <c r="P1774" t="n">
         <v>0</v>
       </c>
-      <c r="Q1774" t="inlineStr"/>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -88220,7 +88270,9 @@
       <c r="P1775" t="n">
         <v>2</v>
       </c>
-      <c r="Q1775" t="inlineStr"/>
+      <c r="Q1775" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -88271,7 +88323,9 @@
       <c r="P1776" t="n">
         <v>0</v>
       </c>
-      <c r="Q1776" t="inlineStr"/>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -88322,7 +88376,9 @@
       <c r="P1777" t="n">
         <v>0</v>
       </c>
-      <c r="Q1777" t="inlineStr"/>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -88373,7 +88429,9 @@
       <c r="P1778" t="n">
         <v>0</v>
       </c>
-      <c r="Q1778" t="inlineStr"/>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -88424,7 +88482,9 @@
       <c r="P1779" t="n">
         <v>0</v>
       </c>
-      <c r="Q1779" t="inlineStr"/>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
@@ -88475,7 +88535,9 @@
       <c r="P1780" t="n">
         <v>0</v>
       </c>
-      <c r="Q1780" t="inlineStr"/>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -88526,7 +88588,9 @@
       <c r="P1781" t="n">
         <v>0</v>
       </c>
-      <c r="Q1781" t="inlineStr"/>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -88577,7 +88641,9 @@
       <c r="P1782" t="n">
         <v>0</v>
       </c>
-      <c r="Q1782" t="inlineStr"/>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -88628,7 +88694,9 @@
       <c r="P1783" t="n">
         <v>0</v>
       </c>
-      <c r="Q1783" t="inlineStr"/>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -88679,7 +88747,9 @@
       <c r="P1784" t="n">
         <v>0</v>
       </c>
-      <c r="Q1784" t="inlineStr"/>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -88722,7 +88792,7 @@
         <v>9</v>
       </c>
       <c r="N1785" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1785" t="n">
         <v>0</v>
@@ -88730,7 +88800,9 @@
       <c r="P1785" t="n">
         <v>0</v>
       </c>
-      <c r="Q1785" t="inlineStr"/>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -88781,7 +88853,9 @@
       <c r="P1786" t="n">
         <v>0</v>
       </c>
-      <c r="Q1786" t="inlineStr"/>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -88832,7 +88906,9 @@
       <c r="P1787" t="n">
         <v>0</v>
       </c>
-      <c r="Q1787" t="inlineStr"/>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -88883,7 +88959,9 @@
       <c r="P1788" t="n">
         <v>0</v>
       </c>
-      <c r="Q1788" t="inlineStr"/>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -88934,7 +89012,9 @@
       <c r="P1789" t="n">
         <v>0</v>
       </c>
-      <c r="Q1789" t="inlineStr"/>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -88985,7 +89065,9 @@
       <c r="P1790" t="n">
         <v>0</v>
       </c>
-      <c r="Q1790" t="inlineStr"/>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -89036,7 +89118,1794 @@
       <c r="P1791" t="n">
         <v>0</v>
       </c>
-      <c r="Q1791" t="inlineStr"/>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45716.15625</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>572</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>575</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>525.9000244140625</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>532.1500244140625</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45716.19791666666</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>532</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>557</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>532</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>555</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>17250</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45716.23958333334</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>550</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>554.9000244140625</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>530</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>537.9000244140625</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>10750</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45716.28125</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>537</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>537</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>525</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>527</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>18750</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45716.32291666666</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>531</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>534.9500122070312</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>525.1500244140625</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>534.9500122070312</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>10750</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45716.36458333334</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>534.9500122070312</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>561</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>534.9500122070312</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>561</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>10750</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45716.40625</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>575</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>557</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>560.2999877929688</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45719.15625</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>561.0499877929688</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>561.5</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>525</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>529.5499877929688</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45719.19791666666</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>525</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>535.1500244140625</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>524</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>528</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>15250</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45719.23958333334</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>527</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>527</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>515</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>527</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>10500</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45719.28125</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>527</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>541.9500122070312</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>526.1500244140625</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>536</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45719.32291666666</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>540</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>542.0499877929688</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>528.25</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>528.2999877929688</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45719.36458333334</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>532.4500122070312</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>535.2999877929688</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>532.4500122070312</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>532.5</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45719.40625</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>531.0999755859375</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>532.9500122070312</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>528.0499877929688</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>532.2000122070312</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45720.15625</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>503</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>566</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>503</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>565</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45720.19791666666</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>565</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>566</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>554.0499877929688</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>554.0499877929688</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45720.23958333334</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>554</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>554</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>554</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>554</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45720.28125</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>558</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>558</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>546</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>546</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45720.32291666666</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>553.75</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>558.9500122070312</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>536</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>549.9000244140625</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45720.36458333334</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>536.0499877929688</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>549.9500122070312</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>536.0499877929688</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>542</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45720.40625</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>534.25</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>538.25</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>534.25</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>538.25</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45721.15625</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>559.7000122070312</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>560</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>529.8499755859375</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>554.7000122070312</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45721.19791666666</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>554.7000122070312</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>559</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>544.4500122070312</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>551</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>5250</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45721.23958333334</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>551</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>552</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>550</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>552</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45721.28125</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>555</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>555</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>545</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>551.9500122070312</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45721.32291666666</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>551.9000244140625</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>551.9000244140625</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>539.0499877929688</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>539.0499877929688</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45721.36458333334</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>549</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>560</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>549</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>560</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>8750</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45721.40625</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>548.0499877929688</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>557</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>548.0499877929688</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>557</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45722.15625</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>566.9500122070312</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>577.7999877929688</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>550.0499877929688</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>560.9000244140625</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45722.19791666666</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>561</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>575</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>552.4000244140625</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>575</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>5750</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="inlineStr"/>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45722.23958333334</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>570</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>575</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>560</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>569</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>6250</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45722.28125</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>563.4000244140625</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>570.25</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>563.4000244140625</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>570.25</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45722.32291666666</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>570</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>570</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>568</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>568</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45722.36458333334</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>567</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>571.5</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>567</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>571.5</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45722.40625</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>561.7999877929688</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>565.0499877929688</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>561.7999877929688</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>565.0499877929688</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
+++ b/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1826"/>
+  <dimension ref="A1:Q1882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89171,7 +89171,9 @@
       <c r="P1792" t="n">
         <v>0</v>
       </c>
-      <c r="Q1792" t="inlineStr"/>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -89222,7 +89224,9 @@
       <c r="P1793" t="n">
         <v>0</v>
       </c>
-      <c r="Q1793" t="inlineStr"/>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -89273,7 +89277,9 @@
       <c r="P1794" t="n">
         <v>0</v>
       </c>
-      <c r="Q1794" t="inlineStr"/>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -89324,7 +89330,9 @@
       <c r="P1795" t="n">
         <v>0</v>
       </c>
-      <c r="Q1795" t="inlineStr"/>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -89373,9 +89381,11 @@
         <v>0</v>
       </c>
       <c r="P1796" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q1796" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -89426,7 +89436,9 @@
       <c r="P1797" t="n">
         <v>0</v>
       </c>
-      <c r="Q1797" t="inlineStr"/>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
@@ -89477,7 +89489,9 @@
       <c r="P1798" t="n">
         <v>0</v>
       </c>
-      <c r="Q1798" t="inlineStr"/>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -89528,7 +89542,9 @@
       <c r="P1799" t="n">
         <v>0</v>
       </c>
-      <c r="Q1799" t="inlineStr"/>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -89579,7 +89595,9 @@
       <c r="P1800" t="n">
         <v>0</v>
       </c>
-      <c r="Q1800" t="inlineStr"/>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
@@ -89630,7 +89648,9 @@
       <c r="P1801" t="n">
         <v>0</v>
       </c>
-      <c r="Q1801" t="inlineStr"/>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -89681,7 +89701,9 @@
       <c r="P1802" t="n">
         <v>0</v>
       </c>
-      <c r="Q1802" t="inlineStr"/>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -89732,7 +89754,9 @@
       <c r="P1803" t="n">
         <v>0</v>
       </c>
-      <c r="Q1803" t="inlineStr"/>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -89783,7 +89807,9 @@
       <c r="P1804" t="n">
         <v>0</v>
       </c>
-      <c r="Q1804" t="inlineStr"/>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -89834,7 +89860,9 @@
       <c r="P1805" t="n">
         <v>0</v>
       </c>
-      <c r="Q1805" t="inlineStr"/>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -89885,7 +89913,9 @@
       <c r="P1806" t="n">
         <v>0</v>
       </c>
-      <c r="Q1806" t="inlineStr"/>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -89936,7 +89966,9 @@
       <c r="P1807" t="n">
         <v>0</v>
       </c>
-      <c r="Q1807" t="inlineStr"/>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
@@ -89987,7 +90019,9 @@
       <c r="P1808" t="n">
         <v>0</v>
       </c>
-      <c r="Q1808" t="inlineStr"/>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -90038,7 +90072,9 @@
       <c r="P1809" t="n">
         <v>0</v>
       </c>
-      <c r="Q1809" t="inlineStr"/>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -90089,7 +90125,9 @@
       <c r="P1810" t="n">
         <v>0</v>
       </c>
-      <c r="Q1810" t="inlineStr"/>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -90140,7 +90178,9 @@
       <c r="P1811" t="n">
         <v>0</v>
       </c>
-      <c r="Q1811" t="inlineStr"/>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
@@ -90191,7 +90231,9 @@
       <c r="P1812" t="n">
         <v>0</v>
       </c>
-      <c r="Q1812" t="inlineStr"/>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -90242,7 +90284,9 @@
       <c r="P1813" t="n">
         <v>0</v>
       </c>
-      <c r="Q1813" t="inlineStr"/>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -90293,7 +90337,9 @@
       <c r="P1814" t="n">
         <v>0</v>
       </c>
-      <c r="Q1814" t="inlineStr"/>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
@@ -90344,7 +90390,9 @@
       <c r="P1815" t="n">
         <v>0</v>
       </c>
-      <c r="Q1815" t="inlineStr"/>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -90395,7 +90443,9 @@
       <c r="P1816" t="n">
         <v>0</v>
       </c>
-      <c r="Q1816" t="inlineStr"/>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
@@ -90446,7 +90496,9 @@
       <c r="P1817" t="n">
         <v>0</v>
       </c>
-      <c r="Q1817" t="inlineStr"/>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -90497,7 +90549,9 @@
       <c r="P1818" t="n">
         <v>0</v>
       </c>
-      <c r="Q1818" t="inlineStr"/>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -90548,7 +90602,9 @@
       <c r="P1819" t="n">
         <v>0</v>
       </c>
-      <c r="Q1819" t="inlineStr"/>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
@@ -90599,7 +90655,9 @@
       <c r="P1820" t="n">
         <v>0</v>
       </c>
-      <c r="Q1820" t="inlineStr"/>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
@@ -90650,7 +90708,9 @@
       <c r="P1821" t="n">
         <v>0</v>
       </c>
-      <c r="Q1821" t="inlineStr"/>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1822">
       <c r="A1822" s="2" t="n">
@@ -90701,7 +90761,9 @@
       <c r="P1822" t="n">
         <v>0</v>
       </c>
-      <c r="Q1822" t="inlineStr"/>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
@@ -90752,7 +90814,9 @@
       <c r="P1823" t="n">
         <v>0</v>
       </c>
-      <c r="Q1823" t="inlineStr"/>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
@@ -90803,7 +90867,9 @@
       <c r="P1824" t="n">
         <v>0</v>
       </c>
-      <c r="Q1824" t="inlineStr"/>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
@@ -90854,7 +90920,9 @@
       <c r="P1825" t="n">
         <v>0</v>
       </c>
-      <c r="Q1825" t="inlineStr"/>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
@@ -90905,7 +90973,2865 @@
       <c r="P1826" t="n">
         <v>0</v>
       </c>
-      <c r="Q1826" t="inlineStr"/>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45723.15625</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>552</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>619</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>552</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>601.0499877929688</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45723.19791666666</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>603</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>609.5</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>603</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>607.9500122070312</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="inlineStr"/>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45723.23958333334</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>608</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>615</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>606</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>606</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>7750</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45723.28125</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>615</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>607</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="inlineStr"/>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45723.32291666666</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>613</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>613</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>605.5999755859375</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>613</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="inlineStr"/>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45723.36458333334</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>609.0499877929688</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>621.5499877929688</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>609</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>621.5499877929688</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>12750</v>
+      </c>
+      <c r="G1832" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="inlineStr"/>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45723.40625</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>621.5499877929688</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>621.5499877929688</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>621</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>621.5499877929688</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>13500</v>
+      </c>
+      <c r="G1833" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="inlineStr"/>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45726.15625</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>632.9500122070312</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>635</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>609</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>615</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1834" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="inlineStr"/>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45726.19791666666</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>615</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>615</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>615</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>615</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G1835" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="inlineStr"/>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45726.23958333334</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>604</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>606</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>600.0499877929688</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>600.0499877929688</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>6250</v>
+      </c>
+      <c r="G1836" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1836" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1836" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1836" t="inlineStr"/>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45726.28125</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>600</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>602.7999877929688</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>592</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>595</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1837" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1837" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1837" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1837" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1837" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1837" t="inlineStr"/>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45726.32291666666</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>594.6500244140625</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>603.7999877929688</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>594.6500244140625</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>597</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G1838" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1838" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1838" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1838" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1838" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1838" t="inlineStr"/>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45726.36458333334</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>591</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>591</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>575</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>575</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>7750</v>
+      </c>
+      <c r="G1839" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1839" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1839" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1839" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1839" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1839" t="inlineStr"/>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45726.40625</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>576</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>587.9000244140625</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>576</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>580.2000122070312</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G1840" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1840" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1840" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1840" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1840" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1840" t="inlineStr"/>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>45727.15625</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>566</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>566</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>552.25</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>557.9500122070312</v>
+      </c>
+      <c r="F1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1841" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1841" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1841" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1841" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1841" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1841" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1841" t="inlineStr"/>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="2" t="n">
+        <v>45727.19791666666</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>568</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>569.7000122070312</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>555.4000244140625</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>563.0499877929688</v>
+      </c>
+      <c r="F1842" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G1842" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1842" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1842" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1842" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1842" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1842" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1842" t="inlineStr"/>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="2" t="n">
+        <v>45727.23958333334</v>
+      </c>
+      <c r="B1843" t="n">
+        <v>561.4500122070312</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>568</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>561</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>568</v>
+      </c>
+      <c r="F1843" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1843" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1843" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1843" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1843" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1843" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1843" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1843" t="inlineStr"/>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="2" t="n">
+        <v>45727.28125</v>
+      </c>
+      <c r="B1844" t="n">
+        <v>560.6500244140625</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>565</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>555.0999755859375</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>555.0999755859375</v>
+      </c>
+      <c r="F1844" t="n">
+        <v>4250</v>
+      </c>
+      <c r="G1844" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1844" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1844" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1844" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1844" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1844" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1844" t="inlineStr"/>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="2" t="n">
+        <v>45727.32291666666</v>
+      </c>
+      <c r="B1845" t="n">
+        <v>555</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>557.75</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>552</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>557.75</v>
+      </c>
+      <c r="F1845" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G1845" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1845" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1845" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1845" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1845" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1845" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1845" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1845" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1845" t="inlineStr"/>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="2" t="n">
+        <v>45727.36458333334</v>
+      </c>
+      <c r="B1846" t="n">
+        <v>560</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>569.5999755859375</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>560</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>560.75</v>
+      </c>
+      <c r="F1846" t="n">
+        <v>7750</v>
+      </c>
+      <c r="G1846" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1846" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1846" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1846" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1846" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1846" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1846" t="inlineStr"/>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="2" t="n">
+        <v>45727.40625</v>
+      </c>
+      <c r="B1847" t="n">
+        <v>560</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>561.3499755859375</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>560</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>561.3499755859375</v>
+      </c>
+      <c r="F1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1847" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1847" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1847" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1847" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1847" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1847" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1847" t="inlineStr"/>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="2" t="n">
+        <v>45728.15625</v>
+      </c>
+      <c r="B1848" t="n">
+        <v>565</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>568.9500122070312</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>550.25</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>556.0499877929688</v>
+      </c>
+      <c r="F1848" t="n">
+        <v>7250</v>
+      </c>
+      <c r="G1848" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1848" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1848" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1848" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1848" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1848" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1848" t="inlineStr"/>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="2" t="n">
+        <v>45728.19791666666</v>
+      </c>
+      <c r="B1849" t="n">
+        <v>555.5</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>555.5</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>550</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>550</v>
+      </c>
+      <c r="F1849" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G1849" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1849" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1849" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1849" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1849" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1849" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1849" t="inlineStr"/>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="2" t="n">
+        <v>45728.23958333334</v>
+      </c>
+      <c r="B1850" t="n">
+        <v>545.1500244140625</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>545.1500244140625</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>511</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>531</v>
+      </c>
+      <c r="F1850" t="n">
+        <v>17250</v>
+      </c>
+      <c r="G1850" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1850" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1850" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1850" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1850" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1850" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1850" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1850" t="inlineStr"/>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="2" t="n">
+        <v>45728.28125</v>
+      </c>
+      <c r="B1851" t="n">
+        <v>529</v>
+      </c>
+      <c r="C1851" t="n">
+        <v>542.4000244140625</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>529</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>537</v>
+      </c>
+      <c r="F1851" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1851" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1851" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1851" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1851" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1851" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1851" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1851" t="inlineStr"/>
+    </row>
+    <row r="1852">
+      <c r="A1852" s="2" t="n">
+        <v>45728.32291666666</v>
+      </c>
+      <c r="B1852" t="n">
+        <v>540</v>
+      </c>
+      <c r="C1852" t="n">
+        <v>546.9000244140625</v>
+      </c>
+      <c r="D1852" t="n">
+        <v>535.3499755859375</v>
+      </c>
+      <c r="E1852" t="n">
+        <v>537.3499755859375</v>
+      </c>
+      <c r="F1852" t="n">
+        <v>9500</v>
+      </c>
+      <c r="G1852" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1852" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1852" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1852" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1852" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1852" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1852" t="inlineStr"/>
+    </row>
+    <row r="1853">
+      <c r="A1853" s="2" t="n">
+        <v>45728.36458333334</v>
+      </c>
+      <c r="B1853" t="n">
+        <v>535</v>
+      </c>
+      <c r="C1853" t="n">
+        <v>547.25</v>
+      </c>
+      <c r="D1853" t="n">
+        <v>535</v>
+      </c>
+      <c r="E1853" t="n">
+        <v>547.25</v>
+      </c>
+      <c r="F1853" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G1853" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1853" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1853" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1853" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1853" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1853" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1853" t="inlineStr"/>
+    </row>
+    <row r="1854">
+      <c r="A1854" s="2" t="n">
+        <v>45728.40625</v>
+      </c>
+      <c r="B1854" t="n">
+        <v>543.2999877929688</v>
+      </c>
+      <c r="C1854" t="n">
+        <v>543.5499877929688</v>
+      </c>
+      <c r="D1854" t="n">
+        <v>540.0999755859375</v>
+      </c>
+      <c r="E1854" t="n">
+        <v>540.0999755859375</v>
+      </c>
+      <c r="F1854" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1854" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1854" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1854" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1854" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1854" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1854" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1854" t="inlineStr"/>
+    </row>
+    <row r="1855">
+      <c r="A1855" s="2" t="n">
+        <v>45729.15625</v>
+      </c>
+      <c r="B1855" t="n">
+        <v>544.4000244140625</v>
+      </c>
+      <c r="C1855" t="n">
+        <v>551.2000122070312</v>
+      </c>
+      <c r="D1855" t="n">
+        <v>540</v>
+      </c>
+      <c r="E1855" t="n">
+        <v>550</v>
+      </c>
+      <c r="F1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1855" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1855" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1855" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1855" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1855" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1855" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1855" t="inlineStr"/>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="2" t="n">
+        <v>45729.19791666666</v>
+      </c>
+      <c r="B1856" t="n">
+        <v>553</v>
+      </c>
+      <c r="C1856" t="n">
+        <v>554.7000122070312</v>
+      </c>
+      <c r="D1856" t="n">
+        <v>547.7999877929688</v>
+      </c>
+      <c r="E1856" t="n">
+        <v>547.7999877929688</v>
+      </c>
+      <c r="F1856" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1856" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1856" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1856" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1856" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1856" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1856" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1856" t="inlineStr"/>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="2" t="n">
+        <v>45729.23958333334</v>
+      </c>
+      <c r="B1857" t="n">
+        <v>545.0999755859375</v>
+      </c>
+      <c r="C1857" t="n">
+        <v>545.0999755859375</v>
+      </c>
+      <c r="D1857" t="n">
+        <v>540</v>
+      </c>
+      <c r="E1857" t="n">
+        <v>540</v>
+      </c>
+      <c r="F1857" t="n">
+        <v>4250</v>
+      </c>
+      <c r="G1857" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1857" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1857" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1857" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1857" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1857" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1857" t="inlineStr"/>
+    </row>
+    <row r="1858">
+      <c r="A1858" s="2" t="n">
+        <v>45729.28125</v>
+      </c>
+      <c r="B1858" t="n">
+        <v>547</v>
+      </c>
+      <c r="C1858" t="n">
+        <v>547</v>
+      </c>
+      <c r="D1858" t="n">
+        <v>540.2999877929688</v>
+      </c>
+      <c r="E1858" t="n">
+        <v>544</v>
+      </c>
+      <c r="F1858" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1858" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1858" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1858" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1858" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1858" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1858" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1858" t="inlineStr"/>
+    </row>
+    <row r="1859">
+      <c r="A1859" s="2" t="n">
+        <v>45729.32291666666</v>
+      </c>
+      <c r="B1859" t="n">
+        <v>542</v>
+      </c>
+      <c r="C1859" t="n">
+        <v>546</v>
+      </c>
+      <c r="D1859" t="n">
+        <v>541.0999755859375</v>
+      </c>
+      <c r="E1859" t="n">
+        <v>546</v>
+      </c>
+      <c r="F1859" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G1859" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1859" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1859" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1859" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1859" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1859" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1859" t="inlineStr"/>
+    </row>
+    <row r="1860">
+      <c r="A1860" s="2" t="n">
+        <v>45729.36458333334</v>
+      </c>
+      <c r="B1860" t="n">
+        <v>548.5</v>
+      </c>
+      <c r="C1860" t="n">
+        <v>549.5</v>
+      </c>
+      <c r="D1860" t="n">
+        <v>544</v>
+      </c>
+      <c r="E1860" t="n">
+        <v>544</v>
+      </c>
+      <c r="F1860" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1860" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1860" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1860" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1860" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1860" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1860" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1860" t="inlineStr"/>
+    </row>
+    <row r="1861">
+      <c r="A1861" s="2" t="n">
+        <v>45729.40625</v>
+      </c>
+      <c r="B1861" t="n">
+        <v>542</v>
+      </c>
+      <c r="C1861" t="n">
+        <v>544</v>
+      </c>
+      <c r="D1861" t="n">
+        <v>541</v>
+      </c>
+      <c r="E1861" t="n">
+        <v>541.5</v>
+      </c>
+      <c r="F1861" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G1861" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1861" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1861" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1861" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1861" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1861" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1861" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1861" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1861" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1861" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1861" t="inlineStr"/>
+    </row>
+    <row r="1862">
+      <c r="A1862" s="2" t="n">
+        <v>45733.15625</v>
+      </c>
+      <c r="B1862" t="n">
+        <v>568</v>
+      </c>
+      <c r="C1862" t="n">
+        <v>570</v>
+      </c>
+      <c r="D1862" t="n">
+        <v>547.25</v>
+      </c>
+      <c r="E1862" t="n">
+        <v>547.25</v>
+      </c>
+      <c r="F1862" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1862" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1862" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1862" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1862" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1862" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1862" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1862" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1862" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1862" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1862" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1862" t="inlineStr"/>
+    </row>
+    <row r="1863">
+      <c r="A1863" s="2" t="n">
+        <v>45733.19791666666</v>
+      </c>
+      <c r="B1863" t="n">
+        <v>554</v>
+      </c>
+      <c r="C1863" t="n">
+        <v>554</v>
+      </c>
+      <c r="D1863" t="n">
+        <v>547.25</v>
+      </c>
+      <c r="E1863" t="n">
+        <v>551.7999877929688</v>
+      </c>
+      <c r="F1863" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G1863" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1863" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1863" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1863" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1863" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1863" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1863" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1863" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1863" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1863" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1863" t="inlineStr"/>
+    </row>
+    <row r="1864">
+      <c r="A1864" s="2" t="n">
+        <v>45733.23958333334</v>
+      </c>
+      <c r="B1864" t="n">
+        <v>551.7999877929688</v>
+      </c>
+      <c r="C1864" t="n">
+        <v>554</v>
+      </c>
+      <c r="D1864" t="n">
+        <v>547.5499877929688</v>
+      </c>
+      <c r="E1864" t="n">
+        <v>550</v>
+      </c>
+      <c r="F1864" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G1864" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1864" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1864" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1864" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1864" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1864" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1864" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1864" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1864" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1864" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1864" t="inlineStr"/>
+    </row>
+    <row r="1865">
+      <c r="A1865" s="2" t="n">
+        <v>45733.28125</v>
+      </c>
+      <c r="B1865" t="n">
+        <v>554</v>
+      </c>
+      <c r="C1865" t="n">
+        <v>554</v>
+      </c>
+      <c r="D1865" t="n">
+        <v>548</v>
+      </c>
+      <c r="E1865" t="n">
+        <v>550</v>
+      </c>
+      <c r="F1865" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G1865" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1865" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1865" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1865" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1865" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1865" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1865" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1865" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1865" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1865" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1865" t="inlineStr"/>
+    </row>
+    <row r="1866">
+      <c r="A1866" s="2" t="n">
+        <v>45733.32291666666</v>
+      </c>
+      <c r="B1866" t="n">
+        <v>547.5</v>
+      </c>
+      <c r="C1866" t="n">
+        <v>553.9500122070312</v>
+      </c>
+      <c r="D1866" t="n">
+        <v>540</v>
+      </c>
+      <c r="E1866" t="n">
+        <v>545</v>
+      </c>
+      <c r="F1866" t="n">
+        <v>4250</v>
+      </c>
+      <c r="G1866" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1866" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1866" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1866" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1866" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1866" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1866" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1866" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1866" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1866" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1866" t="inlineStr"/>
+    </row>
+    <row r="1867">
+      <c r="A1867" s="2" t="n">
+        <v>45733.36458333334</v>
+      </c>
+      <c r="B1867" t="n">
+        <v>545</v>
+      </c>
+      <c r="C1867" t="n">
+        <v>549</v>
+      </c>
+      <c r="D1867" t="n">
+        <v>530.0999755859375</v>
+      </c>
+      <c r="E1867" t="n">
+        <v>530.0999755859375</v>
+      </c>
+      <c r="F1867" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G1867" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1867" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1867" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1867" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1867" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1867" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1867" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1867" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1867" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1867" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1867" t="inlineStr"/>
+    </row>
+    <row r="1868">
+      <c r="A1868" s="2" t="n">
+        <v>45733.40625</v>
+      </c>
+      <c r="B1868" t="n">
+        <v>532.5</v>
+      </c>
+      <c r="C1868" t="n">
+        <v>532.5</v>
+      </c>
+      <c r="D1868" t="n">
+        <v>532.5</v>
+      </c>
+      <c r="E1868" t="n">
+        <v>532.5</v>
+      </c>
+      <c r="F1868" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1868" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1868" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1868" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1868" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1868" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1868" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1868" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1868" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1868" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1868" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1868" t="inlineStr"/>
+    </row>
+    <row r="1869">
+      <c r="A1869" s="2" t="n">
+        <v>45734.15625</v>
+      </c>
+      <c r="B1869" t="n">
+        <v>545</v>
+      </c>
+      <c r="C1869" t="n">
+        <v>553</v>
+      </c>
+      <c r="D1869" t="n">
+        <v>539</v>
+      </c>
+      <c r="E1869" t="n">
+        <v>549.9000244140625</v>
+      </c>
+      <c r="F1869" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1869" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1869" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1869" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1869" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1869" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1869" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1869" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1869" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1869" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1869" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1869" t="inlineStr"/>
+    </row>
+    <row r="1870">
+      <c r="A1870" s="2" t="n">
+        <v>45734.19791666666</v>
+      </c>
+      <c r="B1870" t="n">
+        <v>545.0999755859375</v>
+      </c>
+      <c r="C1870" t="n">
+        <v>550.9500122070312</v>
+      </c>
+      <c r="D1870" t="n">
+        <v>545.0999755859375</v>
+      </c>
+      <c r="E1870" t="n">
+        <v>550</v>
+      </c>
+      <c r="F1870" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1870" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1870" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1870" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1870" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1870" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1870" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1870" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1870" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1870" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1870" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1870" t="inlineStr"/>
+    </row>
+    <row r="1871">
+      <c r="A1871" s="2" t="n">
+        <v>45734.23958333334</v>
+      </c>
+      <c r="B1871" t="n">
+        <v>550</v>
+      </c>
+      <c r="C1871" t="n">
+        <v>550</v>
+      </c>
+      <c r="D1871" t="n">
+        <v>540.1500244140625</v>
+      </c>
+      <c r="E1871" t="n">
+        <v>549</v>
+      </c>
+      <c r="F1871" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G1871" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1871" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1871" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1871" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1871" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1871" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1871" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1871" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1871" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1871" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1871" t="inlineStr"/>
+    </row>
+    <row r="1872">
+      <c r="A1872" s="2" t="n">
+        <v>45734.28125</v>
+      </c>
+      <c r="B1872" t="n">
+        <v>549</v>
+      </c>
+      <c r="C1872" t="n">
+        <v>550.9500122070312</v>
+      </c>
+      <c r="D1872" t="n">
+        <v>549</v>
+      </c>
+      <c r="E1872" t="n">
+        <v>550.9500122070312</v>
+      </c>
+      <c r="F1872" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G1872" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1872" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1872" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1872" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1872" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1872" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1872" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1872" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1872" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1872" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1872" t="inlineStr"/>
+    </row>
+    <row r="1873">
+      <c r="A1873" s="2" t="n">
+        <v>45734.32291666666</v>
+      </c>
+      <c r="B1873" t="n">
+        <v>542.2000122070312</v>
+      </c>
+      <c r="C1873" t="n">
+        <v>553</v>
+      </c>
+      <c r="D1873" t="n">
+        <v>542.2000122070312</v>
+      </c>
+      <c r="E1873" t="n">
+        <v>551</v>
+      </c>
+      <c r="F1873" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G1873" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1873" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1873" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1873" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1873" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1873" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1873" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1873" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1873" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1873" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1873" t="inlineStr"/>
+    </row>
+    <row r="1874">
+      <c r="A1874" s="2" t="n">
+        <v>45734.36458333334</v>
+      </c>
+      <c r="B1874" t="n">
+        <v>554</v>
+      </c>
+      <c r="C1874" t="n">
+        <v>554</v>
+      </c>
+      <c r="D1874" t="n">
+        <v>550</v>
+      </c>
+      <c r="E1874" t="n">
+        <v>550</v>
+      </c>
+      <c r="F1874" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G1874" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1874" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1874" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1874" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1874" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1874" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1874" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1874" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1874" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1874" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1874" t="inlineStr"/>
+    </row>
+    <row r="1875">
+      <c r="A1875" s="2" t="n">
+        <v>45734.40625</v>
+      </c>
+      <c r="B1875" t="n">
+        <v>545.25</v>
+      </c>
+      <c r="C1875" t="n">
+        <v>546</v>
+      </c>
+      <c r="D1875" t="n">
+        <v>545.25</v>
+      </c>
+      <c r="E1875" t="n">
+        <v>546</v>
+      </c>
+      <c r="F1875" t="n">
+        <v>750</v>
+      </c>
+      <c r="G1875" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1875" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1875" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1875" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1875" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1875" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1875" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1875" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1875" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1875" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1875" t="inlineStr"/>
+    </row>
+    <row r="1876">
+      <c r="A1876" s="2" t="n">
+        <v>45735.15625</v>
+      </c>
+      <c r="B1876" t="n">
+        <v>556</v>
+      </c>
+      <c r="C1876" t="n">
+        <v>569</v>
+      </c>
+      <c r="D1876" t="n">
+        <v>550</v>
+      </c>
+      <c r="E1876" t="n">
+        <v>567</v>
+      </c>
+      <c r="F1876" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1876" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1876" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1876" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1876" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1876" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1876" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1876" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1876" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1876" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1876" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1876" t="inlineStr"/>
+    </row>
+    <row r="1877">
+      <c r="A1877" s="2" t="n">
+        <v>45735.19791666666</v>
+      </c>
+      <c r="B1877" t="n">
+        <v>569</v>
+      </c>
+      <c r="C1877" t="n">
+        <v>585.5</v>
+      </c>
+      <c r="D1877" t="n">
+        <v>569</v>
+      </c>
+      <c r="E1877" t="n">
+        <v>580</v>
+      </c>
+      <c r="F1877" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G1877" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1877" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1877" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1877" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1877" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1877" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1877" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1877" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1877" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1877" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1877" t="inlineStr"/>
+    </row>
+    <row r="1878">
+      <c r="A1878" s="2" t="n">
+        <v>45735.23958333334</v>
+      </c>
+      <c r="B1878" t="n">
+        <v>576.5499877929688</v>
+      </c>
+      <c r="C1878" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="D1878" t="n">
+        <v>576.5499877929688</v>
+      </c>
+      <c r="E1878" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="F1878" t="n">
+        <v>26000</v>
+      </c>
+      <c r="G1878" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1878" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1878" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1878" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1878" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1878" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1878" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1878" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1878" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1878" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1878" t="inlineStr"/>
+    </row>
+    <row r="1879">
+      <c r="A1879" s="2" t="n">
+        <v>45735.28125</v>
+      </c>
+      <c r="B1879" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="C1879" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="D1879" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="E1879" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="F1879" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1879" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1879" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1879" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1879" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1879" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1879" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1879" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1879" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1879" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1879" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1879" t="inlineStr"/>
+    </row>
+    <row r="1880">
+      <c r="A1880" s="2" t="n">
+        <v>45735.32291666666</v>
+      </c>
+      <c r="B1880" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="C1880" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="D1880" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="E1880" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="F1880" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1880" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1880" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1880" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1880" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1880" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1880" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1880" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1880" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1880" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1880" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1880" t="inlineStr"/>
+    </row>
+    <row r="1881">
+      <c r="A1881" s="2" t="n">
+        <v>45735.36458333334</v>
+      </c>
+      <c r="B1881" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="C1881" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="D1881" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="E1881" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="F1881" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G1881" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1881" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1881" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1881" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1881" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1881" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1881" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1881" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1881" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1881" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1881" t="inlineStr"/>
+    </row>
+    <row r="1882">
+      <c r="A1882" s="2" t="n">
+        <v>45735.40625</v>
+      </c>
+      <c r="B1882" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="C1882" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="D1882" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="E1882" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="F1882" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1882" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1882" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1882" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1882" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1882" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1882" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1882" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1882" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1882" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1882" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1882" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
+++ b/stock_historical_data/60m/KRISHNADEF-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1882"/>
+  <dimension ref="A1:Q1987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91026,7 +91026,9 @@
       <c r="P1827" t="n">
         <v>0</v>
       </c>
-      <c r="Q1827" t="inlineStr"/>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1828">
       <c r="A1828" s="2" t="n">
@@ -91077,7 +91079,9 @@
       <c r="P1828" t="n">
         <v>0</v>
       </c>
-      <c r="Q1828" t="inlineStr"/>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1829">
       <c r="A1829" s="2" t="n">
@@ -91128,7 +91132,9 @@
       <c r="P1829" t="n">
         <v>0</v>
       </c>
-      <c r="Q1829" t="inlineStr"/>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1830">
       <c r="A1830" s="2" t="n">
@@ -91179,7 +91185,9 @@
       <c r="P1830" t="n">
         <v>0</v>
       </c>
-      <c r="Q1830" t="inlineStr"/>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1831">
       <c r="A1831" s="2" t="n">
@@ -91230,7 +91238,9 @@
       <c r="P1831" t="n">
         <v>0</v>
       </c>
-      <c r="Q1831" t="inlineStr"/>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1832">
       <c r="A1832" s="2" t="n">
@@ -91281,7 +91291,9 @@
       <c r="P1832" t="n">
         <v>0</v>
       </c>
-      <c r="Q1832" t="inlineStr"/>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1833">
       <c r="A1833" s="2" t="n">
@@ -91332,7 +91344,9 @@
       <c r="P1833" t="n">
         <v>0</v>
       </c>
-      <c r="Q1833" t="inlineStr"/>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1834">
       <c r="A1834" s="2" t="n">
@@ -91383,7 +91397,9 @@
       <c r="P1834" t="n">
         <v>0</v>
       </c>
-      <c r="Q1834" t="inlineStr"/>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1835">
       <c r="A1835" s="2" t="n">
@@ -91434,7 +91450,9 @@
       <c r="P1835" t="n">
         <v>0</v>
       </c>
-      <c r="Q1835" t="inlineStr"/>
+      <c r="Q1835" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1836">
       <c r="A1836" s="2" t="n">
@@ -91485,7 +91503,9 @@
       <c r="P1836" t="n">
         <v>0</v>
       </c>
-      <c r="Q1836" t="inlineStr"/>
+      <c r="Q1836" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1837">
       <c r="A1837" s="2" t="n">
@@ -91536,7 +91556,9 @@
       <c r="P1837" t="n">
         <v>0</v>
       </c>
-      <c r="Q1837" t="inlineStr"/>
+      <c r="Q1837" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1838">
       <c r="A1838" s="2" t="n">
@@ -91587,7 +91609,9 @@
       <c r="P1838" t="n">
         <v>0</v>
       </c>
-      <c r="Q1838" t="inlineStr"/>
+      <c r="Q1838" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1839">
       <c r="A1839" s="2" t="n">
@@ -91638,7 +91662,9 @@
       <c r="P1839" t="n">
         <v>0</v>
       </c>
-      <c r="Q1839" t="inlineStr"/>
+      <c r="Q1839" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1840">
       <c r="A1840" s="2" t="n">
@@ -91689,7 +91715,9 @@
       <c r="P1840" t="n">
         <v>0</v>
       </c>
-      <c r="Q1840" t="inlineStr"/>
+      <c r="Q1840" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1841">
       <c r="A1841" s="2" t="n">
@@ -91740,7 +91768,9 @@
       <c r="P1841" t="n">
         <v>0</v>
       </c>
-      <c r="Q1841" t="inlineStr"/>
+      <c r="Q1841" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1842">
       <c r="A1842" s="2" t="n">
@@ -91791,7 +91821,9 @@
       <c r="P1842" t="n">
         <v>0</v>
       </c>
-      <c r="Q1842" t="inlineStr"/>
+      <c r="Q1842" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1843">
       <c r="A1843" s="2" t="n">
@@ -91842,7 +91874,9 @@
       <c r="P1843" t="n">
         <v>0</v>
       </c>
-      <c r="Q1843" t="inlineStr"/>
+      <c r="Q1843" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1844">
       <c r="A1844" s="2" t="n">
@@ -91893,7 +91927,9 @@
       <c r="P1844" t="n">
         <v>0</v>
       </c>
-      <c r="Q1844" t="inlineStr"/>
+      <c r="Q1844" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1845">
       <c r="A1845" s="2" t="n">
@@ -91944,7 +91980,9 @@
       <c r="P1845" t="n">
         <v>2</v>
       </c>
-      <c r="Q1845" t="inlineStr"/>
+      <c r="Q1845" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1846">
       <c r="A1846" s="2" t="n">
@@ -91995,7 +92033,9 @@
       <c r="P1846" t="n">
         <v>0</v>
       </c>
-      <c r="Q1846" t="inlineStr"/>
+      <c r="Q1846" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1847">
       <c r="A1847" s="2" t="n">
@@ -92046,7 +92086,9 @@
       <c r="P1847" t="n">
         <v>0</v>
       </c>
-      <c r="Q1847" t="inlineStr"/>
+      <c r="Q1847" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1848">
       <c r="A1848" s="2" t="n">
@@ -92097,7 +92139,9 @@
       <c r="P1848" t="n">
         <v>0</v>
       </c>
-      <c r="Q1848" t="inlineStr"/>
+      <c r="Q1848" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1849">
       <c r="A1849" s="2" t="n">
@@ -92148,7 +92192,9 @@
       <c r="P1849" t="n">
         <v>0</v>
       </c>
-      <c r="Q1849" t="inlineStr"/>
+      <c r="Q1849" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1850">
       <c r="A1850" s="2" t="n">
@@ -92199,7 +92245,9 @@
       <c r="P1850" t="n">
         <v>0</v>
       </c>
-      <c r="Q1850" t="inlineStr"/>
+      <c r="Q1850" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1851">
       <c r="A1851" s="2" t="n">
@@ -92250,7 +92298,9 @@
       <c r="P1851" t="n">
         <v>0</v>
       </c>
-      <c r="Q1851" t="inlineStr"/>
+      <c r="Q1851" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1852">
       <c r="A1852" s="2" t="n">
@@ -92301,7 +92351,9 @@
       <c r="P1852" t="n">
         <v>0</v>
       </c>
-      <c r="Q1852" t="inlineStr"/>
+      <c r="Q1852" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1853">
       <c r="A1853" s="2" t="n">
@@ -92352,7 +92404,9 @@
       <c r="P1853" t="n">
         <v>0</v>
       </c>
-      <c r="Q1853" t="inlineStr"/>
+      <c r="Q1853" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1854">
       <c r="A1854" s="2" t="n">
@@ -92403,7 +92457,9 @@
       <c r="P1854" t="n">
         <v>0</v>
       </c>
-      <c r="Q1854" t="inlineStr"/>
+      <c r="Q1854" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1855">
       <c r="A1855" s="2" t="n">
@@ -92454,7 +92510,9 @@
       <c r="P1855" t="n">
         <v>0</v>
       </c>
-      <c r="Q1855" t="inlineStr"/>
+      <c r="Q1855" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1856">
       <c r="A1856" s="2" t="n">
@@ -92505,7 +92563,9 @@
       <c r="P1856" t="n">
         <v>0</v>
       </c>
-      <c r="Q1856" t="inlineStr"/>
+      <c r="Q1856" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1857">
       <c r="A1857" s="2" t="n">
@@ -92556,7 +92616,9 @@
       <c r="P1857" t="n">
         <v>0</v>
       </c>
-      <c r="Q1857" t="inlineStr"/>
+      <c r="Q1857" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1858">
       <c r="A1858" s="2" t="n">
@@ -92607,7 +92669,9 @@
       <c r="P1858" t="n">
         <v>0</v>
       </c>
-      <c r="Q1858" t="inlineStr"/>
+      <c r="Q1858" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1859">
       <c r="A1859" s="2" t="n">
@@ -92658,7 +92722,9 @@
       <c r="P1859" t="n">
         <v>0</v>
       </c>
-      <c r="Q1859" t="inlineStr"/>
+      <c r="Q1859" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1860">
       <c r="A1860" s="2" t="n">
@@ -92709,7 +92775,9 @@
       <c r="P1860" t="n">
         <v>0</v>
       </c>
-      <c r="Q1860" t="inlineStr"/>
+      <c r="Q1860" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1861">
       <c r="A1861" s="2" t="n">
@@ -92760,7 +92828,9 @@
       <c r="P1861" t="n">
         <v>0</v>
       </c>
-      <c r="Q1861" t="inlineStr"/>
+      <c r="Q1861" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1862">
       <c r="A1862" s="2" t="n">
@@ -92811,7 +92881,9 @@
       <c r="P1862" t="n">
         <v>0</v>
       </c>
-      <c r="Q1862" t="inlineStr"/>
+      <c r="Q1862" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1863">
       <c r="A1863" s="2" t="n">
@@ -92862,7 +92934,9 @@
       <c r="P1863" t="n">
         <v>0</v>
       </c>
-      <c r="Q1863" t="inlineStr"/>
+      <c r="Q1863" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1864">
       <c r="A1864" s="2" t="n">
@@ -92913,7 +92987,9 @@
       <c r="P1864" t="n">
         <v>0</v>
       </c>
-      <c r="Q1864" t="inlineStr"/>
+      <c r="Q1864" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1865">
       <c r="A1865" s="2" t="n">
@@ -92964,7 +93040,9 @@
       <c r="P1865" t="n">
         <v>0</v>
       </c>
-      <c r="Q1865" t="inlineStr"/>
+      <c r="Q1865" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1866">
       <c r="A1866" s="2" t="n">
@@ -93015,7 +93093,9 @@
       <c r="P1866" t="n">
         <v>0</v>
       </c>
-      <c r="Q1866" t="inlineStr"/>
+      <c r="Q1866" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1867">
       <c r="A1867" s="2" t="n">
@@ -93066,7 +93146,9 @@
       <c r="P1867" t="n">
         <v>0</v>
       </c>
-      <c r="Q1867" t="inlineStr"/>
+      <c r="Q1867" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1868">
       <c r="A1868" s="2" t="n">
@@ -93117,7 +93199,9 @@
       <c r="P1868" t="n">
         <v>0</v>
       </c>
-      <c r="Q1868" t="inlineStr"/>
+      <c r="Q1868" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1869">
       <c r="A1869" s="2" t="n">
@@ -93168,7 +93252,9 @@
       <c r="P1869" t="n">
         <v>0</v>
       </c>
-      <c r="Q1869" t="inlineStr"/>
+      <c r="Q1869" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1870">
       <c r="A1870" s="2" t="n">
@@ -93219,7 +93305,9 @@
       <c r="P1870" t="n">
         <v>0</v>
       </c>
-      <c r="Q1870" t="inlineStr"/>
+      <c r="Q1870" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1871">
       <c r="A1871" s="2" t="n">
@@ -93270,7 +93358,9 @@
       <c r="P1871" t="n">
         <v>0</v>
       </c>
-      <c r="Q1871" t="inlineStr"/>
+      <c r="Q1871" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1872">
       <c r="A1872" s="2" t="n">
@@ -93321,7 +93411,9 @@
       <c r="P1872" t="n">
         <v>0</v>
       </c>
-      <c r="Q1872" t="inlineStr"/>
+      <c r="Q1872" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1873">
       <c r="A1873" s="2" t="n">
@@ -93372,7 +93464,9 @@
       <c r="P1873" t="n">
         <v>0</v>
       </c>
-      <c r="Q1873" t="inlineStr"/>
+      <c r="Q1873" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1874">
       <c r="A1874" s="2" t="n">
@@ -93423,7 +93517,9 @@
       <c r="P1874" t="n">
         <v>0</v>
       </c>
-      <c r="Q1874" t="inlineStr"/>
+      <c r="Q1874" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1875">
       <c r="A1875" s="2" t="n">
@@ -93474,7 +93570,9 @@
       <c r="P1875" t="n">
         <v>0</v>
       </c>
-      <c r="Q1875" t="inlineStr"/>
+      <c r="Q1875" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1876">
       <c r="A1876" s="2" t="n">
@@ -93525,7 +93623,9 @@
       <c r="P1876" t="n">
         <v>0</v>
       </c>
-      <c r="Q1876" t="inlineStr"/>
+      <c r="Q1876" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1877">
       <c r="A1877" s="2" t="n">
@@ -93576,7 +93676,9 @@
       <c r="P1877" t="n">
         <v>0</v>
       </c>
-      <c r="Q1877" t="inlineStr"/>
+      <c r="Q1877" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1878">
       <c r="A1878" s="2" t="n">
@@ -93627,7 +93729,9 @@
       <c r="P1878" t="n">
         <v>0</v>
       </c>
-      <c r="Q1878" t="inlineStr"/>
+      <c r="Q1878" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1879">
       <c r="A1879" s="2" t="n">
@@ -93678,7 +93782,9 @@
       <c r="P1879" t="n">
         <v>0</v>
       </c>
-      <c r="Q1879" t="inlineStr"/>
+      <c r="Q1879" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1880">
       <c r="A1880" s="2" t="n">
@@ -93729,7 +93835,9 @@
       <c r="P1880" t="n">
         <v>0</v>
       </c>
-      <c r="Q1880" t="inlineStr"/>
+      <c r="Q1880" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1881">
       <c r="A1881" s="2" t="n">
@@ -93780,7 +93888,9 @@
       <c r="P1881" t="n">
         <v>0</v>
       </c>
-      <c r="Q1881" t="inlineStr"/>
+      <c r="Q1881" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1882">
       <c r="A1882" s="2" t="n">
@@ -93831,7 +93941,5136 @@
       <c r="P1882" t="n">
         <v>0</v>
       </c>
-      <c r="Q1882" t="inlineStr"/>
+      <c r="Q1882" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" s="2" t="n">
+        <v>45736.15625</v>
+      </c>
+      <c r="B1883" t="n">
+        <v>642</v>
+      </c>
+      <c r="C1883" t="n">
+        <v>650</v>
+      </c>
+      <c r="D1883" t="n">
+        <v>616.0499877929688</v>
+      </c>
+      <c r="E1883" t="n">
+        <v>625</v>
+      </c>
+      <c r="F1883" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1883" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1883" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1883" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1883" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1883" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1883" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1883" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1883" t="inlineStr"/>
+      <c r="O1883" t="inlineStr"/>
+      <c r="P1883" t="inlineStr"/>
+      <c r="Q1883" t="inlineStr"/>
+    </row>
+    <row r="1884">
+      <c r="A1884" s="2" t="n">
+        <v>45736.19791666666</v>
+      </c>
+      <c r="B1884" t="n">
+        <v>628.4000244140625</v>
+      </c>
+      <c r="C1884" t="n">
+        <v>634</v>
+      </c>
+      <c r="D1884" t="n">
+        <v>616.5499877929688</v>
+      </c>
+      <c r="E1884" t="n">
+        <v>630</v>
+      </c>
+      <c r="F1884" t="n">
+        <v>9500</v>
+      </c>
+      <c r="G1884" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1884" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1884" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1884" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1884" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1884" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1884" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1884" t="inlineStr"/>
+      <c r="O1884" t="inlineStr"/>
+      <c r="P1884" t="inlineStr"/>
+      <c r="Q1884" t="inlineStr"/>
+    </row>
+    <row r="1885">
+      <c r="A1885" s="2" t="n">
+        <v>45736.23958333334</v>
+      </c>
+      <c r="B1885" t="n">
+        <v>628.0499877929688</v>
+      </c>
+      <c r="C1885" t="n">
+        <v>633</v>
+      </c>
+      <c r="D1885" t="n">
+        <v>626.0499877929688</v>
+      </c>
+      <c r="E1885" t="n">
+        <v>633</v>
+      </c>
+      <c r="F1885" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1885" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1885" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1885" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1885" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1885" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1885" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1885" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1885" t="inlineStr"/>
+      <c r="O1885" t="inlineStr"/>
+      <c r="P1885" t="inlineStr"/>
+      <c r="Q1885" t="inlineStr"/>
+    </row>
+    <row r="1886">
+      <c r="A1886" s="2" t="n">
+        <v>45736.28125</v>
+      </c>
+      <c r="B1886" t="n">
+        <v>630</v>
+      </c>
+      <c r="C1886" t="n">
+        <v>632.2000122070312</v>
+      </c>
+      <c r="D1886" t="n">
+        <v>625.0999755859375</v>
+      </c>
+      <c r="E1886" t="n">
+        <v>625.0999755859375</v>
+      </c>
+      <c r="F1886" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G1886" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1886" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1886" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1886" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1886" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1886" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1886" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1886" t="inlineStr"/>
+      <c r="O1886" t="inlineStr"/>
+      <c r="P1886" t="inlineStr"/>
+      <c r="Q1886" t="inlineStr"/>
+    </row>
+    <row r="1887">
+      <c r="A1887" s="2" t="n">
+        <v>45736.32291666666</v>
+      </c>
+      <c r="B1887" t="n">
+        <v>625.0499877929688</v>
+      </c>
+      <c r="C1887" t="n">
+        <v>629.9000244140625</v>
+      </c>
+      <c r="D1887" t="n">
+        <v>625.0499877929688</v>
+      </c>
+      <c r="E1887" t="n">
+        <v>629.9000244140625</v>
+      </c>
+      <c r="F1887" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G1887" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1887" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1887" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1887" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1887" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1887" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1887" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1887" t="inlineStr"/>
+      <c r="O1887" t="inlineStr"/>
+      <c r="P1887" t="inlineStr"/>
+      <c r="Q1887" t="inlineStr"/>
+    </row>
+    <row r="1888">
+      <c r="A1888" s="2" t="n">
+        <v>45736.36458333334</v>
+      </c>
+      <c r="B1888" t="n">
+        <v>630</v>
+      </c>
+      <c r="C1888" t="n">
+        <v>633.5999755859375</v>
+      </c>
+      <c r="D1888" t="n">
+        <v>628</v>
+      </c>
+      <c r="E1888" t="n">
+        <v>632</v>
+      </c>
+      <c r="F1888" t="n">
+        <v>4250</v>
+      </c>
+      <c r="G1888" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1888" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1888" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1888" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1888" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1888" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1888" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1888" t="inlineStr"/>
+      <c r="O1888" t="inlineStr"/>
+      <c r="P1888" t="inlineStr"/>
+      <c r="Q1888" t="inlineStr"/>
+    </row>
+    <row r="1889">
+      <c r="A1889" s="2" t="n">
+        <v>45736.40625</v>
+      </c>
+      <c r="B1889" t="n">
+        <v>632</v>
+      </c>
+      <c r="C1889" t="n">
+        <v>632</v>
+      </c>
+      <c r="D1889" t="n">
+        <v>628</v>
+      </c>
+      <c r="E1889" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="F1889" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G1889" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1889" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1889" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1889" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1889" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1889" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1889" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1889" t="inlineStr"/>
+      <c r="O1889" t="inlineStr"/>
+      <c r="P1889" t="inlineStr"/>
+      <c r="Q1889" t="inlineStr"/>
+    </row>
+    <row r="1890">
+      <c r="A1890" s="2" t="n">
+        <v>45737.15625</v>
+      </c>
+      <c r="B1890" t="n">
+        <v>648</v>
+      </c>
+      <c r="C1890" t="n">
+        <v>692</v>
+      </c>
+      <c r="D1890" t="n">
+        <v>638.1500244140625</v>
+      </c>
+      <c r="E1890" t="n">
+        <v>685</v>
+      </c>
+      <c r="F1890" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1890" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1890" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1890" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1890" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1890" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1890" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1890" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1890" t="inlineStr"/>
+      <c r="O1890" t="inlineStr"/>
+      <c r="P1890" t="inlineStr"/>
+      <c r="Q1890" t="inlineStr"/>
+    </row>
+    <row r="1891">
+      <c r="A1891" s="2" t="n">
+        <v>45737.19791666666</v>
+      </c>
+      <c r="B1891" t="n">
+        <v>687</v>
+      </c>
+      <c r="C1891" t="n">
+        <v>691.7999877929688</v>
+      </c>
+      <c r="D1891" t="n">
+        <v>685</v>
+      </c>
+      <c r="E1891" t="n">
+        <v>688.7000122070312</v>
+      </c>
+      <c r="F1891" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G1891" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1891" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1891" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1891" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1891" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1891" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1891" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1891" t="inlineStr"/>
+      <c r="O1891" t="inlineStr"/>
+      <c r="P1891" t="inlineStr"/>
+      <c r="Q1891" t="inlineStr"/>
+    </row>
+    <row r="1892">
+      <c r="A1892" s="2" t="n">
+        <v>45737.23958333334</v>
+      </c>
+      <c r="B1892" t="n">
+        <v>689</v>
+      </c>
+      <c r="C1892" t="n">
+        <v>691.7999877929688</v>
+      </c>
+      <c r="D1892" t="n">
+        <v>683</v>
+      </c>
+      <c r="E1892" t="n">
+        <v>683</v>
+      </c>
+      <c r="F1892" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G1892" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1892" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1892" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1892" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1892" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1892" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1892" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1892" t="inlineStr"/>
+      <c r="O1892" t="inlineStr"/>
+      <c r="P1892" t="inlineStr"/>
+      <c r="Q1892" t="inlineStr"/>
+    </row>
+    <row r="1893">
+      <c r="A1893" s="2" t="n">
+        <v>45737.28125</v>
+      </c>
+      <c r="B1893" t="n">
+        <v>680.2000122070312</v>
+      </c>
+      <c r="C1893" t="n">
+        <v>685</v>
+      </c>
+      <c r="D1893" t="n">
+        <v>680</v>
+      </c>
+      <c r="E1893" t="n">
+        <v>680</v>
+      </c>
+      <c r="F1893" t="n">
+        <v>6750</v>
+      </c>
+      <c r="G1893" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1893" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1893" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1893" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1893" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1893" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1893" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1893" t="inlineStr"/>
+      <c r="O1893" t="inlineStr"/>
+      <c r="P1893" t="inlineStr"/>
+      <c r="Q1893" t="inlineStr"/>
+    </row>
+    <row r="1894">
+      <c r="A1894" s="2" t="n">
+        <v>45737.32291666666</v>
+      </c>
+      <c r="B1894" t="n">
+        <v>684.7999877929688</v>
+      </c>
+      <c r="C1894" t="n">
+        <v>684.7999877929688</v>
+      </c>
+      <c r="D1894" t="n">
+        <v>662</v>
+      </c>
+      <c r="E1894" t="n">
+        <v>670</v>
+      </c>
+      <c r="F1894" t="n">
+        <v>6750</v>
+      </c>
+      <c r="G1894" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1894" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1894" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1894" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1894" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1894" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1894" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1894" t="inlineStr"/>
+      <c r="O1894" t="inlineStr"/>
+      <c r="P1894" t="inlineStr"/>
+      <c r="Q1894" t="inlineStr"/>
+    </row>
+    <row r="1895">
+      <c r="A1895" s="2" t="n">
+        <v>45737.36458333334</v>
+      </c>
+      <c r="B1895" t="n">
+        <v>680</v>
+      </c>
+      <c r="C1895" t="n">
+        <v>692.75</v>
+      </c>
+      <c r="D1895" t="n">
+        <v>675.9000244140625</v>
+      </c>
+      <c r="E1895" t="n">
+        <v>692.75</v>
+      </c>
+      <c r="F1895" t="n">
+        <v>23500</v>
+      </c>
+      <c r="G1895" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1895" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1895" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1895" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1895" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1895" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1895" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1895" t="inlineStr"/>
+      <c r="O1895" t="inlineStr"/>
+      <c r="P1895" t="inlineStr"/>
+      <c r="Q1895" t="inlineStr"/>
+    </row>
+    <row r="1896">
+      <c r="A1896" s="2" t="n">
+        <v>45737.40625</v>
+      </c>
+      <c r="B1896" t="n">
+        <v>692.75</v>
+      </c>
+      <c r="C1896" t="n">
+        <v>692.75</v>
+      </c>
+      <c r="D1896" t="n">
+        <v>692.75</v>
+      </c>
+      <c r="E1896" t="n">
+        <v>692.75</v>
+      </c>
+      <c r="F1896" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1896" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1896" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1896" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1896" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1896" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1896" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1896" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1896" t="inlineStr"/>
+      <c r="O1896" t="inlineStr"/>
+      <c r="P1896" t="inlineStr"/>
+      <c r="Q1896" t="inlineStr"/>
+    </row>
+    <row r="1897">
+      <c r="A1897" s="2" t="n">
+        <v>45740.15625</v>
+      </c>
+      <c r="B1897" t="n">
+        <v>717.5</v>
+      </c>
+      <c r="C1897" t="n">
+        <v>722</v>
+      </c>
+      <c r="D1897" t="n">
+        <v>675</v>
+      </c>
+      <c r="E1897" t="n">
+        <v>694.1500244140625</v>
+      </c>
+      <c r="F1897" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1897" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1897" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1897" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1897" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1897" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1897" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1897" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1897" t="inlineStr"/>
+      <c r="O1897" t="inlineStr"/>
+      <c r="P1897" t="inlineStr"/>
+      <c r="Q1897" t="inlineStr"/>
+    </row>
+    <row r="1898">
+      <c r="A1898" s="2" t="n">
+        <v>45740.19791666666</v>
+      </c>
+      <c r="B1898" t="n">
+        <v>699.4000244140625</v>
+      </c>
+      <c r="C1898" t="n">
+        <v>701.9500122070312</v>
+      </c>
+      <c r="D1898" t="n">
+        <v>683</v>
+      </c>
+      <c r="E1898" t="n">
+        <v>701.9500122070312</v>
+      </c>
+      <c r="F1898" t="n">
+        <v>8250</v>
+      </c>
+      <c r="G1898" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1898" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1898" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1898" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1898" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1898" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1898" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1898" t="inlineStr"/>
+      <c r="O1898" t="inlineStr"/>
+      <c r="P1898" t="inlineStr"/>
+      <c r="Q1898" t="inlineStr"/>
+    </row>
+    <row r="1899">
+      <c r="A1899" s="2" t="n">
+        <v>45740.23958333334</v>
+      </c>
+      <c r="B1899" t="n">
+        <v>701.9500122070312</v>
+      </c>
+      <c r="C1899" t="n">
+        <v>701.9500122070312</v>
+      </c>
+      <c r="D1899" t="n">
+        <v>685.5</v>
+      </c>
+      <c r="E1899" t="n">
+        <v>688</v>
+      </c>
+      <c r="F1899" t="n">
+        <v>5750</v>
+      </c>
+      <c r="G1899" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1899" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1899" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1899" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1899" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1899" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1899" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1899" t="inlineStr"/>
+      <c r="O1899" t="inlineStr"/>
+      <c r="P1899" t="inlineStr"/>
+      <c r="Q1899" t="inlineStr"/>
+    </row>
+    <row r="1900">
+      <c r="A1900" s="2" t="n">
+        <v>45740.28125</v>
+      </c>
+      <c r="B1900" t="n">
+        <v>680</v>
+      </c>
+      <c r="C1900" t="n">
+        <v>680</v>
+      </c>
+      <c r="D1900" t="n">
+        <v>670</v>
+      </c>
+      <c r="E1900" t="n">
+        <v>676</v>
+      </c>
+      <c r="F1900" t="n">
+        <v>8750</v>
+      </c>
+      <c r="G1900" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1900" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1900" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1900" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1900" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1900" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1900" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1900" t="inlineStr"/>
+      <c r="O1900" t="inlineStr"/>
+      <c r="P1900" t="inlineStr"/>
+      <c r="Q1900" t="inlineStr"/>
+    </row>
+    <row r="1901">
+      <c r="A1901" s="2" t="n">
+        <v>45740.32291666666</v>
+      </c>
+      <c r="B1901" t="n">
+        <v>672.2999877929688</v>
+      </c>
+      <c r="C1901" t="n">
+        <v>672.9000244140625</v>
+      </c>
+      <c r="D1901" t="n">
+        <v>666</v>
+      </c>
+      <c r="E1901" t="n">
+        <v>672.9000244140625</v>
+      </c>
+      <c r="F1901" t="n">
+        <v>9500</v>
+      </c>
+      <c r="G1901" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1901" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1901" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1901" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1901" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1901" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1901" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1901" t="inlineStr"/>
+      <c r="O1901" t="inlineStr"/>
+      <c r="P1901" t="inlineStr"/>
+      <c r="Q1901" t="inlineStr"/>
+    </row>
+    <row r="1902">
+      <c r="A1902" s="2" t="n">
+        <v>45740.36458333334</v>
+      </c>
+      <c r="B1902" t="n">
+        <v>668.2999877929688</v>
+      </c>
+      <c r="C1902" t="n">
+        <v>679</v>
+      </c>
+      <c r="D1902" t="n">
+        <v>668.2999877929688</v>
+      </c>
+      <c r="E1902" t="n">
+        <v>672.0499877929688</v>
+      </c>
+      <c r="F1902" t="n">
+        <v>7750</v>
+      </c>
+      <c r="G1902" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1902" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1902" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1902" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1902" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1902" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1902" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1902" t="inlineStr"/>
+      <c r="O1902" t="inlineStr"/>
+      <c r="P1902" t="inlineStr"/>
+      <c r="Q1902" t="inlineStr"/>
+    </row>
+    <row r="1903">
+      <c r="A1903" s="2" t="n">
+        <v>45740.40625</v>
+      </c>
+      <c r="B1903" t="n">
+        <v>671.2999877929688</v>
+      </c>
+      <c r="C1903" t="n">
+        <v>672</v>
+      </c>
+      <c r="D1903" t="n">
+        <v>667.7000122070312</v>
+      </c>
+      <c r="E1903" t="n">
+        <v>667.7000122070312</v>
+      </c>
+      <c r="F1903" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1903" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1903" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1903" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1903" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1903" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1903" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1903" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1903" t="inlineStr"/>
+      <c r="O1903" t="inlineStr"/>
+      <c r="P1903" t="inlineStr"/>
+      <c r="Q1903" t="inlineStr"/>
+    </row>
+    <row r="1904">
+      <c r="A1904" s="2" t="n">
+        <v>45741.15625</v>
+      </c>
+      <c r="B1904" t="n">
+        <v>693</v>
+      </c>
+      <c r="C1904" t="n">
+        <v>700</v>
+      </c>
+      <c r="D1904" t="n">
+        <v>660</v>
+      </c>
+      <c r="E1904" t="n">
+        <v>661.0499877929688</v>
+      </c>
+      <c r="F1904" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1904" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1904" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1904" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1904" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1904" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1904" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1904" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1904" t="inlineStr"/>
+      <c r="O1904" t="inlineStr"/>
+      <c r="P1904" t="inlineStr"/>
+      <c r="Q1904" t="inlineStr"/>
+    </row>
+    <row r="1905">
+      <c r="A1905" s="2" t="n">
+        <v>45741.19791666666</v>
+      </c>
+      <c r="B1905" t="n">
+        <v>660.0999755859375</v>
+      </c>
+      <c r="C1905" t="n">
+        <v>661.9000244140625</v>
+      </c>
+      <c r="D1905" t="n">
+        <v>652.0499877929688</v>
+      </c>
+      <c r="E1905" t="n">
+        <v>658</v>
+      </c>
+      <c r="F1905" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G1905" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1905" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1905" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1905" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1905" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1905" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1905" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1905" t="inlineStr"/>
+      <c r="O1905" t="inlineStr"/>
+      <c r="P1905" t="inlineStr"/>
+      <c r="Q1905" t="inlineStr"/>
+    </row>
+    <row r="1906">
+      <c r="A1906" s="2" t="n">
+        <v>45741.23958333334</v>
+      </c>
+      <c r="B1906" t="n">
+        <v>659</v>
+      </c>
+      <c r="C1906" t="n">
+        <v>659</v>
+      </c>
+      <c r="D1906" t="n">
+        <v>652.0999755859375</v>
+      </c>
+      <c r="E1906" t="n">
+        <v>652.0999755859375</v>
+      </c>
+      <c r="F1906" t="n">
+        <v>4750</v>
+      </c>
+      <c r="G1906" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1906" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1906" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1906" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1906" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1906" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1906" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1906" t="inlineStr"/>
+      <c r="O1906" t="inlineStr"/>
+      <c r="P1906" t="inlineStr"/>
+      <c r="Q1906" t="inlineStr"/>
+    </row>
+    <row r="1907">
+      <c r="A1907" s="2" t="n">
+        <v>45741.28125</v>
+      </c>
+      <c r="B1907" t="n">
+        <v>651</v>
+      </c>
+      <c r="C1907" t="n">
+        <v>654</v>
+      </c>
+      <c r="D1907" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1907" t="n">
+        <v>654</v>
+      </c>
+      <c r="F1907" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1907" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1907" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1907" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1907" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1907" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1907" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1907" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1907" t="inlineStr"/>
+      <c r="O1907" t="inlineStr"/>
+      <c r="P1907" t="inlineStr"/>
+      <c r="Q1907" t="inlineStr"/>
+    </row>
+    <row r="1908">
+      <c r="A1908" s="2" t="n">
+        <v>45741.32291666666</v>
+      </c>
+      <c r="B1908" t="n">
+        <v>660</v>
+      </c>
+      <c r="C1908" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1908" t="n">
+        <v>650.0499877929688</v>
+      </c>
+      <c r="E1908" t="n">
+        <v>655</v>
+      </c>
+      <c r="F1908" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G1908" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1908" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1908" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1908" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1908" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1908" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1908" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1908" t="inlineStr"/>
+      <c r="O1908" t="inlineStr"/>
+      <c r="P1908" t="inlineStr"/>
+      <c r="Q1908" t="inlineStr"/>
+    </row>
+    <row r="1909">
+      <c r="A1909" s="2" t="n">
+        <v>45741.36458333334</v>
+      </c>
+      <c r="B1909" t="n">
+        <v>655</v>
+      </c>
+      <c r="C1909" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1909" t="n">
+        <v>645</v>
+      </c>
+      <c r="E1909" t="n">
+        <v>647</v>
+      </c>
+      <c r="F1909" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G1909" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1909" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1909" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1909" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1909" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1909" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1909" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1909" t="inlineStr"/>
+      <c r="O1909" t="inlineStr"/>
+      <c r="P1909" t="inlineStr"/>
+      <c r="Q1909" t="inlineStr"/>
+    </row>
+    <row r="1910">
+      <c r="A1910" s="2" t="n">
+        <v>45741.40625</v>
+      </c>
+      <c r="B1910" t="n">
+        <v>647.5</v>
+      </c>
+      <c r="C1910" t="n">
+        <v>654</v>
+      </c>
+      <c r="D1910" t="n">
+        <v>647.5</v>
+      </c>
+      <c r="E1910" t="n">
+        <v>648.6500244140625</v>
+      </c>
+      <c r="F1910" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G1910" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1910" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1910" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1910" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1910" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1910" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1910" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1910" t="inlineStr"/>
+      <c r="O1910" t="inlineStr"/>
+      <c r="P1910" t="inlineStr"/>
+      <c r="Q1910" t="inlineStr"/>
+    </row>
+    <row r="1911">
+      <c r="A1911" s="2" t="n">
+        <v>45742.15625</v>
+      </c>
+      <c r="B1911" t="n">
+        <v>655</v>
+      </c>
+      <c r="C1911" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1911" t="n">
+        <v>630</v>
+      </c>
+      <c r="E1911" t="n">
+        <v>633</v>
+      </c>
+      <c r="F1911" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1911" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1911" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1911" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1911" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1911" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1911" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1911" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1911" t="inlineStr"/>
+      <c r="O1911" t="inlineStr"/>
+      <c r="P1911" t="inlineStr"/>
+      <c r="Q1911" t="inlineStr"/>
+    </row>
+    <row r="1912">
+      <c r="A1912" s="2" t="n">
+        <v>45742.19791666666</v>
+      </c>
+      <c r="B1912" t="n">
+        <v>633.7999877929688</v>
+      </c>
+      <c r="C1912" t="n">
+        <v>639.9000244140625</v>
+      </c>
+      <c r="D1912" t="n">
+        <v>632</v>
+      </c>
+      <c r="E1912" t="n">
+        <v>633.0499877929688</v>
+      </c>
+      <c r="F1912" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1912" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1912" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1912" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1912" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1912" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1912" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1912" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1912" t="inlineStr"/>
+      <c r="O1912" t="inlineStr"/>
+      <c r="P1912" t="inlineStr"/>
+      <c r="Q1912" t="inlineStr"/>
+    </row>
+    <row r="1913">
+      <c r="A1913" s="2" t="n">
+        <v>45742.23958333334</v>
+      </c>
+      <c r="B1913" t="n">
+        <v>635.9500122070312</v>
+      </c>
+      <c r="C1913" t="n">
+        <v>635.9500122070312</v>
+      </c>
+      <c r="D1913" t="n">
+        <v>633</v>
+      </c>
+      <c r="E1913" t="n">
+        <v>634.7999877929688</v>
+      </c>
+      <c r="F1913" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G1913" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1913" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1913" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1913" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1913" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1913" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1913" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1913" t="inlineStr"/>
+      <c r="O1913" t="inlineStr"/>
+      <c r="P1913" t="inlineStr"/>
+      <c r="Q1913" t="inlineStr"/>
+    </row>
+    <row r="1914">
+      <c r="A1914" s="2" t="n">
+        <v>45742.28125</v>
+      </c>
+      <c r="B1914" t="n">
+        <v>632.25</v>
+      </c>
+      <c r="C1914" t="n">
+        <v>632.25</v>
+      </c>
+      <c r="D1914" t="n">
+        <v>628</v>
+      </c>
+      <c r="E1914" t="n">
+        <v>629</v>
+      </c>
+      <c r="F1914" t="n">
+        <v>6250</v>
+      </c>
+      <c r="G1914" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1914" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1914" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1914" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1914" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1914" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1914" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1914" t="inlineStr"/>
+      <c r="O1914" t="inlineStr"/>
+      <c r="P1914" t="inlineStr"/>
+      <c r="Q1914" t="inlineStr"/>
+    </row>
+    <row r="1915">
+      <c r="A1915" s="2" t="n">
+        <v>45742.32291666666</v>
+      </c>
+      <c r="B1915" t="n">
+        <v>625</v>
+      </c>
+      <c r="C1915" t="n">
+        <v>630</v>
+      </c>
+      <c r="D1915" t="n">
+        <v>622</v>
+      </c>
+      <c r="E1915" t="n">
+        <v>629</v>
+      </c>
+      <c r="F1915" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G1915" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1915" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1915" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1915" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1915" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1915" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1915" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1915" t="inlineStr"/>
+      <c r="O1915" t="inlineStr"/>
+      <c r="P1915" t="inlineStr"/>
+      <c r="Q1915" t="inlineStr"/>
+    </row>
+    <row r="1916">
+      <c r="A1916" s="2" t="n">
+        <v>45742.36458333334</v>
+      </c>
+      <c r="B1916" t="n">
+        <v>622.5499877929688</v>
+      </c>
+      <c r="C1916" t="n">
+        <v>630</v>
+      </c>
+      <c r="D1916" t="n">
+        <v>621</v>
+      </c>
+      <c r="E1916" t="n">
+        <v>621</v>
+      </c>
+      <c r="F1916" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G1916" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1916" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1916" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1916" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1916" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1916" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1916" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1916" t="inlineStr"/>
+      <c r="O1916" t="inlineStr"/>
+      <c r="P1916" t="inlineStr"/>
+      <c r="Q1916" t="inlineStr"/>
+    </row>
+    <row r="1917">
+      <c r="A1917" s="2" t="n">
+        <v>45742.40625</v>
+      </c>
+      <c r="B1917" t="n">
+        <v>621.5</v>
+      </c>
+      <c r="C1917" t="n">
+        <v>622.0999755859375</v>
+      </c>
+      <c r="D1917" t="n">
+        <v>620</v>
+      </c>
+      <c r="E1917" t="n">
+        <v>622.0999755859375</v>
+      </c>
+      <c r="F1917" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G1917" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1917" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1917" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1917" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1917" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1917" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1917" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1917" t="inlineStr"/>
+      <c r="O1917" t="inlineStr"/>
+      <c r="P1917" t="inlineStr"/>
+      <c r="Q1917" t="inlineStr"/>
+    </row>
+    <row r="1918">
+      <c r="A1918" s="2" t="n">
+        <v>45743.15625</v>
+      </c>
+      <c r="B1918" t="n">
+        <v>615.0499877929688</v>
+      </c>
+      <c r="C1918" t="n">
+        <v>649</v>
+      </c>
+      <c r="D1918" t="n">
+        <v>601</v>
+      </c>
+      <c r="E1918" t="n">
+        <v>639</v>
+      </c>
+      <c r="F1918" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1918" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1918" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1918" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1918" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1918" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1918" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1918" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1918" t="inlineStr"/>
+      <c r="O1918" t="inlineStr"/>
+      <c r="P1918" t="inlineStr"/>
+      <c r="Q1918" t="inlineStr"/>
+    </row>
+    <row r="1919">
+      <c r="A1919" s="2" t="n">
+        <v>45743.19791666666</v>
+      </c>
+      <c r="B1919" t="n">
+        <v>644.9500122070312</v>
+      </c>
+      <c r="C1919" t="n">
+        <v>662</v>
+      </c>
+      <c r="D1919" t="n">
+        <v>644.5</v>
+      </c>
+      <c r="E1919" t="n">
+        <v>662</v>
+      </c>
+      <c r="F1919" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G1919" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1919" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1919" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1919" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1919" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1919" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1919" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1919" t="inlineStr"/>
+      <c r="O1919" t="inlineStr"/>
+      <c r="P1919" t="inlineStr"/>
+      <c r="Q1919" t="inlineStr"/>
+    </row>
+    <row r="1920">
+      <c r="A1920" s="2" t="n">
+        <v>45743.23958333334</v>
+      </c>
+      <c r="B1920" t="n">
+        <v>654</v>
+      </c>
+      <c r="C1920" t="n">
+        <v>657</v>
+      </c>
+      <c r="D1920" t="n">
+        <v>650.0499877929688</v>
+      </c>
+      <c r="E1920" t="n">
+        <v>651.1500244140625</v>
+      </c>
+      <c r="F1920" t="n">
+        <v>4250</v>
+      </c>
+      <c r="G1920" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1920" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1920" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1920" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1920" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1920" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1920" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1920" t="inlineStr"/>
+      <c r="O1920" t="inlineStr"/>
+      <c r="P1920" t="inlineStr"/>
+      <c r="Q1920" t="inlineStr"/>
+    </row>
+    <row r="1921">
+      <c r="A1921" s="2" t="n">
+        <v>45743.28125</v>
+      </c>
+      <c r="B1921" t="n">
+        <v>651.1500244140625</v>
+      </c>
+      <c r="C1921" t="n">
+        <v>657</v>
+      </c>
+      <c r="D1921" t="n">
+        <v>651.1500244140625</v>
+      </c>
+      <c r="E1921" t="n">
+        <v>657</v>
+      </c>
+      <c r="F1921" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G1921" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1921" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1921" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1921" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1921" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1921" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1921" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1921" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1921" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1921" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1921" t="inlineStr"/>
+    </row>
+    <row r="1922">
+      <c r="A1922" s="2" t="n">
+        <v>45743.32291666666</v>
+      </c>
+      <c r="B1922" t="n">
+        <v>652.0499877929688</v>
+      </c>
+      <c r="C1922" t="n">
+        <v>677.9500122070312</v>
+      </c>
+      <c r="D1922" t="n">
+        <v>652.0499877929688</v>
+      </c>
+      <c r="E1922" t="n">
+        <v>660</v>
+      </c>
+      <c r="F1922" t="n">
+        <v>7750</v>
+      </c>
+      <c r="G1922" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1922" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1922" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1922" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1922" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1922" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1922" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1922" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1922" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1922" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1922" t="inlineStr"/>
+    </row>
+    <row r="1923">
+      <c r="A1923" s="2" t="n">
+        <v>45743.36458333334</v>
+      </c>
+      <c r="B1923" t="n">
+        <v>670</v>
+      </c>
+      <c r="C1923" t="n">
+        <v>683.9500122070312</v>
+      </c>
+      <c r="D1923" t="n">
+        <v>666</v>
+      </c>
+      <c r="E1923" t="n">
+        <v>675</v>
+      </c>
+      <c r="F1923" t="n">
+        <v>17750</v>
+      </c>
+      <c r="G1923" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1923" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1923" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1923" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1923" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1923" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1923" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1923" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1923" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1923" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1923" t="inlineStr"/>
+    </row>
+    <row r="1924">
+      <c r="A1924" s="2" t="n">
+        <v>45743.40625</v>
+      </c>
+      <c r="B1924" t="n">
+        <v>675</v>
+      </c>
+      <c r="C1924" t="n">
+        <v>682.4000244140625</v>
+      </c>
+      <c r="D1924" t="n">
+        <v>673.0499877929688</v>
+      </c>
+      <c r="E1924" t="n">
+        <v>677.8499755859375</v>
+      </c>
+      <c r="F1924" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G1924" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1924" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1924" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1924" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1924" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1924" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1924" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1924" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1924" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1924" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1924" t="inlineStr"/>
+    </row>
+    <row r="1925">
+      <c r="A1925" s="2" t="n">
+        <v>45744.15625</v>
+      </c>
+      <c r="B1925" t="n">
+        <v>673.0499877929688</v>
+      </c>
+      <c r="C1925" t="n">
+        <v>674</v>
+      </c>
+      <c r="D1925" t="n">
+        <v>665</v>
+      </c>
+      <c r="E1925" t="n">
+        <v>671</v>
+      </c>
+      <c r="F1925" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1925" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1925" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1925" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1925" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1925" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1925" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1925" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1925" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1925" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1925" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1925" t="inlineStr"/>
+    </row>
+    <row r="1926">
+      <c r="A1926" s="2" t="n">
+        <v>45744.19791666666</v>
+      </c>
+      <c r="B1926" t="n">
+        <v>670.7999877929688</v>
+      </c>
+      <c r="C1926" t="n">
+        <v>673</v>
+      </c>
+      <c r="D1926" t="n">
+        <v>667.5</v>
+      </c>
+      <c r="E1926" t="n">
+        <v>669.5</v>
+      </c>
+      <c r="F1926" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1926" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1926" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1926" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1926" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1926" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1926" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1926" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1926" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1926" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1926" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1926" t="inlineStr"/>
+    </row>
+    <row r="1927">
+      <c r="A1927" s="2" t="n">
+        <v>45744.23958333334</v>
+      </c>
+      <c r="B1927" t="n">
+        <v>669.5</v>
+      </c>
+      <c r="C1927" t="n">
+        <v>670</v>
+      </c>
+      <c r="D1927" t="n">
+        <v>669.5</v>
+      </c>
+      <c r="E1927" t="n">
+        <v>670</v>
+      </c>
+      <c r="F1927" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G1927" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1927" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1927" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1927" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1927" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1927" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1927" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1927" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1927" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1927" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1927" t="inlineStr"/>
+    </row>
+    <row r="1928">
+      <c r="A1928" s="2" t="n">
+        <v>45744.28125</v>
+      </c>
+      <c r="B1928" t="n">
+        <v>676.8499755859375</v>
+      </c>
+      <c r="C1928" t="n">
+        <v>676.8499755859375</v>
+      </c>
+      <c r="D1928" t="n">
+        <v>676.8499755859375</v>
+      </c>
+      <c r="E1928" t="n">
+        <v>676.8499755859375</v>
+      </c>
+      <c r="F1928" t="n">
+        <v>750</v>
+      </c>
+      <c r="G1928" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1928" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1928" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1928" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1928" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1928" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1928" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1928" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1928" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1928" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1928" t="inlineStr"/>
+    </row>
+    <row r="1929">
+      <c r="A1929" s="2" t="n">
+        <v>45744.32291666666</v>
+      </c>
+      <c r="B1929" t="n">
+        <v>676.8499755859375</v>
+      </c>
+      <c r="C1929" t="n">
+        <v>682</v>
+      </c>
+      <c r="D1929" t="n">
+        <v>671.2999877929688</v>
+      </c>
+      <c r="E1929" t="n">
+        <v>671.2999877929688</v>
+      </c>
+      <c r="F1929" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G1929" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1929" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1929" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1929" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1929" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1929" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1929" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1929" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1929" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1929" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1929" t="inlineStr"/>
+    </row>
+    <row r="1930">
+      <c r="A1930" s="2" t="n">
+        <v>45744.36458333334</v>
+      </c>
+      <c r="B1930" t="n">
+        <v>678</v>
+      </c>
+      <c r="C1930" t="n">
+        <v>688</v>
+      </c>
+      <c r="D1930" t="n">
+        <v>678</v>
+      </c>
+      <c r="E1930" t="n">
+        <v>680</v>
+      </c>
+      <c r="F1930" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1930" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1930" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1930" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1930" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1930" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1930" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1930" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1930" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1930" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1930" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1930" t="inlineStr"/>
+    </row>
+    <row r="1931">
+      <c r="A1931" s="2" t="n">
+        <v>45744.40625</v>
+      </c>
+      <c r="B1931" t="n">
+        <v>679</v>
+      </c>
+      <c r="C1931" t="n">
+        <v>679</v>
+      </c>
+      <c r="D1931" t="n">
+        <v>668.1500244140625</v>
+      </c>
+      <c r="E1931" t="n">
+        <v>678.6500244140625</v>
+      </c>
+      <c r="F1931" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G1931" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1931" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1931" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1931" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1931" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1931" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1931" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1931" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1931" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1931" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1931" t="inlineStr"/>
+    </row>
+    <row r="1932">
+      <c r="A1932" s="2" t="n">
+        <v>45748.15625</v>
+      </c>
+      <c r="B1932" t="n">
+        <v>692</v>
+      </c>
+      <c r="C1932" t="n">
+        <v>710</v>
+      </c>
+      <c r="D1932" t="n">
+        <v>669</v>
+      </c>
+      <c r="E1932" t="n">
+        <v>687</v>
+      </c>
+      <c r="F1932" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1932" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1932" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1932" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1932" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1932" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1932" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1932" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1932" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1932" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1932" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1932" t="inlineStr"/>
+    </row>
+    <row r="1933">
+      <c r="A1933" s="2" t="n">
+        <v>45748.19791666666</v>
+      </c>
+      <c r="B1933" t="n">
+        <v>690</v>
+      </c>
+      <c r="C1933" t="n">
+        <v>690</v>
+      </c>
+      <c r="D1933" t="n">
+        <v>675</v>
+      </c>
+      <c r="E1933" t="n">
+        <v>680</v>
+      </c>
+      <c r="F1933" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G1933" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1933" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1933" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1933" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1933" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1933" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1933" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1933" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1933" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1933" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1933" t="inlineStr"/>
+    </row>
+    <row r="1934">
+      <c r="A1934" s="2" t="n">
+        <v>45748.23958333334</v>
+      </c>
+      <c r="B1934" t="n">
+        <v>686</v>
+      </c>
+      <c r="C1934" t="n">
+        <v>686</v>
+      </c>
+      <c r="D1934" t="n">
+        <v>686</v>
+      </c>
+      <c r="E1934" t="n">
+        <v>686</v>
+      </c>
+      <c r="F1934" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1934" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1934" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1934" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1934" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1934" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1934" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1934" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1934" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1934" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1934" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1934" t="inlineStr"/>
+    </row>
+    <row r="1935">
+      <c r="A1935" s="2" t="n">
+        <v>45748.28125</v>
+      </c>
+      <c r="B1935" t="n">
+        <v>686</v>
+      </c>
+      <c r="C1935" t="n">
+        <v>699</v>
+      </c>
+      <c r="D1935" t="n">
+        <v>680.5999755859375</v>
+      </c>
+      <c r="E1935" t="n">
+        <v>685.8499755859375</v>
+      </c>
+      <c r="F1935" t="n">
+        <v>7750</v>
+      </c>
+      <c r="G1935" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1935" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1935" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1935" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1935" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1935" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1935" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1935" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1935" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1935" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1935" t="inlineStr"/>
+    </row>
+    <row r="1936">
+      <c r="A1936" s="2" t="n">
+        <v>45748.32291666666</v>
+      </c>
+      <c r="B1936" t="n">
+        <v>690</v>
+      </c>
+      <c r="C1936" t="n">
+        <v>692.9000244140625</v>
+      </c>
+      <c r="D1936" t="n">
+        <v>689.2999877929688</v>
+      </c>
+      <c r="E1936" t="n">
+        <v>689.2999877929688</v>
+      </c>
+      <c r="F1936" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G1936" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1936" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1936" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1936" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1936" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1936" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1936" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1936" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1936" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1936" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1936" t="inlineStr"/>
+    </row>
+    <row r="1937">
+      <c r="A1937" s="2" t="n">
+        <v>45748.36458333334</v>
+      </c>
+      <c r="B1937" t="n">
+        <v>689.5</v>
+      </c>
+      <c r="C1937" t="n">
+        <v>693.9000244140625</v>
+      </c>
+      <c r="D1937" t="n">
+        <v>686.0499877929688</v>
+      </c>
+      <c r="E1937" t="n">
+        <v>688.1500244140625</v>
+      </c>
+      <c r="F1937" t="n">
+        <v>4750</v>
+      </c>
+      <c r="G1937" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1937" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1937" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1937" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1937" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1937" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1937" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1937" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1937" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1937" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1937" t="inlineStr"/>
+    </row>
+    <row r="1938">
+      <c r="A1938" s="2" t="n">
+        <v>45748.40625</v>
+      </c>
+      <c r="B1938" t="n">
+        <v>690</v>
+      </c>
+      <c r="C1938" t="n">
+        <v>692</v>
+      </c>
+      <c r="D1938" t="n">
+        <v>689.1500244140625</v>
+      </c>
+      <c r="E1938" t="n">
+        <v>689.1500244140625</v>
+      </c>
+      <c r="F1938" t="n">
+        <v>750</v>
+      </c>
+      <c r="G1938" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1938" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1938" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1938" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1938" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1938" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1938" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1938" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1938" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1938" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1938" t="inlineStr"/>
+    </row>
+    <row r="1939">
+      <c r="A1939" s="2" t="n">
+        <v>45749.15625</v>
+      </c>
+      <c r="B1939" t="n">
+        <v>690</v>
+      </c>
+      <c r="C1939" t="n">
+        <v>703</v>
+      </c>
+      <c r="D1939" t="n">
+        <v>690</v>
+      </c>
+      <c r="E1939" t="n">
+        <v>690</v>
+      </c>
+      <c r="F1939" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1939" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1939" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1939" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1939" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1939" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1939" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1939" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1939" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1939" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1939" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1939" t="inlineStr"/>
+    </row>
+    <row r="1940">
+      <c r="A1940" s="2" t="n">
+        <v>45749.19791666666</v>
+      </c>
+      <c r="B1940" t="n">
+        <v>693</v>
+      </c>
+      <c r="C1940" t="n">
+        <v>693</v>
+      </c>
+      <c r="D1940" t="n">
+        <v>684</v>
+      </c>
+      <c r="E1940" t="n">
+        <v>691.3499755859375</v>
+      </c>
+      <c r="F1940" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G1940" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1940" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1940" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1940" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1940" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1940" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1940" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1940" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1940" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1940" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1940" t="inlineStr"/>
+    </row>
+    <row r="1941">
+      <c r="A1941" s="2" t="n">
+        <v>45749.23958333334</v>
+      </c>
+      <c r="B1941" t="n">
+        <v>693</v>
+      </c>
+      <c r="C1941" t="n">
+        <v>700</v>
+      </c>
+      <c r="D1941" t="n">
+        <v>686</v>
+      </c>
+      <c r="E1941" t="n">
+        <v>699</v>
+      </c>
+      <c r="F1941" t="n">
+        <v>4250</v>
+      </c>
+      <c r="G1941" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1941" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1941" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1941" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1941" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1941" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1941" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1941" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1941" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1941" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1941" t="inlineStr"/>
+    </row>
+    <row r="1942">
+      <c r="A1942" s="2" t="n">
+        <v>45749.28125</v>
+      </c>
+      <c r="B1942" t="n">
+        <v>693.5999755859375</v>
+      </c>
+      <c r="C1942" t="n">
+        <v>702</v>
+      </c>
+      <c r="D1942" t="n">
+        <v>693.5999755859375</v>
+      </c>
+      <c r="E1942" t="n">
+        <v>702</v>
+      </c>
+      <c r="F1942" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G1942" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1942" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1942" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1942" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1942" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1942" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1942" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1942" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1942" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1942" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1942" t="inlineStr"/>
+    </row>
+    <row r="1943">
+      <c r="A1943" s="2" t="n">
+        <v>45749.32291666666</v>
+      </c>
+      <c r="B1943" t="n">
+        <v>700.0499877929688</v>
+      </c>
+      <c r="C1943" t="n">
+        <v>720</v>
+      </c>
+      <c r="D1943" t="n">
+        <v>700</v>
+      </c>
+      <c r="E1943" t="n">
+        <v>720</v>
+      </c>
+      <c r="F1943" t="n">
+        <v>12250</v>
+      </c>
+      <c r="G1943" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1943" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1943" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1943" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1943" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1943" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1943" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1943" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1943" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1943" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1943" t="inlineStr"/>
+    </row>
+    <row r="1944">
+      <c r="A1944" s="2" t="n">
+        <v>45749.36458333334</v>
+      </c>
+      <c r="B1944" t="n">
+        <v>720</v>
+      </c>
+      <c r="C1944" t="n">
+        <v>720</v>
+      </c>
+      <c r="D1944" t="n">
+        <v>714.1500244140625</v>
+      </c>
+      <c r="E1944" t="n">
+        <v>714.1500244140625</v>
+      </c>
+      <c r="F1944" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G1944" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1944" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1944" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1944" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1944" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1944" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1944" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1944" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1944" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1944" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1944" t="inlineStr"/>
+    </row>
+    <row r="1945">
+      <c r="A1945" s="2" t="n">
+        <v>45749.40625</v>
+      </c>
+      <c r="B1945" t="n">
+        <v>714</v>
+      </c>
+      <c r="C1945" t="n">
+        <v>714</v>
+      </c>
+      <c r="D1945" t="n">
+        <v>707</v>
+      </c>
+      <c r="E1945" t="n">
+        <v>714</v>
+      </c>
+      <c r="F1945" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G1945" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1945" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1945" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1945" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1945" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1945" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1945" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1945" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1945" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1945" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1945" t="inlineStr"/>
+    </row>
+    <row r="1946">
+      <c r="A1946" s="2" t="n">
+        <v>45750.15625</v>
+      </c>
+      <c r="B1946" t="n">
+        <v>710.25</v>
+      </c>
+      <c r="C1946" t="n">
+        <v>710.25</v>
+      </c>
+      <c r="D1946" t="n">
+        <v>691</v>
+      </c>
+      <c r="E1946" t="n">
+        <v>700</v>
+      </c>
+      <c r="F1946" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1946" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1946" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1946" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1946" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1946" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1946" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1946" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1946" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1946" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1946" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1946" t="inlineStr"/>
+    </row>
+    <row r="1947">
+      <c r="A1947" s="2" t="n">
+        <v>45750.19791666666</v>
+      </c>
+      <c r="B1947" t="n">
+        <v>697.0499877929688</v>
+      </c>
+      <c r="C1947" t="n">
+        <v>723.7999877929688</v>
+      </c>
+      <c r="D1947" t="n">
+        <v>697.0499877929688</v>
+      </c>
+      <c r="E1947" t="n">
+        <v>716.2000122070312</v>
+      </c>
+      <c r="F1947" t="n">
+        <v>12250</v>
+      </c>
+      <c r="G1947" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1947" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1947" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1947" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1947" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1947" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1947" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1947" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1947" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1947" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1947" t="inlineStr"/>
+    </row>
+    <row r="1948">
+      <c r="A1948" s="2" t="n">
+        <v>45750.23958333334</v>
+      </c>
+      <c r="B1948" t="n">
+        <v>717.5</v>
+      </c>
+      <c r="C1948" t="n">
+        <v>763.7999877929688</v>
+      </c>
+      <c r="D1948" t="n">
+        <v>717</v>
+      </c>
+      <c r="E1948" t="n">
+        <v>750</v>
+      </c>
+      <c r="F1948" t="n">
+        <v>32750</v>
+      </c>
+      <c r="G1948" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1948" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1948" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1948" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1948" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1948" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1948" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1948" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1948" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1948" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1948" t="inlineStr"/>
+    </row>
+    <row r="1949">
+      <c r="A1949" s="2" t="n">
+        <v>45750.28125</v>
+      </c>
+      <c r="B1949" t="n">
+        <v>750</v>
+      </c>
+      <c r="C1949" t="n">
+        <v>750</v>
+      </c>
+      <c r="D1949" t="n">
+        <v>735</v>
+      </c>
+      <c r="E1949" t="n">
+        <v>735</v>
+      </c>
+      <c r="F1949" t="n">
+        <v>8750</v>
+      </c>
+      <c r="G1949" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1949" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1949" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1949" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1949" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1949" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1949" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1949" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1949" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1949" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1949" t="inlineStr"/>
+    </row>
+    <row r="1950">
+      <c r="A1950" s="2" t="n">
+        <v>45750.32291666666</v>
+      </c>
+      <c r="B1950" t="n">
+        <v>735</v>
+      </c>
+      <c r="C1950" t="n">
+        <v>754</v>
+      </c>
+      <c r="D1950" t="n">
+        <v>735</v>
+      </c>
+      <c r="E1950" t="n">
+        <v>754</v>
+      </c>
+      <c r="F1950" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G1950" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1950" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1950" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1950" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1950" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1950" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1950" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1950" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1950" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1950" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1950" t="inlineStr"/>
+    </row>
+    <row r="1951">
+      <c r="A1951" s="2" t="n">
+        <v>45750.36458333334</v>
+      </c>
+      <c r="B1951" t="n">
+        <v>753.9500122070312</v>
+      </c>
+      <c r="C1951" t="n">
+        <v>778.9500122070312</v>
+      </c>
+      <c r="D1951" t="n">
+        <v>750</v>
+      </c>
+      <c r="E1951" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="F1951" t="n">
+        <v>27000</v>
+      </c>
+      <c r="G1951" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1951" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1951" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1951" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1951" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1951" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1951" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1951" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1951" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1951" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1951" t="inlineStr"/>
+    </row>
+    <row r="1952">
+      <c r="A1952" s="2" t="n">
+        <v>45750.40625</v>
+      </c>
+      <c r="B1952" t="n">
+        <v>780</v>
+      </c>
+      <c r="C1952" t="n">
+        <v>780</v>
+      </c>
+      <c r="D1952" t="n">
+        <v>760</v>
+      </c>
+      <c r="E1952" t="n">
+        <v>768.7999877929688</v>
+      </c>
+      <c r="F1952" t="n">
+        <v>22250</v>
+      </c>
+      <c r="G1952" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1952" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1952" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1952" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1952" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1952" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1952" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1952" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1952" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1952" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1952" t="inlineStr"/>
+    </row>
+    <row r="1953">
+      <c r="A1953" s="2" t="n">
+        <v>45751.15625</v>
+      </c>
+      <c r="B1953" t="n">
+        <v>768.7999877929688</v>
+      </c>
+      <c r="C1953" t="n">
+        <v>768.7999877929688</v>
+      </c>
+      <c r="D1953" t="n">
+        <v>721.25</v>
+      </c>
+      <c r="E1953" t="n">
+        <v>721.25</v>
+      </c>
+      <c r="F1953" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1953" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1953" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1953" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1953" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1953" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1953" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1953" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1953" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1953" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1953" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1953" t="inlineStr"/>
+    </row>
+    <row r="1954">
+      <c r="A1954" s="2" t="n">
+        <v>45751.19791666666</v>
+      </c>
+      <c r="B1954" t="n">
+        <v>721.25</v>
+      </c>
+      <c r="C1954" t="n">
+        <v>745.8499755859375</v>
+      </c>
+      <c r="D1954" t="n">
+        <v>716.5</v>
+      </c>
+      <c r="E1954" t="n">
+        <v>745.8499755859375</v>
+      </c>
+      <c r="F1954" t="n">
+        <v>8250</v>
+      </c>
+      <c r="G1954" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1954" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1954" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1954" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1954" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1954" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1954" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1954" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1954" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1954" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1954" t="inlineStr"/>
+    </row>
+    <row r="1955">
+      <c r="A1955" s="2" t="n">
+        <v>45751.23958333334</v>
+      </c>
+      <c r="B1955" t="n">
+        <v>744.9500122070312</v>
+      </c>
+      <c r="C1955" t="n">
+        <v>750</v>
+      </c>
+      <c r="D1955" t="n">
+        <v>732</v>
+      </c>
+      <c r="E1955" t="n">
+        <v>732</v>
+      </c>
+      <c r="F1955" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G1955" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1955" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1955" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1955" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1955" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1955" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1955" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1955" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1955" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1955" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1955" t="inlineStr"/>
+    </row>
+    <row r="1956">
+      <c r="A1956" s="2" t="n">
+        <v>45751.28125</v>
+      </c>
+      <c r="B1956" t="n">
+        <v>732</v>
+      </c>
+      <c r="C1956" t="n">
+        <v>735</v>
+      </c>
+      <c r="D1956" t="n">
+        <v>723.0499877929688</v>
+      </c>
+      <c r="E1956" t="n">
+        <v>735</v>
+      </c>
+      <c r="F1956" t="n">
+        <v>11250</v>
+      </c>
+      <c r="G1956" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1956" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1956" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1956" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1956" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1956" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1956" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1956" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1956" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1956" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1956" t="inlineStr"/>
+    </row>
+    <row r="1957">
+      <c r="A1957" s="2" t="n">
+        <v>45751.32291666666</v>
+      </c>
+      <c r="B1957" t="n">
+        <v>730</v>
+      </c>
+      <c r="C1957" t="n">
+        <v>733</v>
+      </c>
+      <c r="D1957" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="E1957" t="n">
+        <v>728.9000244140625</v>
+      </c>
+      <c r="F1957" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G1957" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1957" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1957" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1957" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1957" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1957" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1957" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1957" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1957" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1957" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1957" t="inlineStr"/>
+    </row>
+    <row r="1958">
+      <c r="A1958" s="2" t="n">
+        <v>45751.36458333334</v>
+      </c>
+      <c r="B1958" t="n">
+        <v>728.9500122070312</v>
+      </c>
+      <c r="C1958" t="n">
+        <v>728.9500122070312</v>
+      </c>
+      <c r="D1958" t="n">
+        <v>710</v>
+      </c>
+      <c r="E1958" t="n">
+        <v>717.9500122070312</v>
+      </c>
+      <c r="F1958" t="n">
+        <v>9750</v>
+      </c>
+      <c r="G1958" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1958" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1958" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1958" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1958" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1958" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1958" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1958" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1958" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1958" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1958" t="inlineStr"/>
+    </row>
+    <row r="1959">
+      <c r="A1959" s="2" t="n">
+        <v>45751.40625</v>
+      </c>
+      <c r="B1959" t="n">
+        <v>718</v>
+      </c>
+      <c r="C1959" t="n">
+        <v>725</v>
+      </c>
+      <c r="D1959" t="n">
+        <v>717.5999755859375</v>
+      </c>
+      <c r="E1959" t="n">
+        <v>717.5999755859375</v>
+      </c>
+      <c r="F1959" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1959" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1959" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1959" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1959" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1959" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1959" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1959" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1959" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1959" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1959" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1959" t="inlineStr"/>
+    </row>
+    <row r="1960">
+      <c r="A1960" s="2" t="n">
+        <v>45754.15625</v>
+      </c>
+      <c r="B1960" t="n">
+        <v>623</v>
+      </c>
+      <c r="C1960" t="n">
+        <v>685</v>
+      </c>
+      <c r="D1960" t="n">
+        <v>623</v>
+      </c>
+      <c r="E1960" t="n">
+        <v>650.5</v>
+      </c>
+      <c r="F1960" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1960" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1960" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1960" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1960" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1960" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1960" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1960" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1960" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1960" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1960" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1960" t="inlineStr"/>
+    </row>
+    <row r="1961">
+      <c r="A1961" s="2" t="n">
+        <v>45754.19791666666</v>
+      </c>
+      <c r="B1961" t="n">
+        <v>640.0499877929688</v>
+      </c>
+      <c r="C1961" t="n">
+        <v>654.9500122070312</v>
+      </c>
+      <c r="D1961" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="E1961" t="n">
+        <v>651.0499877929688</v>
+      </c>
+      <c r="F1961" t="n">
+        <v>13750</v>
+      </c>
+      <c r="G1961" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1961" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1961" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1961" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1961" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1961" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1961" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1961" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1961" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1961" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1961" t="inlineStr"/>
+    </row>
+    <row r="1962">
+      <c r="A1962" s="2" t="n">
+        <v>45754.23958333334</v>
+      </c>
+      <c r="B1962" t="n">
+        <v>655</v>
+      </c>
+      <c r="C1962" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1962" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1962" t="n">
+        <v>660</v>
+      </c>
+      <c r="F1962" t="n">
+        <v>10750</v>
+      </c>
+      <c r="G1962" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1962" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1962" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1962" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1962" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1962" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1962" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1962" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1962" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1962" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1962" t="inlineStr"/>
+    </row>
+    <row r="1963">
+      <c r="A1963" s="2" t="n">
+        <v>45754.28125</v>
+      </c>
+      <c r="B1963" t="n">
+        <v>664.7999877929688</v>
+      </c>
+      <c r="C1963" t="n">
+        <v>664.7999877929688</v>
+      </c>
+      <c r="D1963" t="n">
+        <v>645.0499877929688</v>
+      </c>
+      <c r="E1963" t="n">
+        <v>646</v>
+      </c>
+      <c r="F1963" t="n">
+        <v>10500</v>
+      </c>
+      <c r="G1963" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1963" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1963" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1963" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1963" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1963" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1963" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1963" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1963" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1963" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1963" t="inlineStr"/>
+    </row>
+    <row r="1964">
+      <c r="A1964" s="2" t="n">
+        <v>45754.32291666666</v>
+      </c>
+      <c r="B1964" t="n">
+        <v>647</v>
+      </c>
+      <c r="C1964" t="n">
+        <v>647.2000122070312</v>
+      </c>
+      <c r="D1964" t="n">
+        <v>641.7999877929688</v>
+      </c>
+      <c r="E1964" t="n">
+        <v>647.2000122070312</v>
+      </c>
+      <c r="F1964" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G1964" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1964" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1964" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1964" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1964" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1964" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1964" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1964" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1964" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1964" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1964" t="inlineStr"/>
+    </row>
+    <row r="1965">
+      <c r="A1965" s="2" t="n">
+        <v>45754.36458333334</v>
+      </c>
+      <c r="B1965" t="n">
+        <v>652.9000244140625</v>
+      </c>
+      <c r="C1965" t="n">
+        <v>672.9000244140625</v>
+      </c>
+      <c r="D1965" t="n">
+        <v>644</v>
+      </c>
+      <c r="E1965" t="n">
+        <v>669</v>
+      </c>
+      <c r="F1965" t="n">
+        <v>10500</v>
+      </c>
+      <c r="G1965" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1965" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1965" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1965" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1965" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1965" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1965" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1965" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1965" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1965" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1965" t="inlineStr"/>
+    </row>
+    <row r="1966">
+      <c r="A1966" s="2" t="n">
+        <v>45754.40625</v>
+      </c>
+      <c r="B1966" t="n">
+        <v>669</v>
+      </c>
+      <c r="C1966" t="n">
+        <v>675</v>
+      </c>
+      <c r="D1966" t="n">
+        <v>664.9000244140625</v>
+      </c>
+      <c r="E1966" t="n">
+        <v>664.9000244140625</v>
+      </c>
+      <c r="F1966" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G1966" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1966" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1966" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1966" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1966" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1966" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1966" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1966" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1966" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1966" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1966" t="inlineStr"/>
+    </row>
+    <row r="1967">
+      <c r="A1967" s="2" t="n">
+        <v>45755.15625</v>
+      </c>
+      <c r="B1967" t="n">
+        <v>693</v>
+      </c>
+      <c r="C1967" t="n">
+        <v>719.2999877929688</v>
+      </c>
+      <c r="D1967" t="n">
+        <v>672</v>
+      </c>
+      <c r="E1967" t="n">
+        <v>672</v>
+      </c>
+      <c r="F1967" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1967" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1967" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1967" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1967" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1967" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1967" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1967" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1967" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1967" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1967" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1967" t="inlineStr"/>
+    </row>
+    <row r="1968">
+      <c r="A1968" s="2" t="n">
+        <v>45755.19791666666</v>
+      </c>
+      <c r="B1968" t="n">
+        <v>670</v>
+      </c>
+      <c r="C1968" t="n">
+        <v>675</v>
+      </c>
+      <c r="D1968" t="n">
+        <v>664.9000244140625</v>
+      </c>
+      <c r="E1968" t="n">
+        <v>670</v>
+      </c>
+      <c r="F1968" t="n">
+        <v>7250</v>
+      </c>
+      <c r="G1968" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1968" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1968" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1968" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1968" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1968" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1968" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1968" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1968" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1968" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1968" t="inlineStr"/>
+    </row>
+    <row r="1969">
+      <c r="A1969" s="2" t="n">
+        <v>45755.23958333334</v>
+      </c>
+      <c r="B1969" t="n">
+        <v>672</v>
+      </c>
+      <c r="C1969" t="n">
+        <v>672</v>
+      </c>
+      <c r="D1969" t="n">
+        <v>656</v>
+      </c>
+      <c r="E1969" t="n">
+        <v>656</v>
+      </c>
+      <c r="F1969" t="n">
+        <v>4250</v>
+      </c>
+      <c r="G1969" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1969" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1969" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1969" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1969" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1969" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1969" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1969" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1969" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1969" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1969" t="inlineStr"/>
+    </row>
+    <row r="1970">
+      <c r="A1970" s="2" t="n">
+        <v>45755.28125</v>
+      </c>
+      <c r="B1970" t="n">
+        <v>663.5499877929688</v>
+      </c>
+      <c r="C1970" t="n">
+        <v>674.9500122070312</v>
+      </c>
+      <c r="D1970" t="n">
+        <v>663.5499877929688</v>
+      </c>
+      <c r="E1970" t="n">
+        <v>674.9500122070312</v>
+      </c>
+      <c r="F1970" t="n">
+        <v>4250</v>
+      </c>
+      <c r="G1970" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1970" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1970" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1970" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1970" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1970" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1970" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1970" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1970" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1970" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1970" t="inlineStr"/>
+    </row>
+    <row r="1971">
+      <c r="A1971" s="2" t="n">
+        <v>45755.32291666666</v>
+      </c>
+      <c r="B1971" t="n">
+        <v>673.9500122070312</v>
+      </c>
+      <c r="C1971" t="n">
+        <v>675</v>
+      </c>
+      <c r="D1971" t="n">
+        <v>670</v>
+      </c>
+      <c r="E1971" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="F1971" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G1971" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1971" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1971" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1971" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1971" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1971" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1971" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1971" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1971" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1971" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1971" t="inlineStr"/>
+    </row>
+    <row r="1972">
+      <c r="A1972" s="2" t="n">
+        <v>45755.36458333334</v>
+      </c>
+      <c r="B1972" t="n">
+        <v>667</v>
+      </c>
+      <c r="C1972" t="n">
+        <v>667.9500122070312</v>
+      </c>
+      <c r="D1972" t="n">
+        <v>667</v>
+      </c>
+      <c r="E1972" t="n">
+        <v>667</v>
+      </c>
+      <c r="F1972" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1972" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1972" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1972" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1972" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1972" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1972" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1972" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1972" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1972" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1972" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1972" t="inlineStr"/>
+    </row>
+    <row r="1973">
+      <c r="A1973" s="2" t="n">
+        <v>45755.40625</v>
+      </c>
+      <c r="B1973" t="n">
+        <v>669</v>
+      </c>
+      <c r="C1973" t="n">
+        <v>684</v>
+      </c>
+      <c r="D1973" t="n">
+        <v>665</v>
+      </c>
+      <c r="E1973" t="n">
+        <v>682</v>
+      </c>
+      <c r="F1973" t="n">
+        <v>5250</v>
+      </c>
+      <c r="G1973" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1973" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1973" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1973" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1973" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1973" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1973" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1973" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1973" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1973" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1973" t="inlineStr"/>
+    </row>
+    <row r="1974">
+      <c r="A1974" s="2" t="n">
+        <v>45756.15625</v>
+      </c>
+      <c r="B1974" t="n">
+        <v>675</v>
+      </c>
+      <c r="C1974" t="n">
+        <v>684.7999877929688</v>
+      </c>
+      <c r="D1974" t="n">
+        <v>662</v>
+      </c>
+      <c r="E1974" t="n">
+        <v>684.7999877929688</v>
+      </c>
+      <c r="F1974" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1974" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1974" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1974" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1974" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1974" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1974" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1974" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1974" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1974" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1974" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1974" t="inlineStr"/>
+    </row>
+    <row r="1975">
+      <c r="A1975" s="2" t="n">
+        <v>45756.19791666666</v>
+      </c>
+      <c r="B1975" t="n">
+        <v>684</v>
+      </c>
+      <c r="C1975" t="n">
+        <v>684</v>
+      </c>
+      <c r="D1975" t="n">
+        <v>683.5</v>
+      </c>
+      <c r="E1975" t="n">
+        <v>683.5</v>
+      </c>
+      <c r="F1975" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G1975" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1975" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1975" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1975" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1975" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1975" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1975" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1975" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1975" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1975" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1975" t="inlineStr"/>
+    </row>
+    <row r="1976">
+      <c r="A1976" s="2" t="n">
+        <v>45756.23958333334</v>
+      </c>
+      <c r="B1976" t="n">
+        <v>682</v>
+      </c>
+      <c r="C1976" t="n">
+        <v>708</v>
+      </c>
+      <c r="D1976" t="n">
+        <v>680.5</v>
+      </c>
+      <c r="E1976" t="n">
+        <v>690</v>
+      </c>
+      <c r="F1976" t="n">
+        <v>13750</v>
+      </c>
+      <c r="G1976" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1976" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1976" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1976" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1976" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1976" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1976" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1976" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1976" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1976" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1976" t="inlineStr"/>
+    </row>
+    <row r="1977">
+      <c r="A1977" s="2" t="n">
+        <v>45756.28125</v>
+      </c>
+      <c r="B1977" t="n">
+        <v>686</v>
+      </c>
+      <c r="C1977" t="n">
+        <v>714.9500122070312</v>
+      </c>
+      <c r="D1977" t="n">
+        <v>686</v>
+      </c>
+      <c r="E1977" t="n">
+        <v>714.9500122070312</v>
+      </c>
+      <c r="F1977" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1977" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1977" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1977" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1977" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1977" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1977" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1977" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1977" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1977" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1977" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1977" t="inlineStr"/>
+    </row>
+    <row r="1978">
+      <c r="A1978" s="2" t="n">
+        <v>45756.32291666666</v>
+      </c>
+      <c r="B1978" t="n">
+        <v>713.4500122070312</v>
+      </c>
+      <c r="C1978" t="n">
+        <v>713.4500122070312</v>
+      </c>
+      <c r="D1978" t="n">
+        <v>707</v>
+      </c>
+      <c r="E1978" t="n">
+        <v>711.9000244140625</v>
+      </c>
+      <c r="F1978" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G1978" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1978" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1978" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1978" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1978" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1978" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1978" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1978" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1978" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1978" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1978" t="inlineStr"/>
+    </row>
+    <row r="1979">
+      <c r="A1979" s="2" t="n">
+        <v>45756.36458333334</v>
+      </c>
+      <c r="B1979" t="n">
+        <v>711.9000244140625</v>
+      </c>
+      <c r="C1979" t="n">
+        <v>715</v>
+      </c>
+      <c r="D1979" t="n">
+        <v>710</v>
+      </c>
+      <c r="E1979" t="n">
+        <v>710</v>
+      </c>
+      <c r="F1979" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G1979" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1979" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1979" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1979" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1979" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1979" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1979" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1979" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1979" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1979" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1979" t="inlineStr"/>
+    </row>
+    <row r="1980">
+      <c r="A1980" s="2" t="n">
+        <v>45756.40625</v>
+      </c>
+      <c r="B1980" t="n">
+        <v>713.2000122070312</v>
+      </c>
+      <c r="C1980" t="n">
+        <v>715</v>
+      </c>
+      <c r="D1980" t="n">
+        <v>709</v>
+      </c>
+      <c r="E1980" t="n">
+        <v>715</v>
+      </c>
+      <c r="F1980" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G1980" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1980" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1980" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1980" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1980" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1980" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1980" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1980" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1980" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1980" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1980" t="inlineStr"/>
+    </row>
+    <row r="1981">
+      <c r="A1981" s="2" t="n">
+        <v>45758.15625</v>
+      </c>
+      <c r="B1981" t="n">
+        <v>752</v>
+      </c>
+      <c r="C1981" t="n">
+        <v>752</v>
+      </c>
+      <c r="D1981" t="n">
+        <v>716.1500244140625</v>
+      </c>
+      <c r="E1981" t="n">
+        <v>716.1500244140625</v>
+      </c>
+      <c r="F1981" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1981" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1981" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1981" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1981" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1981" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1981" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1981" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1981" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1981" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1981" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1981" t="inlineStr"/>
+    </row>
+    <row r="1982">
+      <c r="A1982" s="2" t="n">
+        <v>45758.19791666666</v>
+      </c>
+      <c r="B1982" t="n">
+        <v>719</v>
+      </c>
+      <c r="C1982" t="n">
+        <v>738</v>
+      </c>
+      <c r="D1982" t="n">
+        <v>718.2999877929688</v>
+      </c>
+      <c r="E1982" t="n">
+        <v>737.9000244140625</v>
+      </c>
+      <c r="F1982" t="n">
+        <v>6250</v>
+      </c>
+      <c r="G1982" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1982" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1982" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1982" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1982" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1982" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1982" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1982" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1982" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1982" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1982" t="inlineStr"/>
+    </row>
+    <row r="1983">
+      <c r="A1983" s="2" t="n">
+        <v>45758.23958333334</v>
+      </c>
+      <c r="B1983" t="n">
+        <v>737.9000244140625</v>
+      </c>
+      <c r="C1983" t="n">
+        <v>740</v>
+      </c>
+      <c r="D1983" t="n">
+        <v>732.5999755859375</v>
+      </c>
+      <c r="E1983" t="n">
+        <v>740</v>
+      </c>
+      <c r="F1983" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G1983" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1983" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1983" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1983" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1983" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1983" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1983" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1983" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1983" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1983" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1983" t="inlineStr"/>
+    </row>
+    <row r="1984">
+      <c r="A1984" s="2" t="n">
+        <v>45758.28125</v>
+      </c>
+      <c r="B1984" t="n">
+        <v>740</v>
+      </c>
+      <c r="C1984" t="n">
+        <v>741.25</v>
+      </c>
+      <c r="D1984" t="n">
+        <v>727</v>
+      </c>
+      <c r="E1984" t="n">
+        <v>728</v>
+      </c>
+      <c r="F1984" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G1984" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1984" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1984" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1984" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1984" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1984" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1984" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1984" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1984" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1984" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1984" t="inlineStr"/>
+    </row>
+    <row r="1985">
+      <c r="A1985" s="2" t="n">
+        <v>45758.32291666666</v>
+      </c>
+      <c r="B1985" t="n">
+        <v>731.7999877929688</v>
+      </c>
+      <c r="C1985" t="n">
+        <v>731.7999877929688</v>
+      </c>
+      <c r="D1985" t="n">
+        <v>726</v>
+      </c>
+      <c r="E1985" t="n">
+        <v>730</v>
+      </c>
+      <c r="F1985" t="n">
+        <v>5250</v>
+      </c>
+      <c r="G1985" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1985" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1985" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1985" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1985" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1985" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1985" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1985" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1985" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1985" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1985" t="inlineStr"/>
+    </row>
+    <row r="1986">
+      <c r="A1986" s="2" t="n">
+        <v>45758.36458333334</v>
+      </c>
+      <c r="B1986" t="n">
+        <v>733.6500244140625</v>
+      </c>
+      <c r="C1986" t="n">
+        <v>738</v>
+      </c>
+      <c r="D1986" t="n">
+        <v>733.6500244140625</v>
+      </c>
+      <c r="E1986" t="n">
+        <v>738</v>
+      </c>
+      <c r="F1986" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G1986" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1986" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1986" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1986" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1986" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1986" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1986" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1986" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1986" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1986" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1986" t="inlineStr"/>
+    </row>
+    <row r="1987">
+      <c r="A1987" s="2" t="n">
+        <v>45758.40625</v>
+      </c>
+      <c r="B1987" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="C1987" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="D1987" t="n">
+        <v>725</v>
+      </c>
+      <c r="E1987" t="n">
+        <v>730.2999877929688</v>
+      </c>
+      <c r="F1987" t="n">
+        <v>4750</v>
+      </c>
+      <c r="G1987" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1987" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1987" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1987" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1987" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1987" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1987" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1987" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1987" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1987" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1987" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
